--- a/BackTest/2019-11-14 BackTest OGO.xlsx
+++ b/BackTest/2019-11-14 BackTest OGO.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.199999999999996</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-9.090909090909268</v>
+      </c>
       <c r="L12" t="n">
         <v>23.70000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.399999999999995</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-16.66666666666671</v>
+      </c>
       <c r="L13" t="n">
         <v>23.67000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.399999999999995</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-9.090909090909268</v>
+      </c>
       <c r="L14" t="n">
         <v>23.65000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.499999999999996</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-27.27272727272739</v>
+      </c>
       <c r="L15" t="n">
         <v>23.63</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.199999999999996</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-52.94117647058838</v>
+      </c>
       <c r="L16" t="n">
         <v>23.53000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.099999999999998</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-8.333333333333297</v>
+      </c>
       <c r="L17" t="n">
         <v>23.53000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.099999999999998</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>23.51000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.199999999999996</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-4.761904761904826</v>
+      </c>
       <c r="L19" t="n">
         <v>23.52000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.299999999999997</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>4.761904761904826</v>
+      </c>
       <c r="L20" t="n">
         <v>23.52</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.299999999999997</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>4.761904761904826</v>
+      </c>
       <c r="L21" t="n">
         <v>23.53000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.299999999999997</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>15.78947368421055</v>
+      </c>
       <c r="L22" t="n">
         <v>23.54000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.399999999999995</v>
       </c>
       <c r="K23" t="n">
-        <v>3.030303030302972</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L23" t="n">
         <v>23.58000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>3.699999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>14.28571428571431</v>
+        <v>36.36363636363641</v>
       </c>
       <c r="L24" t="n">
         <v>23.65000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>3.899999999999995</v>
       </c>
       <c r="K25" t="n">
-        <v>22.22222222222218</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>23.75</v>
@@ -1564,7 +1586,7 @@
         <v>3.999999999999993</v>
       </c>
       <c r="K26" t="n">
-        <v>16.66666666666673</v>
+        <v>77.77777777777813</v>
       </c>
       <c r="L26" t="n">
         <v>23.91</v>
@@ -1613,7 +1635,7 @@
         <v>4.299999999999994</v>
       </c>
       <c r="K27" t="n">
-        <v>10.52631578947365</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>23.95</v>
@@ -1662,7 +1684,7 @@
         <v>4.299999999999994</v>
       </c>
       <c r="K28" t="n">
-        <v>5.555555555555539</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L28" t="n">
         <v>23.99</v>
@@ -1711,7 +1733,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K29" t="n">
-        <v>2.702702702702646</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L29" t="n">
         <v>23.99</v>
@@ -1760,7 +1782,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K30" t="n">
-        <v>-2.857142857142898</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L30" t="n">
         <v>23.98</v>
@@ -1809,7 +1831,7 @@
         <v>4.799999999999994</v>
       </c>
       <c r="K31" t="n">
-        <v>5.555555555555539</v>
+        <v>6.66666666666654</v>
       </c>
       <c r="L31" t="n">
         <v>23.99</v>
@@ -1860,7 +1882,7 @@
         <v>5.199999999999992</v>
       </c>
       <c r="K32" t="n">
-        <v>-4.999999999999987</v>
+        <v>-22.22222222222218</v>
       </c>
       <c r="L32" t="n">
         <v>23.96</v>
@@ -1911,7 +1933,7 @@
         <v>5.299999999999994</v>
       </c>
       <c r="K33" t="n">
-        <v>-2.564102564102602</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L33" t="n">
         <v>23.90999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K34" t="n">
-        <v>2.439024390243936</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L34" t="n">
         <v>23.84999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K35" t="n">
-        <v>-8.695652173913009</v>
+        <v>-61.9047619047618</v>
       </c>
       <c r="L35" t="n">
         <v>23.70999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>6.599999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>18.18181818181819</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L36" t="n">
         <v>23.62999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K37" t="n">
-        <v>-8.10810810810813</v>
+        <v>-27.99999999999993</v>
       </c>
       <c r="L37" t="n">
         <v>23.55999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>6.999999999999996</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.564102564102602</v>
+        <v>-8.333333333333297</v>
       </c>
       <c r="L38" t="n">
         <v>23.50999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>7.299999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>-12.19512195121951</v>
+        <v>-18.5185185185185</v>
       </c>
       <c r="L39" t="n">
         <v>23.45999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>7.899999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L40" t="n">
         <v>23.46999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>8.5</v>
       </c>
       <c r="K41" t="n">
-        <v>-11.53846153846156</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L41" t="n">
         <v>23.39999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>8.5</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.53846153846156</v>
+        <v>-6.249999999999965</v>
       </c>
       <c r="L42" t="n">
         <v>23.36999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>8.600000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>-11.53846153846148</v>
+        <v>-9.677419354838717</v>
       </c>
       <c r="L43" t="n">
         <v>23.35999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>8.600000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-18.36734693877546</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="L44" t="n">
         <v>23.32999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>8.900000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>-15.99999999999992</v>
+        <v>4.347826086956576</v>
       </c>
       <c r="L45" t="n">
         <v>23.38999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>9.400000000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>-22.22222222222217</v>
+        <v>-7.69230769230765</v>
       </c>
       <c r="L46" t="n">
         <v>23.34999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>9.400000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>-17.64705882352936</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L47" t="n">
         <v>23.32999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>9.500000000000004</v>
       </c>
       <c r="K48" t="n">
-        <v>-19.23076923076919</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L48" t="n">
         <v>23.27999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>9.500000000000004</v>
       </c>
       <c r="K49" t="n">
-        <v>-14.28571428571424</v>
+        <v>-49.99999999999989</v>
       </c>
       <c r="L49" t="n">
         <v>23.26</v>
@@ -2778,7 +2800,7 @@
         <v>9.500000000000004</v>
       </c>
       <c r="K50" t="n">
-        <v>-14.28571428571424</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L50" t="n">
         <v>23.18</v>
@@ -2829,7 +2851,7 @@
         <v>9.500000000000004</v>
       </c>
       <c r="K51" t="n">
-        <v>-19.1489361702127</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L51" t="n">
         <v>23.16</v>
@@ -2880,7 +2902,7 @@
         <v>9.600000000000005</v>
       </c>
       <c r="K52" t="n">
-        <v>-13.63636363636363</v>
+        <v>-40.00000000000007</v>
       </c>
       <c r="L52" t="n">
         <v>23.13</v>
@@ -2931,7 +2953,7 @@
         <v>9.800000000000004</v>
       </c>
       <c r="K53" t="n">
-        <v>-15.5555555555555</v>
+        <v>-50</v>
       </c>
       <c r="L53" t="n">
         <v>23.07</v>
@@ -2982,7 +3004,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>-10.6382978723404</v>
+        <v>-38.46153846153834</v>
       </c>
       <c r="L54" t="n">
         <v>23.04999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>2.439024390243932</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>22.99999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.11111111111104</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>22.99999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>-5.882352941176434</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L57" t="n">
         <v>22.99999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.882352941176434</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>23.02999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L59" t="n">
         <v>23.04999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>-23.07692307692306</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L60" t="n">
         <v>23.06999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>-9.090909090909033</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L61" t="n">
         <v>23.06999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>4.000000000000045</v>
+        <v>50</v>
       </c>
       <c r="L62" t="n">
         <v>23.10999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L63" t="n">
         <v>23.16999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L64" t="n">
         <v>23.19</v>
@@ -3543,7 +3565,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>-14.28571428571428</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L65" t="n">
         <v>23.21</v>
@@ -3594,7 +3616,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>12.49999999999992</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L66" t="n">
         <v>23.23</v>
@@ -3645,7 +3667,7 @@
         <v>11.10000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>5.882352941176324</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L67" t="n">
         <v>23.24</v>
@@ -3696,7 +3718,7 @@
         <v>11.20000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>5.882352941176544</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L68" t="n">
         <v>23.22</v>
@@ -3747,7 +3769,7 @@
         <v>11.20000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>5.882352941176544</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L69" t="n">
         <v>23.21</v>
@@ -3798,7 +3820,7 @@
         <v>11.3</v>
       </c>
       <c r="K70" t="n">
-        <v>11.11111111111107</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>23.21</v>
@@ -3849,7 +3871,7 @@
         <v>11.5</v>
       </c>
       <c r="K71" t="n">
-        <v>19.99999999999993</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L71" t="n">
         <v>23.25</v>
@@ -3900,7 +3922,7 @@
         <v>11.7</v>
       </c>
       <c r="K72" t="n">
-        <v>14.28571428571433</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L72" t="n">
         <v>23.24</v>
@@ -3951,7 +3973,7 @@
         <v>11.7</v>
       </c>
       <c r="K73" t="n">
-        <v>26.31578947368423</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L73" t="n">
         <v>23.23</v>
@@ -4002,7 +4024,7 @@
         <v>12.2</v>
       </c>
       <c r="K74" t="n">
-        <v>29.99999999999995</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>23.26999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>12.2</v>
       </c>
       <c r="K75" t="n">
-        <v>29.99999999999995</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>23.30999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>12.6</v>
       </c>
       <c r="K76" t="n">
-        <v>8.33333333333332</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L76" t="n">
         <v>23.30999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>13</v>
       </c>
       <c r="K77" t="n">
-        <v>21.4285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>23.35999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>13</v>
       </c>
       <c r="K78" t="n">
-        <v>15.38461538461536</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>23.41999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>13.2</v>
       </c>
       <c r="K79" t="n">
-        <v>11.11111111111117</v>
+        <v>15.78947368421061</v>
       </c>
       <c r="L79" t="n">
         <v>23.45999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>13.8</v>
       </c>
       <c r="K80" t="n">
-        <v>27.27272727272739</v>
+        <v>30.43478260869582</v>
       </c>
       <c r="L80" t="n">
         <v>23.54999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>13.9</v>
       </c>
       <c r="K81" t="n">
-        <v>31.25000000000004</v>
+        <v>36.36363636363641</v>
       </c>
       <c r="L81" t="n">
         <v>23.60999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>14.1</v>
       </c>
       <c r="K82" t="n">
-        <v>29.03225806451614</v>
+        <v>41.66666666666669</v>
       </c>
       <c r="L82" t="n">
         <v>23.71</v>
@@ -4461,7 +4483,7 @@
         <v>14.9</v>
       </c>
       <c r="K83" t="n">
-        <v>43.58974358974363</v>
+        <v>48.14814814814819</v>
       </c>
       <c r="L83" t="n">
         <v>23.89</v>
@@ -4512,7 +4534,7 @@
         <v>16.2</v>
       </c>
       <c r="K84" t="n">
-        <v>7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>23.89</v>
@@ -4563,7 +4585,7 @@
         <v>16.3</v>
       </c>
       <c r="K85" t="n">
-        <v>5.660377358490586</v>
+        <v>8.10810810810813</v>
       </c>
       <c r="L85" t="n">
         <v>23.88</v>
@@ -4614,7 +4636,7 @@
         <v>16.4</v>
       </c>
       <c r="K86" t="n">
-        <v>3.703703703703694</v>
+        <v>-5.882352941176446</v>
       </c>
       <c r="L86" t="n">
         <v>23.9</v>
@@ -4665,7 +4687,7 @@
         <v>16.4</v>
       </c>
       <c r="K87" t="n">
-        <v>5.660377358490586</v>
+        <v>-5.882352941176446</v>
       </c>
       <c r="L87" t="n">
         <v>23.88</v>
@@ -4716,7 +4738,7 @@
         <v>16.7</v>
       </c>
       <c r="K88" t="n">
-        <v>1.818181818181781</v>
+        <v>-8.571428571428582</v>
       </c>
       <c r="L88" t="n">
         <v>23.83</v>
@@ -4767,7 +4789,7 @@
         <v>16.7</v>
       </c>
       <c r="K89" t="n">
-        <v>1.818181818181781</v>
+        <v>-31.03448275862074</v>
       </c>
       <c r="L89" t="n">
         <v>23.8</v>
@@ -4818,7 +4840,7 @@
         <v>16.8</v>
       </c>
       <c r="K90" t="n">
-        <v>1.818181818181844</v>
+        <v>-24.13793103448272</v>
       </c>
       <c r="L90" t="n">
         <v>23.72</v>
@@ -4869,7 +4891,7 @@
         <v>16.8</v>
       </c>
       <c r="K91" t="n">
-        <v>-1.886792452830148</v>
+        <v>-33.33333333333325</v>
       </c>
       <c r="L91" t="n">
         <v>23.65</v>
@@ -4920,7 +4942,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>-89.99999999999989</v>
       </c>
       <c r="L92" t="n">
         <v>23.55</v>
@@ -4971,7 +4993,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L93" t="n">
         <v>23.37</v>
@@ -5022,7 +5044,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>-10.63829787234042</v>
+        <v>-66.66666666666647</v>
       </c>
       <c r="L94" t="n">
         <v>23.32</v>
@@ -5073,7 +5095,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>1.886792452830214</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L95" t="n">
         <v>23.34</v>
@@ -5124,7 +5146,7 @@
         <v>18.10000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>-1.818181818181842</v>
+        <v>-17.64705882352939</v>
       </c>
       <c r="L96" t="n">
         <v>23.31</v>
@@ -5175,7 +5197,7 @@
         <v>18.20000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>-11.53846153846148</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L97" t="n">
         <v>23.27</v>
@@ -5226,7 +5248,7 @@
         <v>18.3</v>
       </c>
       <c r="K98" t="n">
-        <v>-9.433962264150935</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>23.27</v>
@@ -5277,7 +5299,7 @@
         <v>18.4</v>
       </c>
       <c r="K99" t="n">
-        <v>-7.692307692307661</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L99" t="n">
         <v>23.26000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>18.4</v>
       </c>
       <c r="K100" t="n">
-        <v>-21.7391304347826</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L100" t="n">
         <v>23.24</v>
@@ -5379,7 +5401,7 @@
         <v>18.4</v>
       </c>
       <c r="K101" t="n">
-        <v>-19.99999999999997</v>
+        <v>-6.66666666666654</v>
       </c>
       <c r="L101" t="n">
         <v>23.22</v>
@@ -5430,7 +5452,7 @@
         <v>18.4</v>
       </c>
       <c r="K102" t="n">
-        <v>-25.58139534883716</v>
+        <v>-6.66666666666654</v>
       </c>
       <c r="L102" t="n">
         <v>23.21</v>
@@ -5481,7 +5503,7 @@
         <v>18.5</v>
       </c>
       <c r="K103" t="n">
-        <v>-55.55555555555554</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L103" t="n">
         <v>23.19</v>
@@ -5532,7 +5554,7 @@
         <v>19.1</v>
       </c>
       <c r="K104" t="n">
-        <v>-3.448275862068889</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L104" t="n">
         <v>23.23</v>
@@ -5583,7 +5605,7 @@
         <v>19.70000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>-17.64705882352942</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L105" t="n">
         <v>23.15</v>
@@ -5634,7 +5656,7 @@
         <v>20.1</v>
       </c>
       <c r="K106" t="n">
-        <v>-2.702702702702739</v>
+        <v>15.78947368421039</v>
       </c>
       <c r="L106" t="n">
         <v>23.17000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>20.2</v>
       </c>
       <c r="K107" t="n">
-        <v>-5.263157894736822</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L107" t="n">
         <v>23.19</v>
@@ -5736,7 +5758,7 @@
         <v>20.5</v>
       </c>
       <c r="K108" t="n">
-        <v>10.52631578947374</v>
+        <v>23.8095238095238</v>
       </c>
       <c r="L108" t="n">
         <v>23.23000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>20.90000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>3.999999999999909</v>
       </c>
       <c r="L109" t="n">
         <v>23.24000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>21.1</v>
       </c>
       <c r="K110" t="n">
-        <v>-6.976744186046527</v>
+        <v>-3.703703703703753</v>
       </c>
       <c r="L110" t="n">
         <v>23.23000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>21.8</v>
       </c>
       <c r="K111" t="n">
-        <v>7.999999999999971</v>
+        <v>17.64705882352934</v>
       </c>
       <c r="L111" t="n">
         <v>23.29000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>22.2</v>
       </c>
       <c r="K112" t="n">
-        <v>1.886792452830216</v>
+        <v>8.10810810810813</v>
       </c>
       <c r="L112" t="n">
         <v>23.31000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>22.2</v>
       </c>
       <c r="K113" t="n">
-        <v>1.886792452830216</v>
+        <v>-9.67741935483874</v>
       </c>
       <c r="L113" t="n">
         <v>23.34</v>
@@ -6042,7 +6064,7 @@
         <v>22.3</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>7.692307692307672</v>
       </c>
       <c r="L114" t="n">
         <v>23.3</v>
@@ -6093,7 +6115,7 @@
         <v>23</v>
       </c>
       <c r="K115" t="n">
-        <v>1.818181818181781</v>
+        <v>17.24137931034484</v>
       </c>
       <c r="L115" t="n">
         <v>23.39</v>
@@ -6144,7 +6166,7 @@
         <v>23.6</v>
       </c>
       <c r="K116" t="n">
-        <v>1.818181818181846</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>23.38</v>
@@ -6195,7 +6217,7 @@
         <v>24.3</v>
       </c>
       <c r="K117" t="n">
-        <v>14.75409836065573</v>
+        <v>10.52631578947365</v>
       </c>
       <c r="L117" t="n">
         <v>23.45000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>24.9</v>
       </c>
       <c r="K118" t="n">
-        <v>3.030303030303021</v>
+        <v>4.999999999999987</v>
       </c>
       <c r="L118" t="n">
         <v>23.43</v>
@@ -6297,7 +6319,7 @@
         <v>24.9</v>
       </c>
       <c r="K119" t="n">
-        <v>4.615384615384572</v>
+        <v>10.52631578947365</v>
       </c>
       <c r="L119" t="n">
         <v>23.45000000000001</v>
@@ -6348,7 +6370,7 @@
         <v>25</v>
       </c>
       <c r="K120" t="n">
-        <v>3.030303030303021</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L120" t="n">
         <v>23.48000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>25</v>
       </c>
       <c r="K121" t="n">
-        <v>3.030303030303021</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>23.44000000000001</v>
@@ -6450,7 +6472,7 @@
         <v>25.1</v>
       </c>
       <c r="K122" t="n">
-        <v>1.492537313432804</v>
+        <v>-3.448275862069016</v>
       </c>
       <c r="L122" t="n">
         <v>23.43000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>25.2</v>
       </c>
       <c r="K123" t="n">
-        <v>4.477611940298519</v>
+        <v>3.448275862069016</v>
       </c>
       <c r="L123" t="n">
         <v>23.43000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>25.2</v>
       </c>
       <c r="K124" t="n">
-        <v>-4.918032786885259</v>
+        <v>-27.27272727272718</v>
       </c>
       <c r="L124" t="n">
         <v>23.44000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>25.3</v>
       </c>
       <c r="K125" t="n">
-        <v>7.142857142857125</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L125" t="n">
         <v>23.39000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>25.3</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L126" t="n">
         <v>23.40000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>25.5</v>
       </c>
       <c r="K127" t="n">
-        <v>-1.886792452830216</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>23.32</v>
@@ -6756,7 +6778,7 @@
         <v>25.6</v>
       </c>
       <c r="K128" t="n">
-        <v>-5.882352941176487</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L128" t="n">
         <v>23.31000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>25.9</v>
       </c>
       <c r="K129" t="n">
-        <v>8.000000000000048</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>23.33000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>25.9</v>
       </c>
       <c r="K130" t="n">
-        <v>12.50000000000004</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>23.36</v>
@@ -6909,7 +6931,7 @@
         <v>26.3</v>
       </c>
       <c r="K131" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>23.35</v>
@@ -7062,7 +7084,7 @@
         <v>26.40000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>2.439024390243936</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L134" t="n">
         <v>23.36</v>
@@ -7113,7 +7135,7 @@
         <v>26.50000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>-19.99999999999996</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L135" t="n">
         <v>23.34</v>
@@ -7164,7 +7186,7 @@
         <v>26.6</v>
       </c>
       <c r="K136" t="n">
-        <v>-6.666666666666635</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L136" t="n">
         <v>23.31</v>
@@ -7215,7 +7237,7 @@
         <v>26.6</v>
       </c>
       <c r="K137" t="n">
-        <v>-39.13043478260856</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L137" t="n">
         <v>23.3</v>
@@ -7266,7 +7288,7 @@
         <v>26.70000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>-22.22222222222209</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L138" t="n">
         <v>23.27</v>
@@ -7317,7 +7339,7 @@
         <v>26.80000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>-26.31578947368413</v>
+        <v>-77.7777777777776</v>
       </c>
       <c r="L139" t="n">
         <v>23.2</v>
@@ -7368,7 +7390,7 @@
         <v>26.90000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>-15.78947368421049</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L140" t="n">
         <v>23.14</v>
@@ -7419,7 +7441,7 @@
         <v>27.00000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>-20</v>
+        <v>-66.66666666666647</v>
       </c>
       <c r="L141" t="n">
         <v>23.11</v>
@@ -7470,7 +7492,7 @@
         <v>27.70000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>15.38461538461539</v>
+        <v>23.07692307692299</v>
       </c>
       <c r="L142" t="n">
         <v>23.14</v>
@@ -7521,7 +7543,7 @@
         <v>28.70000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>-19.99999999999992</v>
+        <v>-30.43478260869551</v>
       </c>
       <c r="L143" t="n">
         <v>23.07</v>
@@ -7572,7 +7594,7 @@
         <v>28.70000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>-19.99999999999992</v>
+        <v>-27.2727272727271</v>
       </c>
       <c r="L144" t="n">
         <v>23</v>
@@ -7623,7 +7645,7 @@
         <v>28.80000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>-25.71428571428557</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L145" t="n">
         <v>22.93</v>
@@ -7674,7 +7696,7 @@
         <v>28.90000000000002</v>
       </c>
       <c r="K146" t="n">
-        <v>-22.22222222222205</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L146" t="n">
         <v>22.88</v>
@@ -7725,7 +7747,7 @@
         <v>29.00000000000002</v>
       </c>
       <c r="K147" t="n">
-        <v>-19.99999999999988</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L147" t="n">
         <v>22.82</v>
@@ -7776,7 +7798,7 @@
         <v>29.00000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>-23.52941176470579</v>
+        <v>-18.18181818181803</v>
       </c>
       <c r="L148" t="n">
         <v>22.77</v>
@@ -7827,7 +7849,7 @@
         <v>29.00000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>-35.4838709677418</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L149" t="n">
         <v>22.73</v>
@@ -7878,7 +7900,7 @@
         <v>29.00000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>-35.4838709677418</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L150" t="n">
         <v>22.68</v>
@@ -7929,7 +7951,7 @@
         <v>29.10000000000002</v>
       </c>
       <c r="K151" t="n">
-        <v>-28.57142857142844</v>
+        <v>-85.71428571428557</v>
       </c>
       <c r="L151" t="n">
         <v>22.63</v>
@@ -7980,7 +8002,7 @@
         <v>29.10000000000002</v>
       </c>
       <c r="K152" t="n">
-        <v>-33.33333333333325</v>
+        <v>-50</v>
       </c>
       <c r="L152" t="n">
         <v>22.51</v>
@@ -8031,7 +8053,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K153" t="n">
-        <v>-28.57142857142844</v>
+        <v>-20</v>
       </c>
       <c r="L153" t="n">
         <v>22.5</v>
@@ -8082,7 +8104,7 @@
         <v>29.30000000000002</v>
       </c>
       <c r="K154" t="n">
-        <v>-31.03448275862059</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>22.48</v>
@@ -8133,7 +8155,7 @@
         <v>29.30000000000002</v>
       </c>
       <c r="K155" t="n">
-        <v>-28.57142857142844</v>
+        <v>-50</v>
       </c>
       <c r="L155" t="n">
         <v>22.47</v>
@@ -8184,7 +8206,7 @@
         <v>30.20000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>-44.44444444444429</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L156" t="n">
         <v>22.36</v>
@@ -8235,7 +8257,7 @@
         <v>31.50000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>-6.122448979591831</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="L157" t="n">
         <v>22.39</v>
@@ -8286,7 +8308,7 @@
         <v>32.50000000000002</v>
       </c>
       <c r="K158" t="n">
-        <v>-20.68965517241373</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L158" t="n">
         <v>22.32</v>
@@ -8337,7 +8359,7 @@
         <v>32.50000000000002</v>
       </c>
       <c r="K159" t="n">
-        <v>-19.298245614035</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L159" t="n">
         <v>22.25000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>32.70000000000002</v>
       </c>
       <c r="K160" t="n">
-        <v>-24.1379310344827</v>
+        <v>-22.22222222222216</v>
       </c>
       <c r="L160" t="n">
         <v>22.16</v>
@@ -8439,7 +8461,7 @@
         <v>32.70000000000002</v>
       </c>
       <c r="K161" t="n">
-        <v>-22.80701754385957</v>
+        <v>-22.22222222222216</v>
       </c>
       <c r="L161" t="n">
         <v>22.08000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>32.70000000000002</v>
       </c>
       <c r="K162" t="n">
-        <v>-39.99999999999997</v>
+        <v>-25.7142857142857</v>
       </c>
       <c r="L162" t="n">
         <v>22</v>
@@ -8541,7 +8563,7 @@
         <v>32.70000000000002</v>
       </c>
       <c r="K163" t="n">
-        <v>-24.99999999999998</v>
+        <v>-23.52941176470583</v>
       </c>
       <c r="L163" t="n">
         <v>21.91</v>
@@ -8592,7 +8614,7 @@
         <v>33.40000000000002</v>
       </c>
       <c r="K164" t="n">
-        <v>-6.382978723404261</v>
+        <v>-2.439024390243852</v>
       </c>
       <c r="L164" t="n">
         <v>21.9</v>
@@ -8643,7 +8665,7 @@
         <v>34.00000000000002</v>
       </c>
       <c r="K165" t="n">
-        <v>-15.38461538461538</v>
+        <v>5.263157894736822</v>
       </c>
       <c r="L165" t="n">
         <v>21.83</v>
@@ -8694,7 +8716,7 @@
         <v>34.30000000000003</v>
       </c>
       <c r="K166" t="n">
-        <v>-22.22222222222224</v>
+        <v>-50</v>
       </c>
       <c r="L166" t="n">
         <v>21.82</v>
@@ -8745,7 +8767,7 @@
         <v>34.50000000000003</v>
       </c>
       <c r="K167" t="n">
-        <v>-23.6363636363636</v>
+        <v>-29.99999999999996</v>
       </c>
       <c r="L167" t="n">
         <v>21.66</v>
@@ -8796,7 +8818,7 @@
         <v>34.60000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>-24.99999999999995</v>
+        <v>-33.33333333333328</v>
       </c>
       <c r="L168" t="n">
         <v>21.59</v>
@@ -8847,7 +8869,7 @@
         <v>34.70000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>-22.80701754385966</v>
+        <v>-20.00000000000011</v>
       </c>
       <c r="L169" t="n">
         <v>21.52999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>34.90000000000002</v>
       </c>
       <c r="K170" t="n">
-        <v>-18.64406779661019</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L170" t="n">
         <v>21.51</v>
@@ -8949,7 +8971,7 @@
         <v>34.90000000000002</v>
       </c>
       <c r="K171" t="n">
-        <v>-17.24137931034483</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L171" t="n">
         <v>21.49</v>
@@ -9000,7 +9022,7 @@
         <v>35.00000000000002</v>
       </c>
       <c r="K172" t="n">
-        <v>-15.25423728813556</v>
+        <v>-4.347826086956576</v>
       </c>
       <c r="L172" t="n">
         <v>21.48</v>
@@ -9051,7 +9073,7 @@
         <v>35.10000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>-15.25423728813556</v>
+        <v>-41.17647058823518</v>
       </c>
       <c r="L173" t="n">
         <v>21.48</v>
@@ -9102,7 +9124,7 @@
         <v>36.00000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>1.492537313432857</v>
+        <v>40.00000000000004</v>
       </c>
       <c r="L174" t="n">
         <v>21.5</v>
@@ -9153,7 +9175,7 @@
         <v>36.30000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>-2.857142857142846</v>
+        <v>40.00000000000004</v>
       </c>
       <c r="L175" t="n">
         <v>21.55</v>
@@ -9204,7 +9226,7 @@
         <v>37.10000000000002</v>
       </c>
       <c r="K176" t="n">
-        <v>-1.449275362318861</v>
+        <v>7.692307692307682</v>
       </c>
       <c r="L176" t="n">
         <v>21.55</v>
@@ -9255,7 +9277,7 @@
         <v>37.90000000000002</v>
       </c>
       <c r="K177" t="n">
-        <v>-9.375000000000025</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="L177" t="n">
         <v>21.65</v>
@@ -9306,7 +9328,7 @@
         <v>38.70000000000002</v>
       </c>
       <c r="K178" t="n">
-        <v>-6.451612903225845</v>
+        <v>4.999999999999982</v>
       </c>
       <c r="L178" t="n">
         <v>21.68</v>
@@ -9357,7 +9379,7 @@
         <v>38.90000000000002</v>
       </c>
       <c r="K179" t="n">
-        <v>-3.12499999999999</v>
+        <v>5.000000000000071</v>
       </c>
       <c r="L179" t="n">
         <v>21.72</v>
@@ -9408,7 +9430,7 @@
         <v>38.90000000000002</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>5.000000000000071</v>
       </c>
       <c r="L180" t="n">
         <v>21.74</v>
@@ -9459,7 +9481,7 @@
         <v>39.00000000000002</v>
       </c>
       <c r="K181" t="n">
-        <v>-1.587301587301609</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>21.75</v>
@@ -9510,7 +9532,7 @@
         <v>39.20000000000002</v>
       </c>
       <c r="K182" t="n">
-        <v>-4.615384615384626</v>
+        <v>-7.317073170731734</v>
       </c>
       <c r="L182" t="n">
         <v>21.73</v>
@@ -9561,7 +9583,7 @@
         <v>39.40000000000002</v>
       </c>
       <c r="K183" t="n">
-        <v>-1.492537313432856</v>
+        <v>-29.41176470588237</v>
       </c>
       <c r="L183" t="n">
         <v>21.72</v>
@@ -9612,7 +9634,7 @@
         <v>40.00000000000002</v>
       </c>
       <c r="K184" t="n">
-        <v>-21.21212121212124</v>
+        <v>-35.13513513513519</v>
       </c>
       <c r="L184" t="n">
         <v>21.56</v>
@@ -9663,7 +9685,7 @@
         <v>40.60000000000002</v>
       </c>
       <c r="K185" t="n">
-        <v>-3.030303030303019</v>
+        <v>2.857142857142898</v>
       </c>
       <c r="L185" t="n">
         <v>21.49</v>
@@ -9714,7 +9736,7 @@
         <v>41.00000000000002</v>
       </c>
       <c r="K186" t="n">
-        <v>7.462686567164184</v>
+        <v>-9.67741935483873</v>
       </c>
       <c r="L186" t="n">
         <v>21.54</v>
@@ -9765,7 +9787,7 @@
         <v>41.40000000000002</v>
       </c>
       <c r="K187" t="n">
-        <v>4.347826086956537</v>
+        <v>3.703703703703753</v>
       </c>
       <c r="L187" t="n">
         <v>21.47</v>
@@ -9816,7 +9838,7 @@
         <v>42.10000000000002</v>
       </c>
       <c r="K188" t="n">
-        <v>14.66666666666664</v>
+        <v>18.74999999999992</v>
       </c>
       <c r="L188" t="n">
         <v>21.55</v>
@@ -9867,7 +9889,7 @@
         <v>42.70000000000002</v>
       </c>
       <c r="K189" t="n">
-        <v>5.000000000000027</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>21.55</v>
@@ -9918,7 +9940,7 @@
         <v>42.80000000000002</v>
       </c>
       <c r="K190" t="n">
-        <v>1.265822784810145</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>21.54</v>
@@ -9969,7 +9991,7 @@
         <v>43.00000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>-1.234567901234543</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>21.52</v>
@@ -10020,7 +10042,7 @@
         <v>43.10000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>-1.234567901234587</v>
+        <v>-2.702702702702749</v>
       </c>
       <c r="L192" t="n">
         <v>21.53</v>
@@ -10071,7 +10093,7 @@
         <v>43.30000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>21.21212121212136</v>
       </c>
       <c r="L193" t="n">
         <v>21.54</v>
@@ -10122,7 +10144,7 @@
         <v>43.40000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>-13.51351351351353</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>21.6</v>
@@ -10173,7 +10195,7 @@
         <v>43.60000000000001</v>
       </c>
       <c r="K195" t="n">
-        <v>-6.849315068493167</v>
+        <v>-7.692307692307702</v>
       </c>
       <c r="L195" t="n">
         <v>21.62</v>
@@ -10224,7 +10246,7 @@
         <v>43.70000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>6.060606060606104</v>
+        <v>13.04347826086965</v>
       </c>
       <c r="L196" t="n">
         <v>21.61</v>
@@ -10275,7 +10297,7 @@
         <v>43.80000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>-8.474576271186454</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L197" t="n">
         <v>21.63</v>
@@ -10326,7 +10348,7 @@
         <v>43.80000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>5.882352941176491</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L198" t="n">
         <v>21.58</v>
@@ -10377,7 +10399,7 @@
         <v>43.90000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>3.999999999999992</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L199" t="n">
         <v>21.6</v>
@@ -10428,7 +10450,7 @@
         <v>44.00000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>5.882352941176421</v>
+        <v>59.99999999999979</v>
       </c>
       <c r="L200" t="n">
         <v>21.64</v>
@@ -10479,7 +10501,7 @@
         <v>44.10000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>5.882352941176499</v>
+        <v>40.00000000000021</v>
       </c>
       <c r="L201" t="n">
         <v>21.69</v>
@@ -10530,7 +10552,7 @@
         <v>44.2</v>
       </c>
       <c r="K202" t="n">
-        <v>11.99999999999999</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>21.74</v>
@@ -10581,7 +10603,7 @@
         <v>44.3</v>
       </c>
       <c r="K203" t="n">
-        <v>6.12244897959188</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L203" t="n">
         <v>21.76</v>

--- a/BackTest/2019-11-14 BackTest OGO.xlsx
+++ b/BackTest/2019-11-14 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S203"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.2000000000000028</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.3000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.3999999999999986</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4999999999999964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6999999999999957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.899999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.099999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,20 +771,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.199999999999996</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,22 +806,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.199999999999996</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-9.090909090909268</v>
-      </c>
-      <c r="L12" t="n">
-        <v>23.70000000000001</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.399999999999995</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-16.66666666666671</v>
-      </c>
-      <c r="L13" t="n">
-        <v>23.67000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.399999999999995</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-9.090909090909268</v>
-      </c>
-      <c r="L14" t="n">
-        <v>23.65000000000001</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.499999999999996</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-27.27272727272739</v>
-      </c>
-      <c r="L15" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-52.94117647058838</v>
-      </c>
-      <c r="L16" t="n">
-        <v>23.53000000000001</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.099999999999998</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-8.333333333333297</v>
-      </c>
-      <c r="L17" t="n">
-        <v>23.53000000000001</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.099999999999998</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>23.51000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1243,22 +1051,10 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.199999999999996</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-4.761904761904826</v>
-      </c>
-      <c r="L19" t="n">
-        <v>23.52000000000001</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.761904761904826</v>
-      </c>
-      <c r="L20" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.761904761904826</v>
-      </c>
-      <c r="L21" t="n">
-        <v>23.53000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>23.615</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="K22" t="n">
-        <v>15.78947368421055</v>
-      </c>
-      <c r="L22" t="n">
-        <v>23.54000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>23.62</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.399999999999995</v>
-      </c>
-      <c r="K23" t="n">
-        <v>19.99999999999993</v>
-      </c>
-      <c r="L23" t="n">
-        <v>23.58000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>23.625</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.699999999999996</v>
-      </c>
-      <c r="K24" t="n">
-        <v>36.36363636363641</v>
-      </c>
-      <c r="L24" t="n">
-        <v>23.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.899999999999995</v>
-      </c>
-      <c r="K25" t="n">
-        <v>100</v>
-      </c>
-      <c r="L25" t="n">
-        <v>23.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>23.69</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.999999999999993</v>
-      </c>
-      <c r="K26" t="n">
-        <v>77.77777777777813</v>
-      </c>
-      <c r="L26" t="n">
-        <v>23.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.299999999999994</v>
-      </c>
-      <c r="K27" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L27" t="n">
-        <v>23.95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>23.74</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.299999999999994</v>
-      </c>
-      <c r="K28" t="n">
-        <v>27.27272727272739</v>
-      </c>
-      <c r="L28" t="n">
-        <v>23.99</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.599999999999994</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L29" t="n">
-        <v>23.99</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>23.755</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,24 +1436,10 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>4.599999999999994</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L30" t="n">
-        <v>23.98</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.799999999999994</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6.66666666666654</v>
-      </c>
-      <c r="L31" t="n">
-        <v>23.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>23.76</v>
-      </c>
-      <c r="N31" t="n">
-        <v>23.74000000000001</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.199999999999992</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-22.22222222222218</v>
-      </c>
-      <c r="L32" t="n">
-        <v>23.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="N32" t="n">
-        <v>23.73333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.299999999999994</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-50.00000000000011</v>
-      </c>
-      <c r="L33" t="n">
-        <v>23.90999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>23.745</v>
-      </c>
-      <c r="N33" t="n">
-        <v>23.72000000000001</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.499999999999996</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-49.99999999999978</v>
-      </c>
-      <c r="L34" t="n">
-        <v>23.84999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="N34" t="n">
-        <v>23.71666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J35" t="n">
-        <v>6.099999999999998</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-61.9047619047618</v>
-      </c>
-      <c r="L35" t="n">
-        <v>23.70999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="N35" t="n">
-        <v>23.69666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J36" t="n">
-        <v>6.599999999999998</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-21.73913043478257</v>
-      </c>
-      <c r="L36" t="n">
-        <v>23.62999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="N36" t="n">
-        <v>23.69</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J37" t="n">
-        <v>6.799999999999997</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-27.99999999999993</v>
-      </c>
-      <c r="L37" t="n">
-        <v>23.55999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>23.755</v>
-      </c>
-      <c r="N37" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J38" t="n">
-        <v>6.999999999999996</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-8.333333333333297</v>
-      </c>
-      <c r="L38" t="n">
-        <v>23.50999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="N38" t="n">
-        <v>23.67</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7.299999999999997</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-18.5185185185185</v>
-      </c>
-      <c r="L39" t="n">
-        <v>23.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>23.725</v>
-      </c>
-      <c r="N39" t="n">
-        <v>23.65666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J40" t="n">
-        <v>7.899999999999999</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-3.22580645161283</v>
-      </c>
-      <c r="L40" t="n">
-        <v>23.46999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>23.725</v>
-      </c>
-      <c r="N40" t="n">
-        <v>23.65666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L41" t="n">
-        <v>23.39999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>23.695</v>
-      </c>
-      <c r="N41" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-6.249999999999965</v>
-      </c>
-      <c r="L42" t="n">
-        <v>23.36999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>23.665</v>
-      </c>
-      <c r="N42" t="n">
-        <v>23.62333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J43" t="n">
-        <v>8.600000000000001</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-9.677419354838717</v>
-      </c>
-      <c r="L43" t="n">
-        <v>23.35999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>23.635</v>
-      </c>
-      <c r="N43" t="n">
-        <v>23.61666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J44" t="n">
-        <v>8.600000000000001</v>
-      </c>
-      <c r="K44" t="n">
-        <v>12.00000000000001</v>
-      </c>
-      <c r="L44" t="n">
-        <v>23.32999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>23.59</v>
-      </c>
-      <c r="N44" t="n">
-        <v>23.61</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J45" t="n">
-        <v>8.900000000000002</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.347826086956576</v>
-      </c>
-      <c r="L45" t="n">
-        <v>23.38999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="N45" t="n">
-        <v>23.61666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J46" t="n">
-        <v>9.400000000000002</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-7.69230769230765</v>
-      </c>
-      <c r="L46" t="n">
-        <v>23.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>23.49</v>
-      </c>
-      <c r="N46" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J47" t="n">
-        <v>9.400000000000002</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-16.66666666666657</v>
-      </c>
-      <c r="L47" t="n">
-        <v>23.32999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>23.445</v>
-      </c>
-      <c r="N47" t="n">
-        <v>23.61333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9.500000000000004</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-9.090909090909033</v>
-      </c>
-      <c r="L48" t="n">
-        <v>23.27999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>23.395</v>
-      </c>
-      <c r="N48" t="n">
-        <v>23.59333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J49" t="n">
-        <v>9.500000000000004</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-49.99999999999989</v>
-      </c>
-      <c r="L49" t="n">
-        <v>23.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>23.36</v>
-      </c>
-      <c r="N49" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J50" t="n">
-        <v>9.500000000000004</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L50" t="n">
-        <v>23.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>23.325</v>
-      </c>
-      <c r="N50" t="n">
-        <v>23.54333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J51" t="n">
-        <v>9.500000000000004</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L51" t="n">
-        <v>23.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="N51" t="n">
-        <v>23.51666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9.600000000000005</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-40.00000000000007</v>
-      </c>
-      <c r="L52" t="n">
-        <v>23.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="N52" t="n">
-        <v>23.48666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>9.800000000000004</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L53" t="n">
-        <v>23.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>23.215</v>
-      </c>
-      <c r="N53" t="n">
-        <v>23.44666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J54" t="n">
-        <v>10.20000000000001</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-38.46153846153834</v>
-      </c>
-      <c r="L54" t="n">
-        <v>23.04999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="N54" t="n">
-        <v>23.41</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J55" t="n">
-        <v>10.20000000000001</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>22.99999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>23.195</v>
-      </c>
-      <c r="N55" t="n">
-        <v>23.36666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J56" t="n">
-        <v>10.20000000000001</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>22.99999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>23.175</v>
-      </c>
-      <c r="N56" t="n">
-        <v>23.32666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J57" t="n">
-        <v>10.20000000000001</v>
-      </c>
-      <c r="K57" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L57" t="n">
-        <v>22.99999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>23.16500000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>23.29666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J58" t="n">
-        <v>10.40000000000001</v>
-      </c>
-      <c r="K58" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>23.02999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>23.15500000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>23.27333333333334</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>10.50000000000001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L59" t="n">
-        <v>23.04999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>23.15500000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>23.25666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>10.50000000000001</v>
-      </c>
-      <c r="K60" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L60" t="n">
-        <v>23.06999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>23.12500000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>23.24000000000001</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J61" t="n">
-        <v>10.70000000000001</v>
-      </c>
-      <c r="K61" t="n">
-        <v>9.090909090909207</v>
-      </c>
-      <c r="L61" t="n">
-        <v>23.06999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>23.11500000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11.00000000000001</v>
-      </c>
-      <c r="K62" t="n">
-        <v>50</v>
-      </c>
-      <c r="L62" t="n">
-        <v>23.10999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>23.12000000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>23.20333333333334</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J63" t="n">
-        <v>11.00000000000001</v>
-      </c>
-      <c r="K63" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L63" t="n">
-        <v>23.16999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>23.12000000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J64" t="n">
-        <v>11.00000000000001</v>
-      </c>
-      <c r="K64" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L64" t="n">
-        <v>23.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>23.12000000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J65" t="n">
-        <v>11.00000000000001</v>
-      </c>
-      <c r="K65" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L65" t="n">
-        <v>23.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>23.10500000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J66" t="n">
-        <v>11.00000000000001</v>
-      </c>
-      <c r="K66" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L66" t="n">
-        <v>23.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>23.11500000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>23.19333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11.10000000000001</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L67" t="n">
-        <v>23.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>23.12</v>
-      </c>
-      <c r="N67" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J68" t="n">
-        <v>11.20000000000001</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-14.285714285714</v>
-      </c>
-      <c r="L68" t="n">
-        <v>23.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>23.12500000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>23.17666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J69" t="n">
-        <v>11.20000000000001</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-14.285714285714</v>
-      </c>
-      <c r="L69" t="n">
-        <v>23.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>23.13000000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>23.17333333333334</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L70" t="n">
-        <v>23.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>23.14000000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>23.15333333333334</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J71" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L71" t="n">
-        <v>23.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="N71" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L72" t="n">
-        <v>23.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>23.175</v>
-      </c>
-      <c r="N72" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L73" t="n">
-        <v>23.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>23.20000000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>23.15666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,26 +2976,10 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K74" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L74" t="n">
-        <v>23.26999999999999</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="N74" t="n">
-        <v>23.17000000000001</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,26 +3011,10 @@
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L75" t="n">
-        <v>23.30999999999999</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="N75" t="n">
-        <v>23.17333333333334</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J76" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K76" t="n">
-        <v>6.666666666666793</v>
-      </c>
-      <c r="L76" t="n">
-        <v>23.30999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="N76" t="n">
-        <v>23.18000000000001</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4173,26 +3081,10 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>13</v>
-      </c>
-      <c r="K77" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L77" t="n">
-        <v>23.35999999999999</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="N77" t="n">
-        <v>23.20000000000001</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4224,26 +3116,10 @@
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>13</v>
-      </c>
-      <c r="K78" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L78" t="n">
-        <v>23.41999999999999</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="N78" t="n">
-        <v>23.22333333333334</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J79" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K79" t="n">
-        <v>15.78947368421061</v>
-      </c>
-      <c r="L79" t="n">
-        <v>23.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>23.335</v>
-      </c>
-      <c r="N79" t="n">
-        <v>23.24000000000001</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4000000000000021</v>
-      </c>
-      <c r="J80" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K80" t="n">
-        <v>30.43478260869582</v>
-      </c>
-      <c r="L80" t="n">
-        <v>23.54999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="N80" t="n">
-        <v>23.27666666666668</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J81" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K81" t="n">
-        <v>36.36363636363641</v>
-      </c>
-      <c r="L81" t="n">
-        <v>23.60999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="N81" t="n">
-        <v>23.31000000000001</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K82" t="n">
-        <v>41.66666666666669</v>
-      </c>
-      <c r="L82" t="n">
-        <v>23.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>23.475</v>
-      </c>
-      <c r="N82" t="n">
-        <v>23.35333333333335</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J83" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K83" t="n">
-        <v>48.14814814814819</v>
-      </c>
-      <c r="L83" t="n">
-        <v>23.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>23.56</v>
-      </c>
-      <c r="N83" t="n">
-        <v>23.43000000000001</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,26 +3326,10 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>23.89</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>23.58</v>
-      </c>
-      <c r="N84" t="n">
-        <v>23.45000000000001</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J85" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K85" t="n">
-        <v>8.10810810810813</v>
-      </c>
-      <c r="L85" t="n">
-        <v>23.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>23.595</v>
-      </c>
-      <c r="N85" t="n">
-        <v>23.46666666666668</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J86" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-5.882352941176446</v>
-      </c>
-      <c r="L86" t="n">
-        <v>23.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>23.605</v>
-      </c>
-      <c r="N86" t="n">
-        <v>23.48000000000001</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J87" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-5.882352941176446</v>
-      </c>
-      <c r="L87" t="n">
-        <v>23.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>23.62</v>
-      </c>
-      <c r="N87" t="n">
-        <v>23.49333333333334</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-8.571428571428582</v>
-      </c>
-      <c r="L88" t="n">
-        <v>23.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>23.625</v>
-      </c>
-      <c r="N88" t="n">
-        <v>23.49000000000001</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-31.03448275862074</v>
-      </c>
-      <c r="L89" t="n">
-        <v>23.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="N89" t="n">
-        <v>23.49000000000001</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J90" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-24.13793103448272</v>
-      </c>
-      <c r="L90" t="n">
-        <v>23.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>23.635</v>
-      </c>
-      <c r="N90" t="n">
-        <v>23.49333333333334</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J91" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-33.33333333333325</v>
-      </c>
-      <c r="L91" t="n">
-        <v>23.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="N91" t="n">
-        <v>23.50333333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>16.90000000000001</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-89.99999999999989</v>
-      </c>
-      <c r="L92" t="n">
-        <v>23.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="N92" t="n">
-        <v>23.50000000000001</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>16.90000000000001</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-71.42857142857115</v>
-      </c>
-      <c r="L93" t="n">
-        <v>23.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="N93" t="n">
-        <v>23.49666666666668</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>16.90000000000001</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-66.66666666666647</v>
-      </c>
-      <c r="L94" t="n">
-        <v>23.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>23.605</v>
-      </c>
-      <c r="N94" t="n">
-        <v>23.49333333333335</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J95" t="n">
-        <v>17.50000000000001</v>
-      </c>
-      <c r="K95" t="n">
-        <v>27.27272727272722</v>
-      </c>
-      <c r="L95" t="n">
-        <v>23.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>23.61</v>
-      </c>
-      <c r="N95" t="n">
-        <v>23.51000000000002</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>18.10000000000001</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-17.64705882352939</v>
-      </c>
-      <c r="L96" t="n">
-        <v>23.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>23.605</v>
-      </c>
-      <c r="N96" t="n">
-        <v>23.50666666666669</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J97" t="n">
-        <v>18.20000000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-6.666666666666508</v>
-      </c>
-      <c r="L97" t="n">
-        <v>23.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>23.575</v>
-      </c>
-      <c r="N97" t="n">
-        <v>23.50333333333335</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>23.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="N98" t="n">
-        <v>23.50666666666669</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J99" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-12.49999999999997</v>
-      </c>
-      <c r="L99" t="n">
-        <v>23.26000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="N99" t="n">
-        <v>23.50666666666669</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J100" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-12.49999999999997</v>
-      </c>
-      <c r="L100" t="n">
-        <v>23.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="N100" t="n">
-        <v>23.50333333333335</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J101" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-6.66666666666654</v>
-      </c>
-      <c r="L101" t="n">
-        <v>23.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>23.435</v>
-      </c>
-      <c r="N101" t="n">
-        <v>23.49333333333335</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J102" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-6.66666666666654</v>
-      </c>
-      <c r="L102" t="n">
-        <v>23.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="N102" t="n">
-        <v>23.49000000000002</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J103" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-12.49999999999997</v>
-      </c>
-      <c r="L103" t="n">
-        <v>23.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="N103" t="n">
-        <v>23.48333333333335</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J104" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-12.49999999999997</v>
-      </c>
-      <c r="L104" t="n">
-        <v>23.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>23.27500000000001</v>
-      </c>
-      <c r="N104" t="n">
-        <v>23.48000000000002</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J105" t="n">
-        <v>19.70000000000001</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-12.49999999999997</v>
-      </c>
-      <c r="L105" t="n">
-        <v>23.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>23.245</v>
-      </c>
-      <c r="N105" t="n">
-        <v>23.45666666666668</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J106" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="K106" t="n">
-        <v>15.78947368421039</v>
-      </c>
-      <c r="L106" t="n">
-        <v>23.17000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>23.24</v>
-      </c>
-      <c r="N106" t="n">
-        <v>23.46000000000002</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J107" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>5.263157894736921</v>
-      </c>
-      <c r="L107" t="n">
-        <v>23.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="N107" t="n">
-        <v>23.44666666666668</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J108" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K108" t="n">
-        <v>23.8095238095238</v>
-      </c>
-      <c r="L108" t="n">
-        <v>23.23000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>23.25000000000001</v>
-      </c>
-      <c r="N108" t="n">
-        <v>23.44333333333335</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J109" t="n">
-        <v>20.90000000000001</v>
-      </c>
-      <c r="K109" t="n">
-        <v>3.999999999999909</v>
-      </c>
-      <c r="L109" t="n">
-        <v>23.24000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>23.25000000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>23.43333333333335</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J110" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-3.703703703703753</v>
-      </c>
-      <c r="L110" t="n">
-        <v>23.23000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>23.23500000000001</v>
-      </c>
-      <c r="N110" t="n">
-        <v>23.39666666666668</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,26 +4271,10 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="K111" t="n">
-        <v>17.64705882352934</v>
-      </c>
-      <c r="L111" t="n">
-        <v>23.29000000000001</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>23.255</v>
-      </c>
-      <c r="N111" t="n">
-        <v>23.38666666666668</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J112" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="K112" t="n">
-        <v>8.10810810810813</v>
-      </c>
-      <c r="L112" t="n">
-        <v>23.31000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>23.26000000000001</v>
-      </c>
-      <c r="N112" t="n">
-        <v>23.35666666666668</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J113" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-9.67741935483874</v>
-      </c>
-      <c r="L113" t="n">
-        <v>23.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>23.26500000000001</v>
-      </c>
-      <c r="N113" t="n">
-        <v>23.30000000000001</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J114" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="K114" t="n">
-        <v>7.692307692307672</v>
-      </c>
-      <c r="L114" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>23.26500000000001</v>
-      </c>
-      <c r="N114" t="n">
-        <v>23.28333333333335</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J115" t="n">
-        <v>23</v>
-      </c>
-      <c r="K115" t="n">
-        <v>17.24137931034484</v>
-      </c>
-      <c r="L115" t="n">
-        <v>23.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="N115" t="n">
-        <v>23.29333333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4444,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J116" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>23.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>23.27500000000001</v>
-      </c>
-      <c r="N116" t="n">
-        <v>23.28666666666668</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J117" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="K117" t="n">
-        <v>10.52631578947365</v>
-      </c>
-      <c r="L117" t="n">
-        <v>23.45000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="N117" t="n">
-        <v>23.30333333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J118" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="K118" t="n">
-        <v>4.999999999999987</v>
-      </c>
-      <c r="L118" t="n">
-        <v>23.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>23.33000000000001</v>
-      </c>
-      <c r="N118" t="n">
-        <v>23.31000000000001</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J119" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="K119" t="n">
-        <v>10.52631578947365</v>
-      </c>
-      <c r="L119" t="n">
-        <v>23.45000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>23.345</v>
-      </c>
-      <c r="N119" t="n">
-        <v>23.31666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J120" t="n">
-        <v>25</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-12.49999999999997</v>
-      </c>
-      <c r="L120" t="n">
-        <v>23.48000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>23.355</v>
-      </c>
-      <c r="N120" t="n">
-        <v>23.31666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J121" t="n">
-        <v>25</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>23.44000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>23.365</v>
-      </c>
-      <c r="N121" t="n">
-        <v>23.31666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J122" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-3.448275862069016</v>
-      </c>
-      <c r="L122" t="n">
-        <v>23.43000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="N122" t="n">
-        <v>23.31666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4689,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J123" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K123" t="n">
-        <v>3.448275862069016</v>
-      </c>
-      <c r="L123" t="n">
-        <v>23.43000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>23.385</v>
-      </c>
-      <c r="N123" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4724,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J124" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-27.27272727272718</v>
-      </c>
-      <c r="L124" t="n">
-        <v>23.44000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="N124" t="n">
-        <v>23.32333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +4759,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J125" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K125" t="n">
-        <v>5.882352941176348</v>
-      </c>
-      <c r="L125" t="n">
-        <v>23.39000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="N125" t="n">
-        <v>23.31</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +4794,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J126" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L126" t="n">
-        <v>23.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="N126" t="n">
-        <v>23.31666666666666</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +4829,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J127" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L127" t="n">
-        <v>23.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>23.385</v>
-      </c>
-      <c r="N127" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +4864,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J128" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-14.285714285714</v>
-      </c>
-      <c r="L128" t="n">
-        <v>23.31000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="N128" t="n">
-        <v>23.32333333333333</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +4899,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J129" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K129" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L129" t="n">
-        <v>23.33000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="N129" t="n">
-        <v>23.33999999999999</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +4934,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J130" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K130" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L130" t="n">
-        <v>23.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>23.42</v>
-      </c>
-      <c r="N130" t="n">
-        <v>23.35666666666666</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +4969,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J131" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>23.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>23.395</v>
-      </c>
-      <c r="N131" t="n">
-        <v>23.36</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5004,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J132" t="n">
-        <v>26.40000000000001</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>23.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>23.395</v>
-      </c>
-      <c r="N132" t="n">
-        <v>23.36666666666666</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5039,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J133" t="n">
-        <v>26.40000000000001</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>23.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>23.395</v>
-      </c>
-      <c r="N133" t="n">
-        <v>23.37666666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5074,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J134" t="n">
-        <v>26.40000000000001</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-9.090909090908857</v>
-      </c>
-      <c r="L134" t="n">
-        <v>23.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="N134" t="n">
-        <v>23.36666666666666</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5109,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J135" t="n">
-        <v>26.50000000000001</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-16.66666666666652</v>
-      </c>
-      <c r="L135" t="n">
-        <v>23.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>23.365</v>
-      </c>
-      <c r="N135" t="n">
-        <v>23.37333333333332</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5144,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J136" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-9.090909090908857</v>
-      </c>
-      <c r="L136" t="n">
-        <v>23.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>23.355</v>
-      </c>
-      <c r="N136" t="n">
-        <v>23.36333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5179,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.5999999999999979</v>
-      </c>
-      <c r="J137" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L137" t="n">
-        <v>23.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>23.31</v>
-      </c>
-      <c r="N137" t="n">
-        <v>23.35666666666666</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5214,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J138" t="n">
-        <v>26.70000000000001</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-74.99999999999977</v>
-      </c>
-      <c r="L138" t="n">
-        <v>23.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="N138" t="n">
-        <v>23.33666666666666</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5249,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J139" t="n">
-        <v>26.80000000000001</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-77.7777777777776</v>
-      </c>
-      <c r="L139" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>23.265</v>
-      </c>
-      <c r="N139" t="n">
-        <v>23.32666666666666</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5284,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J140" t="n">
-        <v>26.90000000000001</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L140" t="n">
-        <v>23.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="N140" t="n">
-        <v>23.32666666666666</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5319,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J141" t="n">
-        <v>27.00000000000001</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-66.66666666666647</v>
-      </c>
-      <c r="L141" t="n">
-        <v>23.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="N141" t="n">
-        <v>23.29999999999999</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5354,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J142" t="n">
-        <v>27.70000000000001</v>
-      </c>
-      <c r="K142" t="n">
-        <v>23.07692307692299</v>
-      </c>
-      <c r="L142" t="n">
-        <v>23.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="N142" t="n">
-        <v>23.30999999999999</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5389,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-1.099999999999998</v>
-      </c>
-      <c r="J143" t="n">
-        <v>28.70000000000001</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-30.43478260869551</v>
-      </c>
-      <c r="L143" t="n">
-        <v>23.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>23.215</v>
-      </c>
-      <c r="N143" t="n">
-        <v>23.28666666666666</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5424,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-1.099999999999998</v>
-      </c>
-      <c r="J144" t="n">
-        <v>28.70000000000001</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-27.2727272727271</v>
-      </c>
-      <c r="L144" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="N144" t="n">
-        <v>23.26666666666666</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5459,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J145" t="n">
-        <v>28.80000000000001</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-27.27272727272722</v>
-      </c>
-      <c r="L145" t="n">
-        <v>22.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>23.13500000000001</v>
-      </c>
-      <c r="N145" t="n">
-        <v>23.21999999999999</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5494,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-1.099999999999998</v>
-      </c>
-      <c r="J146" t="n">
-        <v>28.90000000000002</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-21.7391304347825</v>
-      </c>
-      <c r="L146" t="n">
-        <v>22.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>23.09500000000001</v>
-      </c>
-      <c r="N146" t="n">
-        <v>23.19666666666666</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5529,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J147" t="n">
-        <v>29.00000000000002</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-21.7391304347825</v>
-      </c>
-      <c r="L147" t="n">
-        <v>22.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>23.06000000000001</v>
-      </c>
-      <c r="N147" t="n">
-        <v>23.14666666666666</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5564,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J148" t="n">
-        <v>29.00000000000002</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-18.18181818181803</v>
-      </c>
-      <c r="L148" t="n">
-        <v>22.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>23.02000000000001</v>
-      </c>
-      <c r="N148" t="n">
-        <v>23.11666666666666</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5599,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J149" t="n">
-        <v>29.00000000000002</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-23.80952380952371</v>
-      </c>
-      <c r="L149" t="n">
-        <v>22.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>22.96500000000001</v>
-      </c>
-      <c r="N149" t="n">
-        <v>23.08666666666666</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5634,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J150" t="n">
-        <v>29.00000000000002</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L150" t="n">
-        <v>22.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="N150" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +5669,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="J151" t="n">
-        <v>29.10000000000002</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-85.71428571428557</v>
-      </c>
-      <c r="L151" t="n">
-        <v>22.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="N151" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +5704,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="J152" t="n">
-        <v>29.10000000000002</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L152" t="n">
-        <v>22.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>22.825</v>
-      </c>
-      <c r="N152" t="n">
-        <v>23.00333333333333</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +5739,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-1.199999999999999</v>
-      </c>
-      <c r="J153" t="n">
-        <v>29.20000000000002</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L153" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>22.785</v>
-      </c>
-      <c r="N153" t="n">
-        <v>22.97666666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +5774,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="J154" t="n">
-        <v>29.30000000000002</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L154" t="n">
-        <v>22.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="N154" t="n">
-        <v>22.94666666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +5809,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="J155" t="n">
-        <v>29.30000000000002</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L155" t="n">
-        <v>22.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="N155" t="n">
-        <v>22.91333333333333</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +5844,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J156" t="n">
-        <v>30.20000000000002</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-83.33333333333314</v>
-      </c>
-      <c r="L156" t="n">
-        <v>22.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="N156" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +5879,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.8999999999999986</v>
-      </c>
-      <c r="J157" t="n">
-        <v>31.50000000000002</v>
-      </c>
-      <c r="K157" t="n">
-        <v>12.00000000000001</v>
-      </c>
-      <c r="L157" t="n">
-        <v>22.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>22.605</v>
-      </c>
-      <c r="N157" t="n">
-        <v>22.83666666666666</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +5914,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-1.899999999999999</v>
-      </c>
-      <c r="J158" t="n">
-        <v>32.50000000000002</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-19.99999999999996</v>
-      </c>
-      <c r="L158" t="n">
-        <v>22.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>22.545</v>
-      </c>
-      <c r="N158" t="n">
-        <v>22.78666666666667</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +5949,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-1.899999999999999</v>
-      </c>
-      <c r="J159" t="n">
-        <v>32.50000000000002</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-19.99999999999996</v>
-      </c>
-      <c r="L159" t="n">
-        <v>22.25000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="N159" t="n">
-        <v>22.72666666666666</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +5984,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-2.099999999999998</v>
-      </c>
-      <c r="J160" t="n">
-        <v>32.70000000000002</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-22.22222222222216</v>
-      </c>
-      <c r="L160" t="n">
-        <v>22.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>22.42</v>
-      </c>
-      <c r="N160" t="n">
-        <v>22.65999999999999</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6019,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-2.099999999999998</v>
-      </c>
-      <c r="J161" t="n">
-        <v>32.70000000000002</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-22.22222222222216</v>
-      </c>
-      <c r="L161" t="n">
-        <v>22.08000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>22.355</v>
-      </c>
-      <c r="N161" t="n">
-        <v>22.60666666666666</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6054,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>-2.099999999999998</v>
-      </c>
-      <c r="J162" t="n">
-        <v>32.70000000000002</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-25.7142857142857</v>
-      </c>
-      <c r="L162" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>22.255</v>
-      </c>
-      <c r="N162" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8554,31 +6086,19 @@
         <v>22.935</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>-2.099999999999998</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>32.70000000000002</v>
+        <v>21.6</v>
       </c>
       <c r="K163" t="n">
-        <v>-23.52941176470583</v>
-      </c>
-      <c r="L163" t="n">
-        <v>21.91</v>
-      </c>
+        <v>21.6</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>22.20500000000001</v>
-      </c>
-      <c r="N163" t="n">
-        <v>22.49333333333333</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8605,31 +6125,23 @@
         <v>22.91333333333334</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>-1.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>33.40000000000002</v>
+        <v>21.9</v>
       </c>
       <c r="K164" t="n">
-        <v>-2.439024390243852</v>
-      </c>
-      <c r="L164" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="N164" t="n">
-        <v>22.46</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8656,31 +6168,23 @@
         <v>22.89166666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>34.00000000000002</v>
+        <v>21.7</v>
       </c>
       <c r="K165" t="n">
-        <v>5.263157894736822</v>
-      </c>
-      <c r="L165" t="n">
-        <v>21.83</v>
+        <v>21.6</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="N165" t="n">
-        <v>22.41</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8707,31 +6211,23 @@
         <v>22.85833333333334</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>-2.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>34.30000000000003</v>
+        <v>21.7</v>
       </c>
       <c r="K166" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L166" t="n">
-        <v>21.82</v>
+        <v>21.6</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="N166" t="n">
-        <v>22.35333333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8758,31 +6254,23 @@
         <v>22.82333333333334</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>34.50000000000003</v>
+        <v>21.4</v>
       </c>
       <c r="K167" t="n">
-        <v>-29.99999999999996</v>
-      </c>
-      <c r="L167" t="n">
-        <v>21.66</v>
+        <v>21.6</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>22.025</v>
-      </c>
-      <c r="N167" t="n">
-        <v>22.29</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,28 +6300,18 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-2.599999999999998</v>
-      </c>
-      <c r="J168" t="n">
-        <v>34.60000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>-33.33333333333328</v>
-      </c>
-      <c r="L168" t="n">
-        <v>21.59</v>
+        <v>21.6</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>21.955</v>
-      </c>
-      <c r="N168" t="n">
-        <v>22.22666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,28 +6341,18 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J169" t="n">
-        <v>34.70000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>-20.00000000000011</v>
-      </c>
-      <c r="L169" t="n">
-        <v>21.52999999999999</v>
+        <v>21.6</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="N169" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8911,31 +6379,23 @@
         <v>22.72166666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>-2.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>34.90000000000002</v>
+        <v>21.4</v>
       </c>
       <c r="K170" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L170" t="n">
-        <v>21.51</v>
+        <v>21.6</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>21.835</v>
-      </c>
-      <c r="N170" t="n">
-        <v>22.11666666666667</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8962,31 +6422,23 @@
         <v>22.68333333333334</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>-2.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>34.90000000000002</v>
+        <v>21.4</v>
       </c>
       <c r="K171" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L171" t="n">
-        <v>21.49</v>
+        <v>21.6</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>21.785</v>
-      </c>
-      <c r="N171" t="n">
-        <v>22.06666666666667</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9013,31 +6465,23 @@
         <v>22.65333333333334</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>-2.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>35.00000000000002</v>
+        <v>21.5</v>
       </c>
       <c r="K172" t="n">
-        <v>-4.347826086956576</v>
-      </c>
-      <c r="L172" t="n">
-        <v>21.48</v>
+        <v>21.6</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="N172" t="n">
-        <v>21.99666666666667</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9064,31 +6508,23 @@
         <v>22.62500000000001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
-        <v>-2.099999999999998</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>35.10000000000002</v>
+        <v>21.6</v>
       </c>
       <c r="K173" t="n">
-        <v>-41.17647058823518</v>
-      </c>
-      <c r="L173" t="n">
-        <v>21.48</v>
+        <v>21.6</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M173" t="n">
-        <v>21.695</v>
-      </c>
-      <c r="N173" t="n">
-        <v>21.96333333333333</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9115,31 +6551,23 @@
         <v>22.61333333333334</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>-1.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>36.00000000000002</v>
+        <v>21.5</v>
       </c>
       <c r="K174" t="n">
-        <v>40.00000000000004</v>
-      </c>
-      <c r="L174" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M174" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="N174" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9166,31 +6594,23 @@
         <v>22.585</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>36.30000000000003</v>
+        <v>22.2</v>
       </c>
       <c r="K175" t="n">
-        <v>40.00000000000004</v>
-      </c>
-      <c r="L175" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M175" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="N175" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9217,31 +6637,23 @@
         <v>22.55333333333334</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>-2.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>37.10000000000002</v>
+        <v>22.2</v>
       </c>
       <c r="K176" t="n">
-        <v>7.692307692307682</v>
-      </c>
-      <c r="L176" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M176" t="n">
-        <v>21.685</v>
-      </c>
-      <c r="N176" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,31 +6680,23 @@
         <v>22.52333333333334</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>37.90000000000002</v>
+        <v>22.2</v>
       </c>
       <c r="K177" t="n">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="L177" t="n">
-        <v>21.65</v>
+        <v>21.6</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M177" t="n">
-        <v>21.655</v>
-      </c>
-      <c r="N177" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9319,31 +6723,23 @@
         <v>22.49000000000001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
-        <v>-2.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>38.70000000000002</v>
+        <v>21.5</v>
       </c>
       <c r="K178" t="n">
-        <v>4.999999999999982</v>
-      </c>
-      <c r="L178" t="n">
-        <v>21.68</v>
+        <v>21.6</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M178" t="n">
-        <v>21.635</v>
-      </c>
-      <c r="N178" t="n">
-        <v>21.86333333333333</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9370,31 +6766,23 @@
         <v>22.46</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>-2.099999999999998</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>38.90000000000002</v>
+        <v>21.6</v>
       </c>
       <c r="K179" t="n">
-        <v>5.000000000000071</v>
-      </c>
-      <c r="L179" t="n">
-        <v>21.72</v>
+        <v>21.6</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M179" t="n">
-        <v>21.625</v>
-      </c>
-      <c r="N179" t="n">
-        <v>21.83333333333333</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9421,31 +6809,23 @@
         <v>22.43166666666667</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
-        <v>-2.099999999999998</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>38.90000000000002</v>
+        <v>21.6</v>
       </c>
       <c r="K180" t="n">
-        <v>5.000000000000071</v>
-      </c>
-      <c r="L180" t="n">
-        <v>21.74</v>
+        <v>21.6</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M180" t="n">
-        <v>21.625</v>
-      </c>
-      <c r="N180" t="n">
-        <v>21.80333333333333</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9472,31 +6852,23 @@
         <v>22.40166666666667</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>-2.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>39.00000000000002</v>
+        <v>21.5</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
-      </c>
-      <c r="L181" t="n">
-        <v>21.75</v>
+        <v>21.6</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M181" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="N181" t="n">
-        <v>21.77333333333333</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9523,1102 +6895,23 @@
         <v>22.37</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>-2.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>39.20000000000002</v>
+        <v>21.5</v>
       </c>
       <c r="K182" t="n">
-        <v>-7.317073170731734</v>
-      </c>
-      <c r="L182" t="n">
-        <v>21.73</v>
+        <v>21.6</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M182" t="n">
-        <v>21.605</v>
-      </c>
-      <c r="N182" t="n">
-        <v>21.73666666666667</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C183" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D183" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E183" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F183" t="n">
-        <v>27008.7696</v>
-      </c>
-      <c r="G183" t="n">
-        <v>22.34000000000001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J183" t="n">
-        <v>39.40000000000002</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-29.41176470588237</v>
-      </c>
-      <c r="L183" t="n">
-        <v>21.72</v>
-      </c>
-      <c r="M183" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="N183" t="n">
-        <v>21.70333333333333</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E184" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F184" t="n">
-        <v>128355.461</v>
-      </c>
-      <c r="G184" t="n">
-        <v>22.30000000000001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>-2.800000000000001</v>
-      </c>
-      <c r="J184" t="n">
-        <v>40.00000000000002</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-35.13513513513519</v>
-      </c>
-      <c r="L184" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="M184" t="n">
-        <v>21.52999999999999</v>
-      </c>
-      <c r="N184" t="n">
-        <v>21.65333333333333</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C185" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D185" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E185" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F185" t="n">
-        <v>57378</v>
-      </c>
-      <c r="G185" t="n">
-        <v>22.26833333333334</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J185" t="n">
-        <v>40.60000000000002</v>
-      </c>
-      <c r="K185" t="n">
-        <v>2.857142857142898</v>
-      </c>
-      <c r="L185" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="M185" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="N185" t="n">
-        <v>21.62333333333333</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C186" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D186" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E186" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F186" t="n">
-        <v>20986.6069</v>
-      </c>
-      <c r="G186" t="n">
-        <v>22.24333333333334</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>-1.800000000000001</v>
-      </c>
-      <c r="J186" t="n">
-        <v>41.00000000000002</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-9.67741935483873</v>
-      </c>
-      <c r="L186" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="M186" t="n">
-        <v>21.54499999999999</v>
-      </c>
-      <c r="N186" t="n">
-        <v>21.63666666666667</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C187" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D187" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E187" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F187" t="n">
-        <v>24162.3251</v>
-      </c>
-      <c r="G187" t="n">
-        <v>22.21500000000001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J187" t="n">
-        <v>41.40000000000002</v>
-      </c>
-      <c r="K187" t="n">
-        <v>3.703703703703753</v>
-      </c>
-      <c r="L187" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="M187" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="N187" t="n">
-        <v>21.59333333333334</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C188" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D188" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E188" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F188" t="n">
-        <v>341949.3738</v>
-      </c>
-      <c r="G188" t="n">
-        <v>22.19666666666667</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J188" t="n">
-        <v>42.10000000000002</v>
-      </c>
-      <c r="K188" t="n">
-        <v>18.74999999999992</v>
-      </c>
-      <c r="L188" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="M188" t="n">
-        <v>21.61499999999999</v>
-      </c>
-      <c r="N188" t="n">
-        <v>21.60666666666667</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C189" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D189" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E189" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F189" t="n">
-        <v>112044.238</v>
-      </c>
-      <c r="G189" t="n">
-        <v>22.16333333333334</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>-2.099999999999998</v>
-      </c>
-      <c r="J189" t="n">
-        <v>42.70000000000002</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L189" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="M189" t="n">
-        <v>21.635</v>
-      </c>
-      <c r="N189" t="n">
-        <v>21.60000000000001</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C190" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D190" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E190" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F190" t="n">
-        <v>36484.6072</v>
-      </c>
-      <c r="G190" t="n">
-        <v>22.12833333333334</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J190" t="n">
-        <v>42.80000000000002</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0</v>
-      </c>
-      <c r="L190" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="M190" t="n">
-        <v>21.64</v>
-      </c>
-      <c r="N190" t="n">
-        <v>21.59666666666667</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D191" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E191" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F191" t="n">
-        <v>17900.7393</v>
-      </c>
-      <c r="G191" t="n">
-        <v>22.09666666666667</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>-2.399999999999999</v>
-      </c>
-      <c r="J191" t="n">
-        <v>43.00000000000001</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0</v>
-      </c>
-      <c r="L191" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="M191" t="n">
-        <v>21.635</v>
-      </c>
-      <c r="N191" t="n">
-        <v>21.58666666666667</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C192" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D192" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E192" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F192" t="n">
-        <v>39762.6253</v>
-      </c>
-      <c r="G192" t="n">
-        <v>22.06500000000001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>-2.300000000000001</v>
-      </c>
-      <c r="J192" t="n">
-        <v>43.10000000000001</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-2.702702702702749</v>
-      </c>
-      <c r="L192" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="M192" t="n">
-        <v>21.63</v>
-      </c>
-      <c r="N192" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C193" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D193" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E193" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F193" t="n">
-        <v>52530.5488</v>
-      </c>
-      <c r="G193" t="n">
-        <v>22.03666666666668</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>-2.099999999999998</v>
-      </c>
-      <c r="J193" t="n">
-        <v>43.30000000000001</v>
-      </c>
-      <c r="K193" t="n">
-        <v>21.21212121212136</v>
-      </c>
-      <c r="L193" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="M193" t="n">
-        <v>21.63</v>
-      </c>
-      <c r="N193" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C194" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D194" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E194" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F194" t="n">
-        <v>26404.1974</v>
-      </c>
-      <c r="G194" t="n">
-        <v>22.00666666666667</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="J194" t="n">
-        <v>43.40000000000001</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="M194" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="N194" t="n">
-        <v>21.55333333333334</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F195" t="n">
-        <v>50</v>
-      </c>
-      <c r="G195" t="n">
-        <v>21.98166666666668</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J195" t="n">
-        <v>43.60000000000001</v>
-      </c>
-      <c r="K195" t="n">
-        <v>-7.692307692307702</v>
-      </c>
-      <c r="L195" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="M195" t="n">
-        <v>21.555</v>
-      </c>
-      <c r="N195" t="n">
-        <v>21.55333333333334</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C196" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D196" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E196" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F196" t="n">
-        <v>44125.0747</v>
-      </c>
-      <c r="G196" t="n">
-        <v>21.96000000000001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>-1.899999999999999</v>
-      </c>
-      <c r="J196" t="n">
-        <v>43.70000000000001</v>
-      </c>
-      <c r="K196" t="n">
-        <v>13.04347826086965</v>
-      </c>
-      <c r="L196" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="M196" t="n">
-        <v>21.575</v>
-      </c>
-      <c r="N196" t="n">
-        <v>21.56666666666667</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C197" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D197" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E197" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F197" t="n">
-        <v>17130.9175</v>
-      </c>
-      <c r="G197" t="n">
-        <v>21.93666666666668</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J197" t="n">
-        <v>43.80000000000001</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-29.41176470588255</v>
-      </c>
-      <c r="L197" t="n">
-        <v>21.63</v>
-      </c>
-      <c r="M197" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="N197" t="n">
-        <v>21.58333333333334</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C198" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D198" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E198" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F198" t="n">
-        <v>12504.3733</v>
-      </c>
-      <c r="G198" t="n">
-        <v>21.91500000000001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J198" t="n">
-        <v>43.80000000000001</v>
-      </c>
-      <c r="K198" t="n">
-        <v>9.090909090908944</v>
-      </c>
-      <c r="L198" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="M198" t="n">
-        <v>21.565</v>
-      </c>
-      <c r="N198" t="n">
-        <v>21.60333333333334</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C199" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D199" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E199" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F199" t="n">
-        <v>3753.1076</v>
-      </c>
-      <c r="G199" t="n">
-        <v>21.89666666666668</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>-1.899999999999999</v>
-      </c>
-      <c r="J199" t="n">
-        <v>43.90000000000001</v>
-      </c>
-      <c r="K199" t="n">
-        <v>27.27272727272748</v>
-      </c>
-      <c r="L199" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="M199" t="n">
-        <v>21.575</v>
-      </c>
-      <c r="N199" t="n">
-        <v>21.62333333333333</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C200" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D200" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F200" t="n">
-        <v>95171.52259820628</v>
-      </c>
-      <c r="G200" t="n">
-        <v>21.87833333333334</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>-1.800000000000001</v>
-      </c>
-      <c r="J200" t="n">
-        <v>44.00000000000001</v>
-      </c>
-      <c r="K200" t="n">
-        <v>59.99999999999979</v>
-      </c>
-      <c r="L200" t="n">
-        <v>21.64</v>
-      </c>
-      <c r="M200" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="N200" t="n">
-        <v>21.64</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>22</v>
-      </c>
-      <c r="C201" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D201" t="n">
-        <v>22</v>
-      </c>
-      <c r="E201" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F201" t="n">
-        <v>47549.1002</v>
-      </c>
-      <c r="G201" t="n">
-        <v>21.86000000000001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>-1.899999999999999</v>
-      </c>
-      <c r="J201" t="n">
-        <v>44.10000000000001</v>
-      </c>
-      <c r="K201" t="n">
-        <v>40.00000000000021</v>
-      </c>
-      <c r="L201" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="M201" t="n">
-        <v>21.605</v>
-      </c>
-      <c r="N201" t="n">
-        <v>21.65333333333333</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C202" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D202" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E202" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F202" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>21.83166666666668</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>-1.800000000000001</v>
-      </c>
-      <c r="J202" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="K202" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L202" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="M202" t="n">
-        <v>21.635</v>
-      </c>
-      <c r="N202" t="n">
-        <v>21.66666666666667</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C203" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D203" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E203" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F203" t="n">
-        <v>4152.38</v>
-      </c>
-      <c r="G203" t="n">
-        <v>21.81833333333335</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>-1.899999999999999</v>
-      </c>
-      <c r="J203" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="K203" t="n">
-        <v>33.33333333333399</v>
-      </c>
-      <c r="L203" t="n">
-        <v>21.76</v>
-      </c>
-      <c r="M203" t="n">
-        <v>21.65</v>
-      </c>
-      <c r="N203" t="n">
-        <v>21.67333333333333</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest OGO.xlsx
+++ b/BackTest/2019-11-14 BackTest OGO.xlsx
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -6086,17 +6086,13 @@
         <v>22.935</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K163" t="n">
-        <v>21.6</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
@@ -6131,16 +6127,12 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="K164" t="n">
         <v>21.6</v>
       </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6174,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="K165" t="n">
         <v>21.6</v>
@@ -6297,12 +6289,14 @@
         <v>22.78166666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>21.2</v>
+      </c>
       <c r="K168" t="n">
         <v>21.6</v>
       </c>
@@ -6379,14 +6373,12 @@
         <v>22.72166666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>21.4</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
         <v>21.6</v>
       </c>
@@ -6422,14 +6414,12 @@
         <v>22.68333333333334</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>21.4</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
         <v>21.6</v>
       </c>
@@ -6465,14 +6455,12 @@
         <v>22.65333333333334</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
         <v>21.6</v>
       </c>
@@ -6508,14 +6496,12 @@
         <v>22.62500000000001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>21.6</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
         <v>21.6</v>
       </c>
@@ -6551,14 +6537,12 @@
         <v>22.61333333333334</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
         <v>21.6</v>
       </c>
@@ -6594,14 +6578,12 @@
         <v>22.585</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>22.2</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
         <v>21.6</v>
       </c>
@@ -6637,14 +6619,12 @@
         <v>22.55333333333334</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>22.2</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
         <v>21.6</v>
       </c>
@@ -6680,14 +6660,12 @@
         <v>22.52333333333334</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>22.2</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
         <v>21.6</v>
       </c>
@@ -6723,14 +6701,12 @@
         <v>22.49000000000001</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
         <v>21.6</v>
       </c>
@@ -6766,14 +6742,12 @@
         <v>22.46</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>21.6</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
         <v>21.6</v>
       </c>
@@ -6809,14 +6783,12 @@
         <v>22.43166666666667</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>21.6</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
         <v>21.6</v>
       </c>
@@ -6852,14 +6824,12 @@
         <v>22.40166666666667</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>21.6</v>
       </c>
@@ -6895,14 +6865,12 @@
         <v>22.37</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
         <v>21.6</v>
       </c>

--- a/BackTest/2019-11-14 BackTest OGO.xlsx
+++ b/BackTest/2019-11-14 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="C2" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="D2" t="n">
         <v>23.8</v>
       </c>
       <c r="E2" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F2" t="n">
-        <v>39720.27</v>
+        <v>22100.8102</v>
       </c>
       <c r="G2" t="n">
-        <v>23.95000000000001</v>
+        <v>23.95666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>23.7</v>
       </c>
       <c r="C3" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="D3" t="n">
         <v>23.8</v>
       </c>
       <c r="E3" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="F3" t="n">
-        <v>4022</v>
+        <v>39720.27</v>
       </c>
       <c r="G3" t="n">
-        <v>23.94000000000001</v>
+        <v>23.95000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>23.7</v>
       </c>
       <c r="C4" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="D4" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E4" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F4" t="n">
-        <v>105.7697</v>
+        <v>4022</v>
       </c>
       <c r="G4" t="n">
-        <v>23.92833333333334</v>
+        <v>23.94000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C5" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D5" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E5" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="F5" t="n">
-        <v>3990.5466</v>
+        <v>105.7697</v>
       </c>
       <c r="G5" t="n">
-        <v>23.90333333333334</v>
+        <v>23.92833333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>23.6</v>
       </c>
       <c r="C6" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D6" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="E6" t="n">
         <v>23.6</v>
       </c>
       <c r="F6" t="n">
-        <v>1087.4031</v>
+        <v>3990.5466</v>
       </c>
       <c r="G6" t="n">
-        <v>23.87000000000001</v>
+        <v>23.90333333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>23.6</v>
       </c>
       <c r="C7" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D7" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E7" t="n">
         <v>23.6</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>1087.4031</v>
       </c>
       <c r="G7" t="n">
-        <v>23.82333333333334</v>
+        <v>23.87000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="C8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="D8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F8" t="n">
-        <v>104.2579</v>
+        <v>300</v>
       </c>
       <c r="G8" t="n">
-        <v>23.775</v>
+        <v>23.82333333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C9" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D9" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="E9" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="F9" t="n">
-        <v>3401.82</v>
+        <v>104.2579</v>
       </c>
       <c r="G9" t="n">
-        <v>23.72333333333334</v>
+        <v>23.775</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="D10" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E10" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>3401.82</v>
       </c>
       <c r="G10" t="n">
-        <v>23.71</v>
+        <v>23.72333333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="D11" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E11" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="F11" t="n">
-        <v>49.3325</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>23.69833333333333</v>
+        <v>23.71</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>23.7</v>
       </c>
       <c r="F12" t="n">
-        <v>13421.2831</v>
+        <v>49.3325</v>
       </c>
       <c r="G12" t="n">
-        <v>23.68666666666667</v>
+        <v>23.69833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>23.7</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D13" t="n">
         <v>23.7</v>
       </c>
       <c r="E13" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F13" t="n">
-        <v>667.1799999999999</v>
+        <v>13421.2831</v>
       </c>
       <c r="G13" t="n">
         <v>23.68666666666667</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="C14" t="n">
         <v>23.5</v>
       </c>
       <c r="D14" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="E14" t="n">
         <v>23.5</v>
       </c>
       <c r="F14" t="n">
-        <v>6643.0402</v>
+        <v>667.1799999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>23.65166666666667</v>
+        <v>23.68666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>23.5</v>
       </c>
       <c r="C15" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D15" t="n">
         <v>23.5</v>
       </c>
       <c r="E15" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="F15" t="n">
-        <v>8355.48</v>
+        <v>6643.0402</v>
       </c>
       <c r="G15" t="n">
-        <v>23.64166666666667</v>
+        <v>23.65166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C16" t="n">
         <v>23.4</v>
       </c>
-      <c r="C16" t="n">
-        <v>22.7</v>
-      </c>
       <c r="D16" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E16" t="n">
         <v>23.4</v>
       </c>
-      <c r="E16" t="n">
-        <v>22.7</v>
-      </c>
       <c r="F16" t="n">
-        <v>71855.2715</v>
+        <v>8355.48</v>
       </c>
       <c r="G16" t="n">
-        <v>23.61666666666667</v>
+        <v>23.64166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>23.4</v>
       </c>
       <c r="C17" t="n">
-        <v>23.6</v>
+        <v>22.7</v>
       </c>
       <c r="D17" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E17" t="n">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="F17" t="n">
-        <v>4000</v>
+        <v>71855.2715</v>
       </c>
       <c r="G17" t="n">
-        <v>23.61</v>
+        <v>23.61666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C18" t="n">
         <v>23.6</v>
@@ -1002,13 +1002,13 @@
         <v>23.6</v>
       </c>
       <c r="E18" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="F18" t="n">
-        <v>12933.858</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="n">
-        <v>23.60333333333334</v>
+        <v>23.61</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="C19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="E19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F19" t="n">
-        <v>15800</v>
+        <v>12933.858</v>
       </c>
       <c r="G19" t="n">
-        <v>23.59833333333334</v>
+        <v>23.60333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="C20" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="D20" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E20" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="F20" t="n">
-        <v>2520.9908</v>
+        <v>15800</v>
       </c>
       <c r="G20" t="n">
-        <v>23.595</v>
+        <v>23.59833333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>23.8</v>
       </c>
       <c r="F21" t="n">
-        <v>1263.6385</v>
+        <v>2520.9908</v>
       </c>
       <c r="G21" t="n">
-        <v>23.59166666666667</v>
+        <v>23.595</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>23.8</v>
       </c>
       <c r="F22" t="n">
-        <v>3540.997</v>
+        <v>1263.6385</v>
       </c>
       <c r="G22" t="n">
-        <v>23.58</v>
+        <v>23.59166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>23.8</v>
       </c>
       <c r="C23" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D23" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E23" t="n">
         <v>23.8</v>
       </c>
       <c r="F23" t="n">
-        <v>2314</v>
+        <v>3540.997</v>
       </c>
       <c r="G23" t="n">
-        <v>23.57</v>
+        <v>23.58</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C24" t="n">
         <v>23.9</v>
       </c>
-      <c r="C24" t="n">
-        <v>24.2</v>
-      </c>
       <c r="D24" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="E24" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="F24" t="n">
-        <v>8199</v>
+        <v>2314</v>
       </c>
       <c r="G24" t="n">
-        <v>23.59333333333334</v>
+        <v>23.57</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="C25" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="D25" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="E25" t="n">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="F25" t="n">
-        <v>61.7451</v>
+        <v>8199</v>
       </c>
       <c r="G25" t="n">
-        <v>23.60333333333334</v>
+        <v>23.59333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="C26" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D26" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E26" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="F26" t="n">
-        <v>12156.5453</v>
+        <v>61.7451</v>
       </c>
       <c r="G26" t="n">
-        <v>23.62</v>
+        <v>23.60333333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,28 +1308,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="D27" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="E27" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="F27" t="n">
-        <v>28591.357</v>
+        <v>12156.5453</v>
       </c>
       <c r="G27" t="n">
-        <v>23.61833333333334</v>
+        <v>23.62</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1343,28 +1343,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="C28" t="n">
         <v>24</v>
       </c>
       <c r="D28" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="F28" t="n">
-        <v>124</v>
+        <v>28591.357</v>
       </c>
       <c r="G28" t="n">
-        <v>23.62</v>
+        <v>23.61833333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="E29" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>2976.521</v>
+        <v>124</v>
       </c>
       <c r="G29" t="n">
-        <v>23.62833333333334</v>
+        <v>23.62</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="C30" t="n">
         <v>23.7</v>
       </c>
       <c r="D30" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E30" t="n">
         <v>23.7</v>
       </c>
       <c r="F30" t="n">
-        <v>21502.8999</v>
+        <v>2976.521</v>
       </c>
       <c r="G30" t="n">
-        <v>23.625</v>
+        <v>23.62833333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="C31" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="D31" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E31" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F31" t="n">
-        <v>7401.4835</v>
+        <v>21502.8999</v>
       </c>
       <c r="G31" t="n">
-        <v>23.63666666666667</v>
+        <v>23.625</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>23.5</v>
       </c>
       <c r="C32" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="D32" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="E32" t="n">
         <v>23.5</v>
       </c>
       <c r="F32" t="n">
-        <v>1.29</v>
+        <v>7401.4835</v>
       </c>
       <c r="G32" t="n">
-        <v>23.64</v>
+        <v>23.63666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="C33" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D33" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E33" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="F33" t="n">
-        <v>886</v>
+        <v>1.29</v>
       </c>
       <c r="G33" t="n">
-        <v>23.64666666666667</v>
+        <v>23.64</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,16 +1556,16 @@
         <v>23.4</v>
       </c>
       <c r="C34" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="D34" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E34" t="n">
         <v>23.4</v>
       </c>
       <c r="F34" t="n">
-        <v>750</v>
+        <v>886</v>
       </c>
       <c r="G34" t="n">
         <v>23.64666666666667</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C35" t="n">
         <v>23.6</v>
-      </c>
-      <c r="C35" t="n">
-        <v>23</v>
       </c>
       <c r="D35" t="n">
         <v>23.6</v>
       </c>
       <c r="E35" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="F35" t="n">
-        <v>18801.68</v>
+        <v>750</v>
       </c>
       <c r="G35" t="n">
-        <v>23.64166666666667</v>
+        <v>23.64666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C36" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="D36" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E36" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="F36" t="n">
-        <v>247.1523</v>
+        <v>18801.68</v>
       </c>
       <c r="G36" t="n">
-        <v>23.64000000000001</v>
+        <v>23.64166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="C37" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D37" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="E37" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F37" t="n">
-        <v>1684.9708</v>
+        <v>247.1523</v>
       </c>
       <c r="G37" t="n">
-        <v>23.63333333333334</v>
+        <v>23.64000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,19 +1693,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C38" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="D38" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="E38" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F38" t="n">
-        <v>74449.389</v>
+        <v>1684.9708</v>
       </c>
       <c r="G38" t="n">
         <v>23.63333333333334</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C39" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D39" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="E39" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F39" t="n">
-        <v>8913.4413</v>
+        <v>74449.389</v>
       </c>
       <c r="G39" t="n">
-        <v>23.62833333333334</v>
+        <v>23.63333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="C40" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="D40" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="E40" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="F40" t="n">
-        <v>2104.201680672269</v>
+        <v>8913.4413</v>
       </c>
       <c r="G40" t="n">
-        <v>23.64000000000001</v>
+        <v>23.62833333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="C41" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="D41" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="E41" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="F41" t="n">
-        <v>428.84</v>
+        <v>2104.201680672269</v>
       </c>
       <c r="G41" t="n">
-        <v>23.63833333333334</v>
+        <v>23.64000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1839,16 +1839,16 @@
         <v>23.2</v>
       </c>
       <c r="D42" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="E42" t="n">
         <v>23.2</v>
       </c>
       <c r="F42" t="n">
-        <v>39032.43</v>
+        <v>428.84</v>
       </c>
       <c r="G42" t="n">
-        <v>23.63333333333334</v>
+        <v>23.63833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C43" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D43" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E43" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F43" t="n">
-        <v>2104.2017</v>
+        <v>39032.43</v>
       </c>
       <c r="G43" t="n">
-        <v>23.63000000000001</v>
+        <v>23.63333333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>23.3</v>
       </c>
       <c r="F44" t="n">
-        <v>36432.299</v>
+        <v>2104.2017</v>
       </c>
       <c r="G44" t="n">
-        <v>23.62000000000001</v>
+        <v>23.63000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C45" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D45" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E45" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F45" t="n">
-        <v>5784.0779</v>
+        <v>36432.299</v>
       </c>
       <c r="G45" t="n">
-        <v>23.62333333333334</v>
+        <v>23.62000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C46" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="D46" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="E46" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="F46" t="n">
-        <v>24264.8223</v>
+        <v>5784.0779</v>
       </c>
       <c r="G46" t="n">
-        <v>23.61500000000001</v>
+        <v>23.62333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>23.1</v>
       </c>
       <c r="E47" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F47" t="n">
-        <v>43187.412</v>
+        <v>24264.8223</v>
       </c>
       <c r="G47" t="n">
-        <v>23.60666666666667</v>
+        <v>23.61500000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="C48" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D48" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="E48" t="n">
         <v>23</v>
       </c>
       <c r="F48" t="n">
-        <v>4211.3741</v>
+        <v>43187.412</v>
       </c>
       <c r="G48" t="n">
-        <v>23.59833333333334</v>
+        <v>23.60666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>23</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>4211.3741</v>
       </c>
       <c r="G49" t="n">
-        <v>23.59000000000001</v>
+        <v>23.59833333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>23</v>
       </c>
       <c r="F50" t="n">
-        <v>6167.6691</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
-        <v>23.58166666666667</v>
+        <v>23.59000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>23</v>
       </c>
       <c r="F51" t="n">
-        <v>15005.0429</v>
+        <v>6167.6691</v>
       </c>
       <c r="G51" t="n">
-        <v>23.57333333333334</v>
+        <v>23.58166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>23</v>
       </c>
       <c r="C52" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D52" t="n">
         <v>23</v>
       </c>
       <c r="E52" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="F52" t="n">
-        <v>16938.0792</v>
+        <v>15005.0429</v>
       </c>
       <c r="G52" t="n">
-        <v>23.56333333333334</v>
+        <v>23.57333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>23</v>
+      </c>
+      <c r="C53" t="n">
         <v>22.9</v>
       </c>
-      <c r="C53" t="n">
-        <v>22.7</v>
-      </c>
       <c r="D53" t="n">
+        <v>23</v>
+      </c>
+      <c r="E53" t="n">
         <v>22.9</v>
       </c>
-      <c r="E53" t="n">
-        <v>22.7</v>
-      </c>
       <c r="F53" t="n">
-        <v>352763.919</v>
+        <v>16938.0792</v>
       </c>
       <c r="G53" t="n">
-        <v>23.55166666666667</v>
+        <v>23.56333333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="C54" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="D54" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="E54" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="F54" t="n">
-        <v>4000</v>
+        <v>352763.919</v>
       </c>
       <c r="G54" t="n">
-        <v>23.54000000000001</v>
+        <v>23.55166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="C55" t="n">
         <v>23.1</v>
@@ -2297,13 +2297,13 @@
         <v>23.1</v>
       </c>
       <c r="E55" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="F55" t="n">
-        <v>5433.0303</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="n">
-        <v>23.52833333333334</v>
+        <v>23.54000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>23.1</v>
       </c>
       <c r="F56" t="n">
-        <v>9430.8233</v>
+        <v>5433.0303</v>
       </c>
       <c r="G56" t="n">
-        <v>23.51833333333333</v>
+        <v>23.52833333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>23.1</v>
       </c>
       <c r="F57" t="n">
-        <v>9111.264800000001</v>
+        <v>9430.8233</v>
       </c>
       <c r="G57" t="n">
-        <v>23.50833333333333</v>
+        <v>23.51833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="C58" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D58" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="E58" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F58" t="n">
-        <v>49884.1611</v>
+        <v>9111.264800000001</v>
       </c>
       <c r="G58" t="n">
-        <v>23.5</v>
+        <v>23.50833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="C59" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D59" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E59" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="F59" t="n">
-        <v>3825.1977</v>
+        <v>49884.1611</v>
       </c>
       <c r="G59" t="n">
-        <v>23.495</v>
+        <v>23.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>23.2</v>
       </c>
       <c r="F60" t="n">
-        <v>198.118</v>
+        <v>3825.1977</v>
       </c>
       <c r="G60" t="n">
-        <v>23.48833333333334</v>
+        <v>23.495</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C61" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D61" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="E61" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F61" t="n">
-        <v>9257.885899999999</v>
+        <v>198.118</v>
       </c>
       <c r="G61" t="n">
-        <v>23.475</v>
+        <v>23.48833333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="E62" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="F62" t="n">
-        <v>15645</v>
+        <v>9257.885899999999</v>
       </c>
       <c r="G62" t="n">
-        <v>23.46833333333334</v>
+        <v>23.475</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C63" t="n">
         <v>23.3</v>
@@ -2577,13 +2577,13 @@
         <v>23.3</v>
       </c>
       <c r="E63" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F63" t="n">
-        <v>2145.922746781116</v>
+        <v>15645</v>
       </c>
       <c r="G63" t="n">
-        <v>23.46</v>
+        <v>23.46833333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>23.3</v>
       </c>
       <c r="F64" t="n">
-        <v>282.7585</v>
+        <v>2145.922746781116</v>
       </c>
       <c r="G64" t="n">
-        <v>23.45333333333333</v>
+        <v>23.46</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>23.3</v>
       </c>
       <c r="F65" t="n">
-        <v>282.5554</v>
+        <v>282.7585</v>
       </c>
       <c r="G65" t="n">
-        <v>23.44833333333333</v>
+        <v>23.45333333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>23.3</v>
       </c>
       <c r="F66" t="n">
-        <v>16834.6074</v>
+        <v>282.5554</v>
       </c>
       <c r="G66" t="n">
-        <v>23.44166666666667</v>
+        <v>23.44833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C67" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D67" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E67" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F67" t="n">
-        <v>6089.9634</v>
+        <v>16834.6074</v>
       </c>
       <c r="G67" t="n">
-        <v>23.435</v>
+        <v>23.44166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C68" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D68" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E68" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="F68" t="n">
-        <v>11100.0366</v>
+        <v>6089.9634</v>
       </c>
       <c r="G68" t="n">
-        <v>23.42333333333334</v>
+        <v>23.435</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>23.1</v>
       </c>
       <c r="F69" t="n">
-        <v>1244.217</v>
+        <v>11100.0366</v>
       </c>
       <c r="G69" t="n">
-        <v>23.415</v>
+        <v>23.42333333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="C70" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D70" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="E70" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F70" t="n">
-        <v>7920.9145</v>
+        <v>1244.217</v>
       </c>
       <c r="G70" t="n">
-        <v>23.405</v>
+        <v>23.415</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="C71" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="D71" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="E71" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F71" t="n">
-        <v>29212.6326</v>
+        <v>7920.9145</v>
       </c>
       <c r="G71" t="n">
-        <v>23.4</v>
+        <v>23.405</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C72" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D72" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="E72" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F72" t="n">
-        <v>19589.4304</v>
+        <v>29212.6326</v>
       </c>
       <c r="G72" t="n">
-        <v>23.39166666666667</v>
+        <v>23.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>23.2</v>
       </c>
       <c r="F73" t="n">
-        <v>6194.1935</v>
+        <v>19589.4304</v>
       </c>
       <c r="G73" t="n">
-        <v>23.38666666666667</v>
+        <v>23.39166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="C74" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="D74" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="E74" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="F74" t="n">
-        <v>8311</v>
+        <v>6194.1935</v>
       </c>
       <c r="G74" t="n">
-        <v>23.39</v>
+        <v>23.38666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="C75" t="n">
         <v>23.7</v>
       </c>
       <c r="D75" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E75" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="F75" t="n">
-        <v>9546.8359</v>
+        <v>8311</v>
       </c>
       <c r="G75" t="n">
-        <v>23.395</v>
+        <v>23.39</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="C76" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="D76" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="E76" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="F76" t="n">
-        <v>573.8058</v>
+        <v>9546.8359</v>
       </c>
       <c r="G76" t="n">
-        <v>23.405</v>
+        <v>23.395</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="C77" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="D77" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="E77" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="F77" t="n">
-        <v>22</v>
+        <v>573.8058</v>
       </c>
       <c r="G77" t="n">
-        <v>23.40666666666667</v>
+        <v>23.405</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>23.7</v>
       </c>
       <c r="F78" t="n">
-        <v>1022</v>
+        <v>22</v>
       </c>
       <c r="G78" t="n">
-        <v>23.40833333333334</v>
+        <v>23.40666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>23.7</v>
       </c>
       <c r="C79" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D79" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E79" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F79" t="n">
-        <v>7952</v>
+        <v>1022</v>
       </c>
       <c r="G79" t="n">
-        <v>23.40500000000001</v>
+        <v>23.40833333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C80" t="n">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="D80" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="E80" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="F80" t="n">
-        <v>22087</v>
+        <v>7952</v>
       </c>
       <c r="G80" t="n">
-        <v>23.41000000000001</v>
+        <v>23.40500000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="C81" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D81" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="E81" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="F81" t="n">
-        <v>40761.5889</v>
+        <v>22087</v>
       </c>
       <c r="G81" t="n">
-        <v>23.41333333333334</v>
+        <v>23.41000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="C82" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="D82" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="E82" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="F82" t="n">
-        <v>97234.63761983471</v>
+        <v>40761.5889</v>
       </c>
       <c r="G82" t="n">
-        <v>23.42000000000001</v>
+        <v>23.41333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="D83" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="E83" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="F83" t="n">
-        <v>42596.59231336032</v>
+        <v>97234.63761983471</v>
       </c>
       <c r="G83" t="n">
-        <v>23.43833333333334</v>
+        <v>23.42000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="C84" t="n">
-        <v>23.7</v>
+        <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>24.1</v>
+        <v>25</v>
       </c>
       <c r="E84" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="F84" t="n">
-        <v>68604.2405</v>
+        <v>42596.59231336032</v>
       </c>
       <c r="G84" t="n">
-        <v>23.43000000000001</v>
+        <v>23.43833333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,28 +3338,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="C85" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D85" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="E85" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="F85" t="n">
-        <v>19027.2448</v>
+        <v>68604.2405</v>
       </c>
       <c r="G85" t="n">
-        <v>23.41666666666667</v>
+        <v>23.43000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3373,28 +3373,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C86" t="n">
         <v>23.6</v>
       </c>
-      <c r="C86" t="n">
-        <v>23.5</v>
-      </c>
       <c r="D86" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E86" t="n">
         <v>23.6</v>
       </c>
-      <c r="E86" t="n">
-        <v>23.5</v>
-      </c>
       <c r="F86" t="n">
-        <v>8447.77</v>
+        <v>19027.2448</v>
       </c>
       <c r="G86" t="n">
-        <v>23.40333333333334</v>
+        <v>23.41666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C87" t="n">
         <v>23.5</v>
       </c>
       <c r="D87" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E87" t="n">
         <v>23.5</v>
       </c>
       <c r="F87" t="n">
-        <v>38132.5</v>
+        <v>8447.77</v>
       </c>
       <c r="G87" t="n">
-        <v>23.395</v>
+        <v>23.40333333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3446,19 @@
         <v>23.5</v>
       </c>
       <c r="C88" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D88" t="n">
         <v>23.5</v>
       </c>
       <c r="E88" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="F88" t="n">
-        <v>28000</v>
+        <v>38132.5</v>
       </c>
       <c r="G88" t="n">
-        <v>23.38166666666667</v>
+        <v>23.395</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="C89" t="n">
         <v>23.2</v>
       </c>
       <c r="D89" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E89" t="n">
         <v>23.2</v>
       </c>
       <c r="F89" t="n">
-        <v>9342.92</v>
+        <v>28000</v>
       </c>
       <c r="G89" t="n">
-        <v>23.37333333333334</v>
+        <v>23.38166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C90" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D90" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E90" t="n">
         <v>23.2</v>
       </c>
       <c r="F90" t="n">
-        <v>23664.53</v>
+        <v>9342.92</v>
       </c>
       <c r="G90" t="n">
-        <v>23.36666666666667</v>
+        <v>23.37333333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C91" t="n">
         <v>23.3</v>
@@ -3557,13 +3557,13 @@
         <v>23.3</v>
       </c>
       <c r="E91" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F91" t="n">
-        <v>43503.64</v>
+        <v>23664.53</v>
       </c>
       <c r="G91" t="n">
-        <v>23.35666666666667</v>
+        <v>23.36666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>23.3</v>
       </c>
       <c r="C92" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D92" t="n">
         <v>23.3</v>
       </c>
       <c r="E92" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F92" t="n">
-        <v>887.7735</v>
+        <v>43503.64</v>
       </c>
       <c r="G92" t="n">
-        <v>23.35166666666667</v>
+        <v>23.35666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C93" t="n">
         <v>23.2</v>
       </c>
       <c r="D93" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E93" t="n">
         <v>23.2</v>
       </c>
       <c r="F93" t="n">
-        <v>11528.9256</v>
+        <v>887.7735</v>
       </c>
       <c r="G93" t="n">
-        <v>23.34833333333334</v>
+        <v>23.35166666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>23.2</v>
       </c>
       <c r="F94" t="n">
-        <v>12262.7686</v>
+        <v>11528.9256</v>
       </c>
       <c r="G94" t="n">
-        <v>23.34166666666667</v>
+        <v>23.34833333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="C95" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="D95" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="E95" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F95" t="n">
-        <v>13518.8221</v>
+        <v>12262.7686</v>
       </c>
       <c r="G95" t="n">
-        <v>23.355</v>
+        <v>23.34166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C96" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="D96" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="E96" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F96" t="n">
-        <v>46371.22</v>
+        <v>13518.8221</v>
       </c>
       <c r="G96" t="n">
-        <v>23.35</v>
+        <v>23.355</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>23.2</v>
       </c>
       <c r="C97" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D97" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E97" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="F97" t="n">
-        <v>30000</v>
+        <v>46371.22</v>
       </c>
       <c r="G97" t="n">
-        <v>23.34666666666667</v>
+        <v>23.35</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C98" t="n">
         <v>23.1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>23.2</v>
       </c>
       <c r="D98" t="n">
         <v>23.2</v>
@@ -3805,10 +3805,10 @@
         <v>23.1</v>
       </c>
       <c r="F98" t="n">
-        <v>4288.13</v>
+        <v>30000</v>
       </c>
       <c r="G98" t="n">
-        <v>23.34166666666667</v>
+        <v>23.34666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>23.1</v>
       </c>
       <c r="C99" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D99" t="n">
         <v>23.2</v>
@@ -3840,10 +3840,10 @@
         <v>23.1</v>
       </c>
       <c r="F99" t="n">
-        <v>66866.7</v>
+        <v>4288.13</v>
       </c>
       <c r="G99" t="n">
-        <v>23.34</v>
+        <v>23.34166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="C100" t="n">
         <v>23.1</v>
       </c>
       <c r="D100" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="E100" t="n">
         <v>23.1</v>
       </c>
       <c r="F100" t="n">
-        <v>486</v>
+        <v>66866.7</v>
       </c>
       <c r="G100" t="n">
-        <v>23.32833333333333</v>
+        <v>23.34</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="C101" t="n">
         <v>23.1</v>
       </c>
       <c r="D101" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="E101" t="n">
         <v>23.1</v>
       </c>
       <c r="F101" t="n">
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="G101" t="n">
-        <v>23.32666666666666</v>
+        <v>23.32833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>23.1</v>
       </c>
       <c r="E102" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F102" t="n">
-        <v>17039.0892</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
-        <v>23.325</v>
+        <v>23.32666666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3971,19 @@
         <v>23.1</v>
       </c>
       <c r="C103" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D103" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="E103" t="n">
         <v>23</v>
       </c>
       <c r="F103" t="n">
-        <v>13013</v>
+        <v>17039.0892</v>
       </c>
       <c r="G103" t="n">
-        <v>23.32</v>
+        <v>23.325</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4006,19 @@
         <v>23.1</v>
       </c>
       <c r="C104" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="D104" t="n">
         <v>23.6</v>
       </c>
       <c r="E104" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="F104" t="n">
-        <v>159</v>
+        <v>13013</v>
       </c>
       <c r="G104" t="n">
-        <v>23.325</v>
+        <v>23.32</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4041,19 @@
         <v>23.1</v>
       </c>
       <c r="C105" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="D105" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E105" t="n">
         <v>23.1</v>
       </c>
-      <c r="E105" t="n">
-        <v>23</v>
-      </c>
       <c r="F105" t="n">
-        <v>5965.5507</v>
+        <v>159</v>
       </c>
       <c r="G105" t="n">
-        <v>23.315</v>
+        <v>23.325</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="C106" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="D106" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="E106" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="F106" t="n">
-        <v>8778.455900000001</v>
+        <v>5965.5507</v>
       </c>
       <c r="G106" t="n">
-        <v>23.32</v>
+        <v>23.315</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C107" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D107" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E107" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F107" t="n">
-        <v>2467.6514</v>
+        <v>8778.455900000001</v>
       </c>
       <c r="G107" t="n">
-        <v>23.32333333333333</v>
+        <v>23.32</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C108" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D108" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E108" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="F108" t="n">
-        <v>42.3728813559322</v>
+        <v>2467.6514</v>
       </c>
       <c r="G108" t="n">
-        <v>23.33333333333333</v>
+        <v>23.32333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="C109" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="D109" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="E109" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="F109" t="n">
-        <v>2042.3728</v>
+        <v>42.3728813559322</v>
       </c>
       <c r="G109" t="n">
-        <v>23.33666666666667</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,19 +4213,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C110" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D110" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E110" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F110" t="n">
-        <v>79372.4492</v>
+        <v>2042.3728</v>
       </c>
       <c r="G110" t="n">
         <v>23.33666666666667</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="C111" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="D111" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="E111" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="F111" t="n">
-        <v>3282.1893</v>
+        <v>79372.4492</v>
       </c>
       <c r="G111" t="n">
-        <v>23.34833333333334</v>
+        <v>23.33666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C112" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="D112" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E112" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F112" t="n">
-        <v>34000</v>
+        <v>3282.1893</v>
       </c>
       <c r="G112" t="n">
-        <v>23.355</v>
+        <v>23.34833333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="C113" t="n">
         <v>23.3</v>
       </c>
       <c r="D113" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E113" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F113" t="n">
-        <v>13492.494</v>
+        <v>34000</v>
       </c>
       <c r="G113" t="n">
-        <v>23.365</v>
+        <v>23.355</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4356,19 @@
         <v>23.3</v>
       </c>
       <c r="C114" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D114" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="E114" t="n">
         <v>23.2</v>
       </c>
       <c r="F114" t="n">
-        <v>22905.5053</v>
+        <v>13492.494</v>
       </c>
       <c r="G114" t="n">
-        <v>23.36666666666667</v>
+        <v>23.365</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>23.3</v>
       </c>
       <c r="C115" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="D115" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="E115" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>22905.5053</v>
       </c>
       <c r="G115" t="n">
-        <v>23.38</v>
+        <v>23.36666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4426,19 +4426,19 @@
         <v>23.3</v>
       </c>
       <c r="C116" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="D116" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="E116" t="n">
         <v>23.3</v>
       </c>
       <c r="F116" t="n">
-        <v>8160.8293</v>
+        <v>200</v>
       </c>
       <c r="G116" t="n">
-        <v>23.38333333333334</v>
+        <v>23.38</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4461,19 @@
         <v>23.3</v>
       </c>
       <c r="C117" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="D117" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="E117" t="n">
         <v>23.3</v>
       </c>
       <c r="F117" t="n">
-        <v>132016.070355</v>
+        <v>8160.8293</v>
       </c>
       <c r="G117" t="n">
-        <v>23.39833333333334</v>
+        <v>23.38333333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C118" t="n">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="D118" t="n">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="E118" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F118" t="n">
-        <v>65.09999999999999</v>
+        <v>132016.070355</v>
       </c>
       <c r="G118" t="n">
-        <v>23.40000000000001</v>
+        <v>23.39833333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>23.4</v>
       </c>
       <c r="F119" t="n">
-        <v>6026.47</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>23.40333333333334</v>
+        <v>23.40000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4566,19 +4566,19 @@
         <v>23.4</v>
       </c>
       <c r="C120" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D120" t="n">
         <v>23.4</v>
       </c>
       <c r="E120" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F120" t="n">
-        <v>65.09999999999999</v>
+        <v>6026.47</v>
       </c>
       <c r="G120" t="n">
-        <v>23.40500000000001</v>
+        <v>23.40333333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C121" t="n">
         <v>23.3</v>
       </c>
       <c r="D121" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E121" t="n">
         <v>23.3</v>
       </c>
       <c r="F121" t="n">
-        <v>163.57</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>23.41000000000001</v>
+        <v>23.40500000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4636,19 @@
         <v>23.3</v>
       </c>
       <c r="C122" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D122" t="n">
         <v>23.3</v>
       </c>
       <c r="E122" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F122" t="n">
-        <v>19809.55</v>
+        <v>163.57</v>
       </c>
       <c r="G122" t="n">
-        <v>23.40833333333334</v>
+        <v>23.41000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,16 +4671,16 @@
         <v>23.3</v>
       </c>
       <c r="C123" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D123" t="n">
         <v>23.3</v>
       </c>
       <c r="E123" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F123" t="n">
-        <v>4469.71</v>
+        <v>19809.55</v>
       </c>
       <c r="G123" t="n">
         <v>23.40833333333334</v>
@@ -4715,7 +4715,7 @@
         <v>23.3</v>
       </c>
       <c r="F124" t="n">
-        <v>829.78</v>
+        <v>4469.71</v>
       </c>
       <c r="G124" t="n">
         <v>23.40833333333334</v>
@@ -4741,19 +4741,19 @@
         <v>23.3</v>
       </c>
       <c r="C125" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D125" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="E125" t="n">
         <v>23.3</v>
       </c>
       <c r="F125" t="n">
-        <v>12139.8179</v>
+        <v>829.78</v>
       </c>
       <c r="G125" t="n">
-        <v>23.41000000000001</v>
+        <v>23.40833333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C126" t="n">
         <v>23.4</v>
@@ -4782,13 +4782,13 @@
         <v>23.4</v>
       </c>
       <c r="E126" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F126" t="n">
-        <v>29881.0109</v>
+        <v>12139.8179</v>
       </c>
       <c r="G126" t="n">
-        <v>23.41166666666668</v>
+        <v>23.41000000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,19 +4808,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C127" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D127" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E127" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F127" t="n">
-        <v>48879.1141</v>
+        <v>29881.0109</v>
       </c>
       <c r="G127" t="n">
         <v>23.41166666666668</v>
@@ -4846,19 +4846,19 @@
         <v>23.3</v>
       </c>
       <c r="C128" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D128" t="n">
         <v>23.3</v>
       </c>
       <c r="E128" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F128" t="n">
-        <v>1269.0229</v>
+        <v>48879.1141</v>
       </c>
       <c r="G128" t="n">
-        <v>23.41500000000001</v>
+        <v>23.41166666666668</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C129" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D129" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E129" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="F129" t="n">
-        <v>1750.2248</v>
+        <v>1269.0229</v>
       </c>
       <c r="G129" t="n">
-        <v>23.42333333333335</v>
+        <v>23.41500000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>23.6</v>
       </c>
       <c r="F130" t="n">
-        <v>1269.0229</v>
+        <v>1750.2248</v>
       </c>
       <c r="G130" t="n">
-        <v>23.43000000000001</v>
+        <v>23.42333333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>23.6</v>
       </c>
       <c r="C131" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="D131" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="E131" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="F131" t="n">
-        <v>23551.52</v>
+        <v>1269.0229</v>
       </c>
       <c r="G131" t="n">
-        <v>23.42666666666668</v>
+        <v>23.43000000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="C132" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D132" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="E132" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F132" t="n">
-        <v>1751.4186</v>
+        <v>23551.52</v>
       </c>
       <c r="G132" t="n">
-        <v>23.42833333333334</v>
+        <v>23.42666666666668</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,7 +5018,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C133" t="n">
         <v>23.3</v>
@@ -5027,13 +5027,13 @@
         <v>23.3</v>
       </c>
       <c r="E133" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F133" t="n">
-        <v>16187.7793</v>
+        <v>1751.4186</v>
       </c>
       <c r="G133" t="n">
-        <v>23.43000000000001</v>
+        <v>23.42833333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="C134" t="n">
         <v>23.3</v>
       </c>
       <c r="D134" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="E134" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F134" t="n">
-        <v>14200</v>
+        <v>16187.7793</v>
       </c>
       <c r="G134" t="n">
-        <v>23.42333333333334</v>
+        <v>23.43000000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="C135" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D135" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="E135" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F135" t="n">
-        <v>23632.1234</v>
+        <v>14200</v>
       </c>
       <c r="G135" t="n">
-        <v>23.41500000000001</v>
+        <v>23.42333333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5126,19 +5126,19 @@
         <v>23.2</v>
       </c>
       <c r="C136" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D136" t="n">
         <v>23.2</v>
       </c>
       <c r="E136" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="F136" t="n">
-        <v>4721.0057</v>
+        <v>23632.1234</v>
       </c>
       <c r="G136" t="n">
-        <v>23.41166666666667</v>
+        <v>23.41500000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C137" t="n">
         <v>23.1</v>
       </c>
       <c r="D137" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E137" t="n">
         <v>23.1</v>
       </c>
       <c r="F137" t="n">
-        <v>30093.7058</v>
+        <v>4721.0057</v>
       </c>
       <c r="G137" t="n">
-        <v>23.40166666666667</v>
+        <v>23.41166666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5196,19 +5196,19 @@
         <v>23.1</v>
       </c>
       <c r="C138" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D138" t="n">
         <v>23.1</v>
       </c>
       <c r="E138" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F138" t="n">
-        <v>40924.6261</v>
+        <v>30093.7058</v>
       </c>
       <c r="G138" t="n">
-        <v>23.39</v>
+        <v>23.40166666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C139" t="n">
         <v>23</v>
       </c>
-      <c r="C139" t="n">
-        <v>22.9</v>
-      </c>
       <c r="D139" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E139" t="n">
         <v>23</v>
       </c>
-      <c r="E139" t="n">
-        <v>22.9</v>
-      </c>
       <c r="F139" t="n">
-        <v>900</v>
+        <v>40924.6261</v>
       </c>
       <c r="G139" t="n">
-        <v>23.38</v>
+        <v>23.39</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5266,19 +5266,19 @@
         <v>23</v>
       </c>
       <c r="C140" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D140" t="n">
         <v>23</v>
       </c>
       <c r="E140" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="F140" t="n">
-        <v>87</v>
+        <v>900</v>
       </c>
       <c r="G140" t="n">
-        <v>23.36166666666667</v>
+        <v>23.38</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5301,19 +5301,19 @@
         <v>23</v>
       </c>
       <c r="C141" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D141" t="n">
         <v>23</v>
       </c>
       <c r="E141" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F141" t="n">
-        <v>69008.9826</v>
+        <v>87</v>
       </c>
       <c r="G141" t="n">
-        <v>23.34333333333334</v>
+        <v>23.36166666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="C142" t="n">
-        <v>23.6</v>
+        <v>22.9</v>
       </c>
       <c r="D142" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="E142" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F142" t="n">
-        <v>63249.71</v>
+        <v>69008.9826</v>
       </c>
       <c r="G142" t="n">
-        <v>23.33333333333334</v>
+        <v>23.34333333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C143" t="n">
         <v>23.6</v>
-      </c>
-      <c r="C143" t="n">
-        <v>22.6</v>
       </c>
       <c r="D143" t="n">
         <v>23.6</v>
       </c>
       <c r="E143" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F143" t="n">
-        <v>6199.0817</v>
+        <v>63249.71</v>
       </c>
       <c r="G143" t="n">
-        <v>23.29333333333334</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="C144" t="n">
         <v>22.6</v>
       </c>
       <c r="D144" t="n">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="E144" t="n">
         <v>22.6</v>
       </c>
       <c r="F144" t="n">
-        <v>92878.4148</v>
+        <v>6199.0817</v>
       </c>
       <c r="G144" t="n">
-        <v>23.275</v>
+        <v>23.29333333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C145" t="n">
         <v>22.6</v>
       </c>
-      <c r="C145" t="n">
-        <v>22.5</v>
-      </c>
       <c r="D145" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E145" t="n">
         <v>22.6</v>
       </c>
-      <c r="E145" t="n">
-        <v>22.5</v>
-      </c>
       <c r="F145" t="n">
-        <v>52104.2478</v>
+        <v>92878.4148</v>
       </c>
       <c r="G145" t="n">
-        <v>23.25666666666667</v>
+        <v>23.275</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5476,19 +5476,19 @@
         <v>22.6</v>
       </c>
       <c r="C146" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="D146" t="n">
         <v>22.6</v>
       </c>
       <c r="E146" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="F146" t="n">
-        <v>1924.16</v>
+        <v>52104.2478</v>
       </c>
       <c r="G146" t="n">
-        <v>23.24166666666667</v>
+        <v>23.25666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="C147" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="D147" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="E147" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="F147" t="n">
-        <v>15260.1765</v>
+        <v>1924.16</v>
       </c>
       <c r="G147" t="n">
-        <v>23.225</v>
+        <v>23.24166666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>22.5</v>
       </c>
       <c r="F148" t="n">
-        <v>21712.15</v>
+        <v>15260.1765</v>
       </c>
       <c r="G148" t="n">
-        <v>23.21333333333333</v>
+        <v>23.225</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>22.5</v>
       </c>
       <c r="F149" t="n">
-        <v>49665.2447</v>
+        <v>21712.15</v>
       </c>
       <c r="G149" t="n">
-        <v>23.20166666666666</v>
+        <v>23.21333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>22.5</v>
       </c>
       <c r="F150" t="n">
-        <v>3672.6787</v>
+        <v>49665.2447</v>
       </c>
       <c r="G150" t="n">
-        <v>23.18833333333333</v>
+        <v>23.20166666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="C151" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D151" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="E151" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="F151" t="n">
-        <v>91167.12390000001</v>
+        <v>3672.6787</v>
       </c>
       <c r="G151" t="n">
-        <v>23.17333333333334</v>
+        <v>23.18833333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>22.4</v>
       </c>
       <c r="F152" t="n">
-        <v>6309.9502</v>
+        <v>91167.12390000001</v>
       </c>
       <c r="G152" t="n">
-        <v>23.16</v>
+        <v>23.17333333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="C153" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D153" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="E153" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="F153" t="n">
-        <v>15118.1871</v>
+        <v>6309.9502</v>
       </c>
       <c r="G153" t="n">
-        <v>23.14833333333333</v>
+        <v>23.16</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5756,19 +5756,19 @@
         <v>22.5</v>
       </c>
       <c r="C154" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D154" t="n">
         <v>22.5</v>
       </c>
       <c r="E154" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="F154" t="n">
-        <v>74214.6633</v>
+        <v>15118.1871</v>
       </c>
       <c r="G154" t="n">
-        <v>23.135</v>
+        <v>23.14833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>22.4</v>
       </c>
       <c r="F155" t="n">
-        <v>16000</v>
+        <v>74214.6633</v>
       </c>
       <c r="G155" t="n">
-        <v>23.11166666666667</v>
+        <v>23.135</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C156" t="n">
         <v>22.4</v>
       </c>
-      <c r="C156" t="n">
-        <v>21.5</v>
-      </c>
       <c r="D156" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E156" t="n">
         <v>22.4</v>
       </c>
-      <c r="E156" t="n">
-        <v>21.5</v>
-      </c>
       <c r="F156" t="n">
-        <v>76261.1091</v>
+        <v>16000</v>
       </c>
       <c r="G156" t="n">
-        <v>23.08333333333334</v>
+        <v>23.11166666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="C157" t="n">
-        <v>22.8</v>
+        <v>21.5</v>
       </c>
       <c r="D157" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="E157" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="F157" t="n">
-        <v>6104</v>
+        <v>76261.1091</v>
       </c>
       <c r="G157" t="n">
-        <v>23.07833333333334</v>
+        <v>23.08333333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="C158" t="n">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="D158" t="n">
-        <v>21.9</v>
+        <v>22.8</v>
       </c>
       <c r="E158" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="F158" t="n">
-        <v>12000</v>
+        <v>6104</v>
       </c>
       <c r="G158" t="n">
-        <v>23.055</v>
+        <v>23.07833333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="C159" t="n">
         <v>21.8</v>
       </c>
       <c r="D159" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="E159" t="n">
         <v>21.8</v>
       </c>
       <c r="F159" t="n">
-        <v>9051.290000000001</v>
+        <v>12000</v>
       </c>
       <c r="G159" t="n">
-        <v>23.03333333333334</v>
+        <v>23.055</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5966,19 +5966,19 @@
         <v>21.8</v>
       </c>
       <c r="C160" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D160" t="n">
         <v>21.8</v>
       </c>
       <c r="E160" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="F160" t="n">
-        <v>4625.3513</v>
+        <v>9051.290000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>23.00833333333334</v>
+        <v>23.03333333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="C161" t="n">
         <v>21.6</v>
       </c>
       <c r="D161" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="E161" t="n">
         <v>21.6</v>
       </c>
       <c r="F161" t="n">
-        <v>32522.9555</v>
+        <v>4625.3513</v>
       </c>
       <c r="G161" t="n">
-        <v>22.98333333333334</v>
+        <v>23.00833333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="C162" t="n">
         <v>21.6</v>
       </c>
       <c r="D162" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="E162" t="n">
         <v>21.6</v>
       </c>
       <c r="F162" t="n">
-        <v>99358.8848</v>
+        <v>32522.9555</v>
       </c>
       <c r="G162" t="n">
-        <v>22.95833333333334</v>
+        <v>22.98333333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         <v>21.6</v>
       </c>
       <c r="F163" t="n">
-        <v>9546.8359</v>
+        <v>99358.8848</v>
       </c>
       <c r="G163" t="n">
-        <v>22.935</v>
+        <v>22.95833333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,35 +6103,31 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="C164" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="D164" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="E164" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="F164" t="n">
-        <v>37069</v>
+        <v>9546.8359</v>
       </c>
       <c r="G164" t="n">
-        <v>22.91333333333334</v>
+        <v>22.935</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K164" t="n">
-        <v>21.6</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
@@ -6142,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="C165" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="D165" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="E165" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="F165" t="n">
-        <v>134717.8591</v>
+        <v>37069</v>
       </c>
       <c r="G165" t="n">
-        <v>22.89166666666667</v>
+        <v>22.91333333333334</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -6166,102 +6162,94 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="K165" t="n">
         <v>21.6</v>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>134717.8591</v>
+      </c>
+      <c r="G166" t="n">
+        <v>22.89166666666667</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>21.7</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C167" t="n">
         <v>21.4</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D167" t="n">
         <v>21.7</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E167" t="n">
         <v>21.4</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F167" t="n">
         <v>301385.5773</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G167" t="n">
         <v>22.85833333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="K166" t="n">
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
         <v>21.6</v>
       </c>
-      <c r="L166" t="inlineStr">
+      <c r="L167" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C167" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D167" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E167" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F167" t="n">
-        <v>99179.465</v>
-      </c>
-      <c r="G167" t="n">
-        <v>22.82333333333334</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K167" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6271,32 +6259,30 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="C168" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="D168" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="E168" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="F168" t="n">
-        <v>139822.9929</v>
+        <v>99179.465</v>
       </c>
       <c r="G168" t="n">
-        <v>22.78166666666667</v>
+        <v>22.82333333333334</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>21.2</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
         <v>21.6</v>
       </c>
@@ -6314,22 +6300,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C169" t="n">
         <v>21.1</v>
       </c>
-      <c r="C169" t="n">
-        <v>21.2</v>
-      </c>
       <c r="D169" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E169" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F169" t="n">
-        <v>164877.7666319249</v>
+        <v>139822.9929</v>
       </c>
       <c r="G169" t="n">
-        <v>22.74833333333334</v>
+        <v>22.78166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6355,22 +6341,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="C170" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D170" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="E170" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="F170" t="n">
-        <v>4321.6193</v>
+        <v>164877.7666319249</v>
       </c>
       <c r="G170" t="n">
-        <v>22.72166666666667</v>
+        <v>22.74833333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6408,10 +6394,10 @@
         <v>21.4</v>
       </c>
       <c r="F171" t="n">
-        <v>7712.4107</v>
+        <v>4321.6193</v>
       </c>
       <c r="G171" t="n">
-        <v>22.68333333333334</v>
+        <v>22.72166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6437,30 +6423,32 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="C172" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D172" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="E172" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F172" t="n">
-        <v>15000</v>
+        <v>7712.4107</v>
       </c>
       <c r="G172" t="n">
-        <v>22.65333333333334</v>
+        <v>22.68333333333334</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>21.4</v>
+      </c>
       <c r="K172" t="n">
         <v>21.6</v>
       </c>
@@ -6478,30 +6466,32 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C173" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D173" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="E173" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F173" t="n">
-        <v>578.3143</v>
+        <v>15000</v>
       </c>
       <c r="G173" t="n">
-        <v>22.62500000000001</v>
+        <v>22.65333333333334</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>21.4</v>
+      </c>
       <c r="K173" t="n">
         <v>21.6</v>
       </c>
@@ -6519,30 +6509,32 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C174" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>578.3143</v>
+      </c>
+      <c r="G174" t="n">
+        <v>22.62500000000001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
         <v>21.5</v>
       </c>
-      <c r="C174" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="D174" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E174" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F174" t="n">
-        <v>45690.53853911111</v>
-      </c>
-      <c r="G174" t="n">
-        <v>22.61333333333334</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
         <v>21.6</v>
       </c>
@@ -6560,22 +6552,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="C175" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="D175" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="E175" t="n">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="F175" t="n">
-        <v>573.1765</v>
+        <v>45690.53853911111</v>
       </c>
       <c r="G175" t="n">
-        <v>22.585</v>
+        <v>22.61333333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6604,19 +6596,19 @@
         <v>22.2</v>
       </c>
       <c r="C176" t="n">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="D176" t="n">
         <v>22.2</v>
       </c>
       <c r="E176" t="n">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="F176" t="n">
-        <v>18699.9332</v>
+        <v>573.1765</v>
       </c>
       <c r="G176" t="n">
-        <v>22.55333333333334</v>
+        <v>22.585</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6645,25 +6637,25 @@
         <v>22.2</v>
       </c>
       <c r="C177" t="n">
-        <v>22.2</v>
+        <v>21.4</v>
       </c>
       <c r="D177" t="n">
         <v>22.2</v>
       </c>
       <c r="E177" t="n">
-        <v>22.2</v>
+        <v>21.4</v>
       </c>
       <c r="F177" t="n">
-        <v>35761.44144144144</v>
+        <v>18699.9332</v>
       </c>
       <c r="G177" t="n">
-        <v>22.52333333333334</v>
+        <v>22.55333333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
@@ -6683,28 +6675,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="C178" t="n">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="D178" t="n">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="E178" t="n">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="F178" t="n">
-        <v>13136.8621</v>
+        <v>35761.44144144144</v>
       </c>
       <c r="G178" t="n">
-        <v>22.49000000000001</v>
+        <v>22.52333333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
@@ -6712,11 +6704,11 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>1</v>
+        <v>1.022777777777778</v>
       </c>
     </row>
     <row r="179">
@@ -6724,38 +6716,32 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C179" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="D179" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="E179" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F179" t="n">
-        <v>1375.7365</v>
+        <v>13136.8621</v>
       </c>
       <c r="G179" t="n">
-        <v>22.46</v>
+        <v>22.49000000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6777,26 +6763,20 @@
         <v>21.6</v>
       </c>
       <c r="F180" t="n">
-        <v>9113.1088</v>
+        <v>1375.7365</v>
       </c>
       <c r="G180" t="n">
-        <v>22.43166666666667</v>
+        <v>22.46</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6806,22 +6786,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C181" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D181" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="E181" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="F181" t="n">
-        <v>209.417</v>
+        <v>9113.1088</v>
       </c>
       <c r="G181" t="n">
-        <v>22.40166666666667</v>
+        <v>22.43166666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6830,14 +6810,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6850,36 +6824,65 @@
         <v>21.5</v>
       </c>
       <c r="C182" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="D182" t="n">
         <v>21.5</v>
       </c>
       <c r="E182" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>209.417</v>
+      </c>
+      <c r="G182" t="n">
+        <v>22.40166666666667</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C183" t="n">
         <v>21.3</v>
       </c>
-      <c r="F182" t="n">
+      <c r="D183" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F183" t="n">
         <v>19517.1382</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G183" t="n">
         <v>22.37</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest OGO.xlsx
+++ b/BackTest/2019-11-14 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>22100.8102</v>
       </c>
       <c r="G2" t="n">
+        <v>23.61333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>23.95666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>39720.27</v>
       </c>
       <c r="G3" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="H3" t="n">
         <v>23.95000000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>4022</v>
       </c>
       <c r="G4" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="H4" t="n">
         <v>23.94000000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>105.7697</v>
       </c>
       <c r="G5" t="n">
+        <v>23.65333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>23.92833333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3990.5466</v>
       </c>
       <c r="G6" t="n">
+        <v>23.66000000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>23.90333333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1087.4031</v>
       </c>
       <c r="G7" t="n">
+        <v>23.67333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>23.87000000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>300</v>
       </c>
       <c r="G8" t="n">
+        <v>23.68000000000001</v>
+      </c>
+      <c r="H8" t="n">
         <v>23.82333333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>104.2579</v>
       </c>
       <c r="G9" t="n">
+        <v>23.70666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>23.775</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>3401.82</v>
       </c>
       <c r="G10" t="n">
+        <v>23.69333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>23.72333333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
+        <v>23.69333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>23.71</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>49.3325</v>
       </c>
       <c r="G12" t="n">
+        <v>23.69333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>23.69833333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>13421.2831</v>
       </c>
       <c r="G13" t="n">
+        <v>23.69333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>23.68666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>667.1799999999999</v>
       </c>
       <c r="G14" t="n">
+        <v>23.67333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>23.68666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>6643.0402</v>
       </c>
       <c r="G15" t="n">
+        <v>23.67333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>23.65166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>8355.48</v>
       </c>
       <c r="G16" t="n">
+        <v>23.66000000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>23.64166666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>71855.2715</v>
       </c>
       <c r="G17" t="n">
+        <v>23.58666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>23.61666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,25 @@
         <v>4000</v>
       </c>
       <c r="G18" t="n">
+        <v>23.58000000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>23.61</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1103,29 @@
         <v>12933.858</v>
       </c>
       <c r="G19" t="n">
+        <v>23.56666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>23.60333333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1149,29 @@
         <v>15800</v>
       </c>
       <c r="G20" t="n">
+        <v>23.56666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>23.59833333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1195,25 @@
         <v>2520.9908</v>
       </c>
       <c r="G21" t="n">
+        <v>23.58000000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>23.595</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1237,27 @@
         <v>1263.6385</v>
       </c>
       <c r="G22" t="n">
+        <v>23.58666666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>23.59166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1281,27 @@
         <v>3540.997</v>
       </c>
       <c r="G23" t="n">
+        <v>23.60000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>23.58</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1325,21 @@
         <v>2314</v>
       </c>
       <c r="G24" t="n">
+        <v>23.60666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>23.57</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1363,21 @@
         <v>8199</v>
       </c>
       <c r="G25" t="n">
+        <v>23.64666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>23.59333333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1401,21 @@
         <v>61.7451</v>
       </c>
       <c r="G26" t="n">
+        <v>23.68666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>23.60333333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1439,21 @@
         <v>12156.5453</v>
       </c>
       <c r="G27" t="n">
+        <v>23.72666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>23.62</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1477,21 @@
         <v>28591.357</v>
       </c>
       <c r="G28" t="n">
+        <v>23.74666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>23.61833333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1515,21 @@
         <v>124</v>
       </c>
       <c r="G29" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="H29" t="n">
         <v>23.62</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1553,21 @@
         <v>2976.521</v>
       </c>
       <c r="G30" t="n">
+        <v>23.79333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>23.62833333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1591,21 @@
         <v>21502.8999</v>
       </c>
       <c r="G31" t="n">
+        <v>23.81333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>23.625</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1629,21 @@
         <v>7401.4835</v>
       </c>
       <c r="G32" t="n">
+        <v>23.89333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>23.63666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1667,21 @@
         <v>1.29</v>
       </c>
       <c r="G33" t="n">
+        <v>23.88666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>23.64</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1705,21 @@
         <v>886</v>
       </c>
       <c r="G34" t="n">
+        <v>23.87333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>23.64666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1743,27 @@
         <v>750</v>
       </c>
       <c r="G35" t="n">
+        <v>23.86666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>23.64666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>23.4</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1787,27 @@
         <v>18801.68</v>
       </c>
       <c r="G36" t="n">
+        <v>23.81333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>23.64166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>23.6</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1831,27 @@
         <v>247.1523</v>
       </c>
       <c r="G37" t="n">
+        <v>23.79333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>23.64000000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>23</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1875,27 @@
         <v>1684.9708</v>
       </c>
       <c r="G38" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="H38" t="n">
         <v>23.63333333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>23.5</v>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1919,27 @@
         <v>74449.389</v>
       </c>
       <c r="G39" t="n">
+        <v>23.73333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>23.63333333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1963,27 @@
         <v>8913.4413</v>
       </c>
       <c r="G40" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>23.62833333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>23.5</v>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2007,27 @@
         <v>2104.201680672269</v>
       </c>
       <c r="G41" t="n">
+        <v>23.62666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>23.64000000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>23.2</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2051,27 @@
         <v>428.84</v>
       </c>
       <c r="G42" t="n">
+        <v>23.55333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>23.63833333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>23.8</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2095,27 @@
         <v>39032.43</v>
       </c>
       <c r="G43" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H43" t="n">
         <v>23.63333333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>23.2</v>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2139,27 @@
         <v>2104.2017</v>
       </c>
       <c r="G44" t="n">
+        <v>23.45333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>23.63000000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>23.2</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2183,27 @@
         <v>36432.299</v>
       </c>
       <c r="G45" t="n">
+        <v>23.42666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>23.62000000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,20 +2227,27 @@
         <v>5784.0779</v>
       </c>
       <c r="G46" t="n">
+        <v>23.42000000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>23.62333333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,18 +2269,25 @@
         <v>24264.8223</v>
       </c>
       <c r="G47" t="n">
+        <v>23.36666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>23.61500000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L47" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2311,29 @@
         <v>43187.412</v>
       </c>
       <c r="G48" t="n">
+        <v>23.34000000000001</v>
+      </c>
+      <c r="H48" t="n">
         <v>23.60666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2357,29 @@
         <v>4211.3741</v>
       </c>
       <c r="G49" t="n">
+        <v>23.31333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>23.59833333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2403,29 @@
         <v>30</v>
       </c>
       <c r="G50" t="n">
+        <v>23.27333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>23.59000000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>23</v>
+      </c>
+      <c r="L50" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2449,29 @@
         <v>6167.6691</v>
       </c>
       <c r="G51" t="n">
+        <v>23.27333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>23.58166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>23</v>
+      </c>
+      <c r="L51" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2495,29 @@
         <v>15005.0429</v>
       </c>
       <c r="G52" t="n">
+        <v>23.24000000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>23.57333333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>23</v>
+      </c>
+      <c r="L52" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2541,29 @@
         <v>16938.0792</v>
       </c>
       <c r="G53" t="n">
+        <v>23.21333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>23.56333333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>23</v>
+      </c>
+      <c r="L53" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2587,29 @@
         <v>352763.919</v>
       </c>
       <c r="G54" t="n">
+        <v>23.16000000000001</v>
+      </c>
+      <c r="H54" t="n">
         <v>23.55166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L54" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2633,27 @@
         <v>4000</v>
       </c>
       <c r="G55" t="n">
+        <v>23.15333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>23.54000000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2677,27 @@
         <v>5433.0303</v>
       </c>
       <c r="G56" t="n">
+        <v>23.10666666666668</v>
+      </c>
+      <c r="H56" t="n">
         <v>23.52833333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2721,29 @@
         <v>9430.8233</v>
       </c>
       <c r="G57" t="n">
+        <v>23.10000000000001</v>
+      </c>
+      <c r="H57" t="n">
         <v>23.51833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2767,29 @@
         <v>9111.264800000001</v>
       </c>
       <c r="G58" t="n">
+        <v>23.09333333333335</v>
+      </c>
+      <c r="H58" t="n">
         <v>23.50833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2813,29 @@
         <v>49884.1611</v>
       </c>
       <c r="G59" t="n">
+        <v>23.09333333333335</v>
+      </c>
+      <c r="H59" t="n">
         <v>23.5</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2859,29 @@
         <v>3825.1977</v>
       </c>
       <c r="G60" t="n">
+        <v>23.08666666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>23.495</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2905,29 @@
         <v>198.118</v>
       </c>
       <c r="G61" t="n">
+        <v>23.06000000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>23.48833333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2951,29 @@
         <v>9257.885899999999</v>
       </c>
       <c r="G62" t="n">
+        <v>23.05333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>23.475</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2997,29 @@
         <v>15645</v>
       </c>
       <c r="G63" t="n">
+        <v>23.06666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>23.46833333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>23</v>
+      </c>
+      <c r="L63" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3043,29 @@
         <v>2145.922746781116</v>
       </c>
       <c r="G64" t="n">
+        <v>23.08666666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>23.46</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3089,29 @@
         <v>282.7585</v>
       </c>
       <c r="G65" t="n">
+        <v>23.10666666666668</v>
+      </c>
+      <c r="H65" t="n">
         <v>23.45333333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3135,29 @@
         <v>282.5554</v>
       </c>
       <c r="G66" t="n">
+        <v>23.12666666666668</v>
+      </c>
+      <c r="H66" t="n">
         <v>23.44833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3181,29 @@
         <v>16834.6074</v>
       </c>
       <c r="G67" t="n">
+        <v>23.14666666666668</v>
+      </c>
+      <c r="H67" t="n">
         <v>23.44166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L67" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3227,29 @@
         <v>6089.9634</v>
       </c>
       <c r="G68" t="n">
+        <v>23.16666666666668</v>
+      </c>
+      <c r="H68" t="n">
         <v>23.435</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L68" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3273,29 @@
         <v>11100.0366</v>
       </c>
       <c r="G69" t="n">
+        <v>23.19333333333335</v>
+      </c>
+      <c r="H69" t="n">
         <v>23.42333333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3319,29 @@
         <v>1244.217</v>
       </c>
       <c r="G70" t="n">
+        <v>23.19333333333335</v>
+      </c>
+      <c r="H70" t="n">
         <v>23.415</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3365,29 @@
         <v>7920.9145</v>
       </c>
       <c r="G71" t="n">
+        <v>23.20000000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>23.405</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3411,29 @@
         <v>29212.6326</v>
       </c>
       <c r="G72" t="n">
+        <v>23.22000000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>23.4</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3457,29 @@
         <v>19589.4304</v>
       </c>
       <c r="G73" t="n">
+        <v>23.22666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>23.39166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L73" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3503,29 @@
         <v>6194.1935</v>
       </c>
       <c r="G74" t="n">
+        <v>23.22000000000001</v>
+      </c>
+      <c r="H74" t="n">
         <v>23.38666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3549,29 @@
         <v>8311</v>
       </c>
       <c r="G75" t="n">
+        <v>23.25333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>23.39</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3595,29 @@
         <v>9546.8359</v>
       </c>
       <c r="G76" t="n">
+        <v>23.28666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>23.395</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="L76" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3641,27 @@
         <v>573.8058</v>
       </c>
       <c r="G77" t="n">
+        <v>23.30666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>23.405</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3685,29 @@
         <v>22</v>
       </c>
       <c r="G78" t="n">
+        <v>23.33333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>23.40666666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3731,27 @@
         <v>1022</v>
       </c>
       <c r="G79" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="H79" t="n">
         <v>23.40833333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,19 +3775,28 @@
         <v>7952</v>
       </c>
       <c r="G80" t="n">
+        <v>23.37333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>23.40500000000001</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
+      <c r="L80" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0.9907627118644067</v>
       </c>
     </row>
     <row r="81">
@@ -3213,18 +3819,21 @@
         <v>22087</v>
       </c>
       <c r="G81" t="n">
+        <v>23.42666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>23.41000000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3857,21 @@
         <v>40761.5889</v>
       </c>
       <c r="G82" t="n">
+        <v>23.47333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>23.41333333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3895,21 @@
         <v>97234.63761983471</v>
       </c>
       <c r="G83" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="H83" t="n">
         <v>23.42000000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3933,21 @@
         <v>42596.59231336032</v>
       </c>
       <c r="G84" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>23.43833333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3971,21 @@
         <v>68604.2405</v>
       </c>
       <c r="G85" t="n">
+        <v>23.70666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>23.43000000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4009,21 @@
         <v>19027.2448</v>
       </c>
       <c r="G86" t="n">
+        <v>23.73333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>23.41666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4047,21 @@
         <v>8447.77</v>
       </c>
       <c r="G87" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="H87" t="n">
         <v>23.40333333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4085,21 @@
         <v>38132.5</v>
       </c>
       <c r="G88" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="H88" t="n">
         <v>23.395</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4123,21 @@
         <v>28000</v>
       </c>
       <c r="G89" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="H89" t="n">
         <v>23.38166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4161,21 @@
         <v>9342.92</v>
       </c>
       <c r="G90" t="n">
+        <v>23.72666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>23.37333333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4199,21 @@
         <v>23664.53</v>
       </c>
       <c r="G91" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="H91" t="n">
         <v>23.36666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4237,21 @@
         <v>43503.64</v>
       </c>
       <c r="G92" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="H92" t="n">
         <v>23.35666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4275,21 @@
         <v>887.7735</v>
       </c>
       <c r="G93" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>23.35166666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4313,21 @@
         <v>11528.9256</v>
       </c>
       <c r="G94" t="n">
+        <v>23.63333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>23.34833333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4351,21 @@
         <v>12262.7686</v>
       </c>
       <c r="G95" t="n">
+        <v>23.61333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>23.34166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4389,21 @@
         <v>13518.8221</v>
       </c>
       <c r="G96" t="n">
+        <v>23.59333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>23.355</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4427,21 @@
         <v>46371.22</v>
       </c>
       <c r="G97" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="H97" t="n">
         <v>23.35</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4465,21 @@
         <v>30000</v>
       </c>
       <c r="G98" t="n">
+        <v>23.46666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>23.34666666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4503,21 @@
         <v>4288.13</v>
       </c>
       <c r="G99" t="n">
+        <v>23.34666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>23.34166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4541,21 @@
         <v>66866.7</v>
       </c>
       <c r="G100" t="n">
+        <v>23.30666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>23.34</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4579,21 @@
         <v>486</v>
       </c>
       <c r="G101" t="n">
+        <v>23.27333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>23.32833333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4617,21 @@
         <v>199</v>
       </c>
       <c r="G102" t="n">
+        <v>23.24666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>23.32666666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4655,21 @@
         <v>17039.0892</v>
       </c>
       <c r="G103" t="n">
+        <v>23.22000000000001</v>
+      </c>
+      <c r="H103" t="n">
         <v>23.325</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4693,21 @@
         <v>13013</v>
       </c>
       <c r="G104" t="n">
+        <v>23.20666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>23.32</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4731,21 @@
         <v>159</v>
       </c>
       <c r="G105" t="n">
+        <v>23.23333333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>23.325</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4769,21 @@
         <v>5965.5507</v>
       </c>
       <c r="G106" t="n">
+        <v>23.21333333333335</v>
+      </c>
+      <c r="H106" t="n">
         <v>23.315</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4807,21 @@
         <v>8778.455900000001</v>
       </c>
       <c r="G107" t="n">
+        <v>23.22000000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>23.32</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4845,21 @@
         <v>2467.6514</v>
       </c>
       <c r="G108" t="n">
+        <v>23.22666666666668</v>
+      </c>
+      <c r="H108" t="n">
         <v>23.32333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4883,21 @@
         <v>42.3728813559322</v>
       </c>
       <c r="G109" t="n">
+        <v>23.25333333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>23.33333333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4921,21 @@
         <v>2042.3728</v>
       </c>
       <c r="G110" t="n">
+        <v>23.25333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>23.33666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4959,21 @@
         <v>79372.4492</v>
       </c>
       <c r="G111" t="n">
+        <v>23.20000000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>23.33666666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4997,25 @@
         <v>3282.1893</v>
       </c>
       <c r="G112" t="n">
+        <v>23.23333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>23.34833333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>23</v>
+      </c>
+      <c r="L112" t="n">
+        <v>23</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +5039,29 @@
         <v>34000</v>
       </c>
       <c r="G113" t="n">
+        <v>23.24666666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>23.355</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="L113" t="n">
+        <v>23</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5085,27 @@
         <v>13492.494</v>
       </c>
       <c r="G114" t="n">
+        <v>23.25333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>23.365</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>23</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5129,21 @@
         <v>22905.5053</v>
       </c>
       <c r="G115" t="n">
+        <v>23.26000000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>23.36666666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5167,25 @@
         <v>200</v>
       </c>
       <c r="G116" t="n">
+        <v>23.31333333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>23.38</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5209,27 @@
         <v>8160.8293</v>
       </c>
       <c r="G117" t="n">
+        <v>23.32666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>23.38333333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5253,29 @@
         <v>132016.070355</v>
       </c>
       <c r="G118" t="n">
+        <v>23.38666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>23.39833333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L118" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5299,21 @@
         <v>65.09999999999999</v>
       </c>
       <c r="G119" t="n">
+        <v>23.41333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>23.40000000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5337,21 @@
         <v>6026.47</v>
       </c>
       <c r="G120" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="H120" t="n">
         <v>23.40333333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5375,27 @@
         <v>65.09999999999999</v>
       </c>
       <c r="G121" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="H121" t="n">
         <v>23.40500000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>23.4</v>
+      </c>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5419,27 @@
         <v>163.57</v>
       </c>
       <c r="G122" t="n">
+        <v>23.41333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>23.41000000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5463,27 @@
         <v>19809.55</v>
       </c>
       <c r="G123" t="n">
+        <v>23.40666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>23.40833333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5507,27 @@
         <v>4469.71</v>
       </c>
       <c r="G124" t="n">
+        <v>23.38666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>23.40833333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>23.2</v>
+      </c>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5551,27 @@
         <v>829.78</v>
       </c>
       <c r="G125" t="n">
+        <v>23.39333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>23.40833333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5595,27 @@
         <v>12139.8179</v>
       </c>
       <c r="G126" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="H126" t="n">
         <v>23.41000000000001</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5639,27 @@
         <v>29881.0109</v>
       </c>
       <c r="G127" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="H127" t="n">
         <v>23.41166666666668</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>23.4</v>
+      </c>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5683,25 @@
         <v>48879.1141</v>
       </c>
       <c r="G128" t="n">
+        <v>23.39333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>23.41166666666668</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5725,25 @@
         <v>1269.0229</v>
       </c>
       <c r="G129" t="n">
+        <v>23.39333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>23.41500000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5767,27 @@
         <v>1750.2248</v>
       </c>
       <c r="G130" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="H130" t="n">
         <v>23.42333333333335</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5811,25 @@
         <v>1269.0229</v>
       </c>
       <c r="G131" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="H131" t="n">
         <v>23.43000000000001</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5853,25 @@
         <v>23551.52</v>
       </c>
       <c r="G132" t="n">
+        <v>23.39333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>23.42666666666668</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,20 +5895,25 @@
         <v>1751.4186</v>
       </c>
       <c r="G133" t="n">
+        <v>23.34666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>23.42833333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5068,18 +5935,27 @@
         <v>16187.7793</v>
       </c>
       <c r="G134" t="n">
+        <v>23.34000000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>23.43000000000001</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5979,27 @@
         <v>14200</v>
       </c>
       <c r="G135" t="n">
+        <v>23.33333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>23.42333333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +6023,27 @@
         <v>23632.1234</v>
       </c>
       <c r="G136" t="n">
+        <v>23.32666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>23.41500000000001</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>23.3</v>
+      </c>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +6067,27 @@
         <v>4721.0057</v>
       </c>
       <c r="G137" t="n">
+        <v>23.31333333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>23.41166666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>23.2</v>
+      </c>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +6111,27 @@
         <v>30093.7058</v>
       </c>
       <c r="G138" t="n">
+        <v>23.30666666666668</v>
+      </c>
+      <c r="H138" t="n">
         <v>23.40166666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>23.1</v>
+      </c>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +6155,27 @@
         <v>40924.6261</v>
       </c>
       <c r="G139" t="n">
+        <v>23.28666666666668</v>
+      </c>
+      <c r="H139" t="n">
         <v>23.39</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>23.1</v>
+      </c>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6199,27 @@
         <v>900</v>
       </c>
       <c r="G140" t="n">
+        <v>23.26000000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>23.38</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>23</v>
+      </c>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6243,27 @@
         <v>87</v>
       </c>
       <c r="G141" t="n">
+        <v>23.23333333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>23.36166666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>22.9</v>
+      </c>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6287,27 @@
         <v>69008.9826</v>
       </c>
       <c r="G142" t="n">
+        <v>23.20000000000001</v>
+      </c>
+      <c r="H142" t="n">
         <v>23.34333333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>23</v>
+      </c>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6331,27 @@
         <v>63249.71</v>
       </c>
       <c r="G143" t="n">
+        <v>23.22666666666668</v>
+      </c>
+      <c r="H143" t="n">
         <v>23.33333333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>22.9</v>
+      </c>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6375,27 @@
         <v>6199.0817</v>
       </c>
       <c r="G144" t="n">
+        <v>23.18000000000001</v>
+      </c>
+      <c r="H144" t="n">
         <v>23.29333333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>23.6</v>
+      </c>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6419,27 @@
         <v>92878.4148</v>
       </c>
       <c r="G145" t="n">
+        <v>23.11333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>23.275</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>22.6</v>
+      </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6463,27 @@
         <v>52104.2478</v>
       </c>
       <c r="G146" t="n">
+        <v>23.04000000000001</v>
+      </c>
+      <c r="H146" t="n">
         <v>23.25666666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>22.6</v>
+      </c>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6507,27 @@
         <v>1924.16</v>
       </c>
       <c r="G147" t="n">
+        <v>23.00000000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>23.24166666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>22.5</v>
+      </c>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6551,27 @@
         <v>15260.1765</v>
       </c>
       <c r="G148" t="n">
+        <v>22.94666666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>23.225</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>22.6</v>
+      </c>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6595,27 @@
         <v>21712.15</v>
       </c>
       <c r="G149" t="n">
+        <v>22.89333333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>23.21333333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>22.5</v>
+      </c>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6639,27 @@
         <v>49665.2447</v>
       </c>
       <c r="G150" t="n">
+        <v>22.84000000000001</v>
+      </c>
+      <c r="H150" t="n">
         <v>23.20166666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>22.5</v>
+      </c>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6683,27 @@
         <v>3672.6787</v>
       </c>
       <c r="G151" t="n">
+        <v>22.79333333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>23.18833333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>22.5</v>
+      </c>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6727,27 @@
         <v>91167.12390000001</v>
       </c>
       <c r="G152" t="n">
+        <v>22.74666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>23.17333333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>22.5</v>
+      </c>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6771,27 @@
         <v>6309.9502</v>
       </c>
       <c r="G153" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H153" t="n">
         <v>23.16</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6815,27 @@
         <v>15118.1871</v>
       </c>
       <c r="G154" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>23.14833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6859,27 @@
         <v>74214.6633</v>
       </c>
       <c r="G155" t="n">
+        <v>22.63333333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>23.135</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>22.5</v>
+      </c>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6903,27 @@
         <v>16000</v>
       </c>
       <c r="G156" t="n">
+        <v>22.59333333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>23.11166666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6947,27 @@
         <v>76261.1091</v>
       </c>
       <c r="G157" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H157" t="n">
         <v>23.08333333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6991,25 @@
         <v>6104</v>
       </c>
       <c r="G158" t="n">
+        <v>22.44666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>23.07833333333334</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +7033,27 @@
         <v>12000</v>
       </c>
       <c r="G159" t="n">
+        <v>22.39333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>23.055</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>22.8</v>
+      </c>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +7077,25 @@
         <v>9051.290000000001</v>
       </c>
       <c r="G160" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="H160" t="n">
         <v>23.03333333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +7119,27 @@
         <v>4625.3513</v>
       </c>
       <c r="G161" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="H161" t="n">
         <v>23.00833333333334</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>21.8</v>
+      </c>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +7163,25 @@
         <v>32522.9555</v>
       </c>
       <c r="G162" t="n">
+        <v>22.21333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>22.98333333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +7205,27 @@
         <v>99358.8848</v>
       </c>
       <c r="G163" t="n">
+        <v>22.15333333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>22.95833333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>21.6</v>
+      </c>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +7249,25 @@
         <v>9546.8359</v>
       </c>
       <c r="G164" t="n">
+        <v>22.09333333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>22.935</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,22 +7291,25 @@
         <v>37069</v>
       </c>
       <c r="G165" t="n">
+        <v>22.08000000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>22.91333333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K165" t="n">
-        <v>21.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6192,24 +7333,25 @@
         <v>134717.8591</v>
       </c>
       <c r="G166" t="n">
+        <v>22.02666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>22.89166666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6233,24 +7375,25 @@
         <v>301385.5773</v>
       </c>
       <c r="G167" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="H167" t="n">
         <v>22.85833333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,24 +7417,25 @@
         <v>99179.465</v>
       </c>
       <c r="G168" t="n">
+        <v>21.88000000000001</v>
+      </c>
+      <c r="H168" t="n">
         <v>22.82333333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6315,24 +7459,25 @@
         <v>139822.9929</v>
       </c>
       <c r="G169" t="n">
+        <v>21.78666666666668</v>
+      </c>
+      <c r="H169" t="n">
         <v>22.78166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6356,24 +7501,25 @@
         <v>164877.7666319249</v>
       </c>
       <c r="G170" t="n">
+        <v>21.70666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>22.74833333333334</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6397,24 +7543,25 @@
         <v>4321.6193</v>
       </c>
       <c r="G171" t="n">
+        <v>21.64000000000001</v>
+      </c>
+      <c r="H171" t="n">
         <v>22.72166666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6438,26 +7585,25 @@
         <v>7712.4107</v>
       </c>
       <c r="G172" t="n">
+        <v>21.63333333333334</v>
+      </c>
+      <c r="H172" t="n">
         <v>22.68333333333334</v>
       </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K172" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6481,26 +7627,25 @@
         <v>15000</v>
       </c>
       <c r="G173" t="n">
+        <v>21.54666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>22.65333333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K173" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6524,26 +7669,25 @@
         <v>578.3143</v>
       </c>
       <c r="G174" t="n">
+        <v>21.53333333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>22.62500000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K174" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6567,24 +7711,25 @@
         <v>45690.53853911111</v>
       </c>
       <c r="G175" t="n">
+        <v>21.58000000000001</v>
+      </c>
+      <c r="H175" t="n">
         <v>22.61333333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,24 +7753,25 @@
         <v>573.1765</v>
       </c>
       <c r="G176" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="H176" t="n">
         <v>22.585</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6649,24 +7795,25 @@
         <v>18699.9332</v>
       </c>
       <c r="G177" t="n">
+        <v>21.60666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>22.55333333333334</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6690,25 +7837,26 @@
         <v>35761.44144144144</v>
       </c>
       <c r="G178" t="n">
+        <v>21.64666666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>22.52333333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1.022777777777778</v>
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -6731,18 +7879,25 @@
         <v>13136.8621</v>
       </c>
       <c r="G179" t="n">
+        <v>21.63333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>22.49000000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7921,25 @@
         <v>1375.7365</v>
       </c>
       <c r="G180" t="n">
+        <v>21.58666666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>22.46</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7963,25 @@
         <v>9113.1088</v>
       </c>
       <c r="G181" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="H181" t="n">
         <v>22.43166666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +8005,25 @@
         <v>209.417</v>
       </c>
       <c r="G182" t="n">
+        <v>21.58666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>22.40166666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +8047,445 @@
         <v>19517.1382</v>
       </c>
       <c r="G183" t="n">
+        <v>21.59333333333334</v>
+      </c>
+      <c r="H183" t="n">
         <v>22.37</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>27008.7696</v>
+      </c>
+      <c r="G184" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="H184" t="n">
+        <v>22.34000000000001</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D185" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E185" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F185" t="n">
+        <v>128355.461</v>
+      </c>
+      <c r="G185" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H185" t="n">
+        <v>22.30000000000001</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C186" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>57378</v>
+      </c>
+      <c r="G186" t="n">
+        <v>21.60666666666667</v>
+      </c>
+      <c r="H186" t="n">
+        <v>22.26833333333334</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20986.6069</v>
+      </c>
+      <c r="G187" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="H187" t="n">
+        <v>22.24333333333334</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24162.3251</v>
+      </c>
+      <c r="G188" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="H188" t="n">
+        <v>22.21500000000001</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C189" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F189" t="n">
+        <v>341949.3738</v>
+      </c>
+      <c r="G189" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="H189" t="n">
+        <v>22.19666666666667</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E190" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>112044.238</v>
+      </c>
+      <c r="G190" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="H190" t="n">
+        <v>22.16333333333334</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C191" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E191" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>36484.6072</v>
+      </c>
+      <c r="G191" t="n">
+        <v>21.57333333333333</v>
+      </c>
+      <c r="H191" t="n">
+        <v>22.12833333333334</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C192" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D192" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F192" t="n">
+        <v>17900.7393</v>
+      </c>
+      <c r="G192" t="n">
+        <v>21.56666666666667</v>
+      </c>
+      <c r="H192" t="n">
+        <v>22.09666666666667</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>39762.6253</v>
+      </c>
+      <c r="G193" t="n">
+        <v>21.51333333333334</v>
+      </c>
+      <c r="H193" t="n">
+        <v>22.06500000000001</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest OGO.xlsx
+++ b/BackTest/2019-11-14 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="C2" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D2" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E2" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F2" t="n">
-        <v>15432.6573</v>
+        <v>6643.0402</v>
       </c>
       <c r="G2" t="n">
-        <v>803571.444</v>
+        <v>700078.3287999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C3" t="n">
         <v>23.4</v>
       </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
       <c r="D3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E3" t="n">
         <v>23.4</v>
       </c>
-      <c r="E3" t="n">
-        <v>23</v>
-      </c>
       <c r="F3" t="n">
-        <v>44612.5</v>
+        <v>8355.48</v>
       </c>
       <c r="G3" t="n">
-        <v>758958.944</v>
+        <v>691722.8487999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C4" t="n">
-        <v>23.6</v>
+        <v>22.7</v>
       </c>
       <c r="D4" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E4" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="F4" t="n">
-        <v>23929.3864</v>
+        <v>71855.2715</v>
       </c>
       <c r="G4" t="n">
-        <v>782888.3304</v>
+        <v>619867.5772999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C5" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D5" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F5" t="n">
-        <v>577.8068</v>
+        <v>4000</v>
       </c>
       <c r="G5" t="n">
-        <v>782310.5236</v>
+        <v>623867.5772999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,10 +594,10 @@
         <v>23.6</v>
       </c>
       <c r="F6" t="n">
-        <v>21.1872</v>
+        <v>12933.858</v>
       </c>
       <c r="G6" t="n">
-        <v>782331.7108</v>
+        <v>623867.5772999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,13 +611,14 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C7" t="n">
         <v>23.7</v>
@@ -617,19 +627,19 @@
         <v>23.7</v>
       </c>
       <c r="E7" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="F7" t="n">
-        <v>20691.4556</v>
+        <v>15800</v>
       </c>
       <c r="G7" t="n">
-        <v>803023.1664</v>
+        <v>639667.5772999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="D8" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="E8" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="F8" t="n">
-        <v>9281</v>
+        <v>2520.9908</v>
       </c>
       <c r="G8" t="n">
-        <v>793742.1664</v>
+        <v>642188.5680999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="D9" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="E9" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1400.5241</v>
+        <v>1263.6385</v>
       </c>
       <c r="G9" t="n">
-        <v>793742.1664</v>
+        <v>642188.5680999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="C10" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="D10" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="F10" t="n">
-        <v>79292.31269999999</v>
+        <v>3540.997</v>
       </c>
       <c r="G10" t="n">
-        <v>714449.8537</v>
+        <v>642188.5680999998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="C11" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="D11" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="E11" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="F11" t="n">
-        <v>184</v>
+        <v>2314</v>
       </c>
       <c r="G11" t="n">
-        <v>714633.8537</v>
+        <v>644502.5680999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="C12" t="n">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="D12" t="n">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="E12" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="F12" t="n">
-        <v>500</v>
+        <v>8199</v>
       </c>
       <c r="G12" t="n">
-        <v>715133.8537</v>
+        <v>652701.5680999998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.7</v>
+        <v>24.4</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="D13" t="n">
-        <v>23.7</v>
+        <v>24.4</v>
       </c>
       <c r="E13" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="F13" t="n">
-        <v>8239.8017</v>
+        <v>61.7451</v>
       </c>
       <c r="G13" t="n">
-        <v>715133.8537</v>
+        <v>652763.3131999997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="D14" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="E14" t="n">
         <v>23.9</v>
       </c>
       <c r="F14" t="n">
-        <v>1210.4337</v>
+        <v>12156.5453</v>
       </c>
       <c r="G14" t="n">
-        <v>716344.2874</v>
+        <v>640606.7678999997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C15" t="n">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="E15" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="F15" t="n">
-        <v>6179.957</v>
+        <v>28591.357</v>
       </c>
       <c r="G15" t="n">
-        <v>710164.3304</v>
+        <v>612015.4108999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>25263</v>
+        <v>124</v>
       </c>
       <c r="G16" t="n">
-        <v>735427.3304</v>
+        <v>612015.4108999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="E17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="F17" t="n">
-        <v>32939.2348</v>
+        <v>2976.521</v>
       </c>
       <c r="G17" t="n">
-        <v>735427.3304</v>
+        <v>609038.8898999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="C18" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D18" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="E18" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F18" t="n">
-        <v>6000</v>
+        <v>21502.8999</v>
       </c>
       <c r="G18" t="n">
-        <v>729427.3304</v>
+        <v>609038.8898999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1031,19 +1053,19 @@
         <v>23.5</v>
       </c>
       <c r="C19" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="D19" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="E19" t="n">
         <v>23.5</v>
       </c>
       <c r="F19" t="n">
-        <v>23264.6178</v>
+        <v>7401.4835</v>
       </c>
       <c r="G19" t="n">
-        <v>729427.3304</v>
+        <v>616440.3733999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1075,10 +1098,10 @@
         <v>23.5</v>
       </c>
       <c r="F20" t="n">
-        <v>12982.7916</v>
+        <v>1.29</v>
       </c>
       <c r="G20" t="n">
-        <v>729427.3304</v>
+        <v>616439.0833999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C21" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="D21" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E21" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>886</v>
       </c>
       <c r="G21" t="n">
-        <v>729427.3304</v>
+        <v>615553.0833999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="C22" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D22" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E22" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F22" t="n">
-        <v>2000</v>
+        <v>750</v>
       </c>
       <c r="G22" t="n">
-        <v>729427.3304</v>
+        <v>616303.0833999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C23" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E23" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>12266.3</v>
+        <v>18801.68</v>
       </c>
       <c r="G23" t="n">
-        <v>717161.0303999999</v>
+        <v>597501.4033999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1206,19 +1233,19 @@
         <v>23.5</v>
       </c>
       <c r="C24" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="D24" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="E24" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="F24" t="n">
-        <v>8481.646199999999</v>
+        <v>247.1523</v>
       </c>
       <c r="G24" t="n">
-        <v>725642.6765999999</v>
+        <v>597748.5556999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="C25" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="D25" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="E25" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>1684.9708</v>
       </c>
       <c r="G25" t="n">
-        <v>725642.6765999999</v>
+        <v>596063.5848999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C26" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="D26" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="E26" t="n">
         <v>23.4</v>
       </c>
       <c r="F26" t="n">
-        <v>8021</v>
+        <v>74449.389</v>
       </c>
       <c r="G26" t="n">
-        <v>717621.6765999999</v>
+        <v>670512.9738999996</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="C27" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="D27" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="E27" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F27" t="n">
-        <v>66.0998</v>
+        <v>8913.4413</v>
       </c>
       <c r="G27" t="n">
-        <v>717621.6765999999</v>
+        <v>661599.5325999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,13 +1367,14 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="C28" t="n">
         <v>23.8</v>
@@ -1352,13 +1383,13 @@
         <v>23.8</v>
       </c>
       <c r="E28" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F28" t="n">
-        <v>88.0998</v>
+        <v>2104.201680672269</v>
       </c>
       <c r="G28" t="n">
-        <v>717709.7763999999</v>
+        <v>663703.7342806719</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="C29" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="D29" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="E29" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="F29" t="n">
-        <v>66</v>
+        <v>428.84</v>
       </c>
       <c r="G29" t="n">
-        <v>717643.7763999999</v>
+        <v>663274.894280672</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="C30" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="D30" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E30" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="F30" t="n">
-        <v>3333</v>
+        <v>39032.43</v>
       </c>
       <c r="G30" t="n">
-        <v>720976.7763999999</v>
+        <v>663274.894280672</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C31" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="D31" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="E31" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="F31" t="n">
-        <v>22100.8102</v>
+        <v>2104.2017</v>
       </c>
       <c r="G31" t="n">
-        <v>743077.5865999998</v>
+        <v>665379.0959806719</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="C32" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="D32" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="E32" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="F32" t="n">
-        <v>39720.27</v>
+        <v>36432.299</v>
       </c>
       <c r="G32" t="n">
-        <v>703357.3165999998</v>
+        <v>665379.0959806719</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="C33" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="D33" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E33" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="F33" t="n">
-        <v>4022</v>
+        <v>5784.0779</v>
       </c>
       <c r="G33" t="n">
-        <v>707379.3165999998</v>
+        <v>671163.173880672</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="C34" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="D34" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="E34" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7697</v>
+        <v>24264.8223</v>
       </c>
       <c r="G34" t="n">
-        <v>707273.5468999998</v>
+        <v>646898.351580672</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="C35" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="D35" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="E35" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="F35" t="n">
-        <v>3990.5466</v>
+        <v>43187.412</v>
       </c>
       <c r="G35" t="n">
-        <v>703283.0002999998</v>
+        <v>646898.351580672</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="C36" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="D36" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="E36" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="F36" t="n">
-        <v>1087.4031</v>
+        <v>4211.3741</v>
       </c>
       <c r="G36" t="n">
-        <v>704370.4033999998</v>
+        <v>642686.977480672</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="D37" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="F37" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G37" t="n">
-        <v>704070.4033999998</v>
+        <v>642686.977480672</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="D38" t="n">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="E38" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="F38" t="n">
-        <v>104.2579</v>
+        <v>6167.6691</v>
       </c>
       <c r="G38" t="n">
-        <v>704174.6612999998</v>
+        <v>642686.977480672</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="D39" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="E39" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="F39" t="n">
-        <v>3401.82</v>
+        <v>15005.0429</v>
       </c>
       <c r="G39" t="n">
-        <v>700772.8412999999</v>
+        <v>642686.977480672</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="D40" t="n">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="E40" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>16938.0792</v>
       </c>
       <c r="G40" t="n">
-        <v>700794.8412999999</v>
+        <v>625748.8982806719</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="C41" t="n">
-        <v>23.7</v>
+        <v>22.7</v>
       </c>
       <c r="D41" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="E41" t="n">
-        <v>23.7</v>
+        <v>22.7</v>
       </c>
       <c r="F41" t="n">
-        <v>49.3325</v>
+        <v>352763.919</v>
       </c>
       <c r="G41" t="n">
-        <v>700745.5087999998</v>
+        <v>272984.9792806719</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="C42" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="D42" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="E42" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="F42" t="n">
-        <v>13421.2831</v>
+        <v>4000</v>
       </c>
       <c r="G42" t="n">
-        <v>700745.5087999998</v>
+        <v>276984.9792806719</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="C43" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="D43" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="E43" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="F43" t="n">
-        <v>667.1799999999999</v>
+        <v>5433.0303</v>
       </c>
       <c r="G43" t="n">
-        <v>700078.3287999998</v>
+        <v>276984.9792806719</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="C44" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="D44" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="E44" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="F44" t="n">
-        <v>6643.0402</v>
+        <v>9430.8233</v>
       </c>
       <c r="G44" t="n">
-        <v>700078.3287999998</v>
+        <v>276984.9792806719</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="C45" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="D45" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="E45" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="F45" t="n">
-        <v>8355.48</v>
+        <v>9111.264800000001</v>
       </c>
       <c r="G45" t="n">
-        <v>691722.8487999998</v>
+        <v>276984.9792806719</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="C46" t="n">
-        <v>22.7</v>
+        <v>23.3</v>
       </c>
       <c r="D46" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="E46" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="F46" t="n">
-        <v>71855.2715</v>
+        <v>49884.1611</v>
       </c>
       <c r="G46" t="n">
-        <v>619867.5772999998</v>
+        <v>326869.1403806719</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="C47" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="D47" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="E47" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F47" t="n">
-        <v>4000</v>
+        <v>3825.1977</v>
       </c>
       <c r="G47" t="n">
-        <v>623867.5772999998</v>
+        <v>323043.9426806719</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="C48" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="D48" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="E48" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="F48" t="n">
-        <v>12933.858</v>
+        <v>198.118</v>
       </c>
       <c r="G48" t="n">
-        <v>623867.5772999998</v>
+        <v>323043.9426806719</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="C49" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="D49" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="E49" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="F49" t="n">
-        <v>15800</v>
+        <v>9257.885899999999</v>
       </c>
       <c r="G49" t="n">
-        <v>639667.5772999998</v>
+        <v>313786.0567806719</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="C50" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="D50" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="E50" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="F50" t="n">
-        <v>2520.9908</v>
+        <v>15645</v>
       </c>
       <c r="G50" t="n">
-        <v>642188.5680999998</v>
+        <v>329431.0567806719</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="C51" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="D51" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="E51" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="F51" t="n">
-        <v>1263.6385</v>
+        <v>2145.922746781116</v>
       </c>
       <c r="G51" t="n">
-        <v>642188.5680999998</v>
+        <v>329431.0567806719</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="C52" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="D52" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="E52" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="F52" t="n">
-        <v>3540.997</v>
+        <v>282.7585</v>
       </c>
       <c r="G52" t="n">
-        <v>642188.5680999998</v>
+        <v>329431.0567806719</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="C53" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="D53" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="E53" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="F53" t="n">
-        <v>2314</v>
+        <v>282.5554</v>
       </c>
       <c r="G53" t="n">
-        <v>644502.5680999998</v>
+        <v>329431.0567806719</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="C54" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="D54" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="E54" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="F54" t="n">
-        <v>8199</v>
+        <v>16834.6074</v>
       </c>
       <c r="G54" t="n">
-        <v>652701.5680999998</v>
+        <v>329431.0567806719</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>24.4</v>
+        <v>23.2</v>
       </c>
       <c r="C55" t="n">
-        <v>24.4</v>
+        <v>23.2</v>
       </c>
       <c r="D55" t="n">
-        <v>24.4</v>
+        <v>23.2</v>
       </c>
       <c r="E55" t="n">
-        <v>24.4</v>
+        <v>23.2</v>
       </c>
       <c r="F55" t="n">
-        <v>61.7451</v>
+        <v>6089.9634</v>
       </c>
       <c r="G55" t="n">
-        <v>652763.3131999997</v>
+        <v>323341.0933806719</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="C56" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="D56" t="n">
-        <v>24.3</v>
+        <v>23.1</v>
       </c>
       <c r="E56" t="n">
-        <v>23.9</v>
+        <v>23.1</v>
       </c>
       <c r="F56" t="n">
-        <v>12156.5453</v>
+        <v>11100.0366</v>
       </c>
       <c r="G56" t="n">
-        <v>640606.7678999997</v>
+        <v>312241.0567806719</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="C57" t="n">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="D57" t="n">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="E57" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="F57" t="n">
-        <v>28591.357</v>
+        <v>1244.217</v>
       </c>
       <c r="G57" t="n">
-        <v>612015.4108999998</v>
+        <v>312241.0567806719</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="C58" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="D58" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="E58" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="F58" t="n">
-        <v>124</v>
+        <v>7920.9145</v>
       </c>
       <c r="G58" t="n">
-        <v>612015.4108999998</v>
+        <v>320161.9712806719</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="C59" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="D59" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="E59" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="F59" t="n">
-        <v>2976.521</v>
+        <v>29212.6326</v>
       </c>
       <c r="G59" t="n">
-        <v>609038.8898999998</v>
+        <v>349374.603880672</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="C60" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="D60" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="E60" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="F60" t="n">
-        <v>21502.8999</v>
+        <v>19589.4304</v>
       </c>
       <c r="G60" t="n">
-        <v>609038.8898999998</v>
+        <v>329785.1734806719</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="C61" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="D61" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="E61" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="F61" t="n">
-        <v>7401.4835</v>
+        <v>6194.1935</v>
       </c>
       <c r="G61" t="n">
-        <v>616440.3733999998</v>
+        <v>329785.1734806719</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2536,19 +2601,19 @@
         <v>23.5</v>
       </c>
       <c r="C62" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D62" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="E62" t="n">
         <v>23.5</v>
       </c>
       <c r="F62" t="n">
-        <v>1.29</v>
+        <v>8311</v>
       </c>
       <c r="G62" t="n">
-        <v>616439.0833999998</v>
+        <v>338096.1734806719</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="C63" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="D63" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="E63" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="F63" t="n">
-        <v>886</v>
+        <v>9546.8359</v>
       </c>
       <c r="G63" t="n">
-        <v>615553.0833999998</v>
+        <v>338096.1734806719</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C64" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D64" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E64" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F64" t="n">
-        <v>750</v>
+        <v>573.8058</v>
       </c>
       <c r="G64" t="n">
-        <v>616303.0833999998</v>
+        <v>337522.367680672</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C65" t="n">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="D65" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E65" t="n">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="F65" t="n">
-        <v>18801.68</v>
+        <v>22</v>
       </c>
       <c r="G65" t="n">
-        <v>597501.4033999997</v>
+        <v>337544.367680672</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="C66" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D66" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="E66" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F66" t="n">
-        <v>247.1523</v>
+        <v>1022</v>
       </c>
       <c r="G66" t="n">
-        <v>597748.5556999997</v>
+        <v>337544.367680672</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="C67" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D67" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="E67" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F67" t="n">
-        <v>1684.9708</v>
+        <v>7952</v>
       </c>
       <c r="G67" t="n">
-        <v>596063.5848999997</v>
+        <v>329592.367680672</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="C68" t="n">
-        <v>23.5</v>
+        <v>24.1</v>
       </c>
       <c r="D68" t="n">
-        <v>23.5</v>
+        <v>24.1</v>
       </c>
       <c r="E68" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="F68" t="n">
-        <v>74449.389</v>
+        <v>22087</v>
       </c>
       <c r="G68" t="n">
-        <v>670512.9738999996</v>
+        <v>351679.367680672</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="D69" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="E69" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="F69" t="n">
-        <v>8913.4413</v>
+        <v>40761.5889</v>
       </c>
       <c r="G69" t="n">
-        <v>661599.5325999997</v>
+        <v>310917.778780672</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="C70" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="D70" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="E70" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="F70" t="n">
-        <v>2104.201680672269</v>
+        <v>97234.63761983471</v>
       </c>
       <c r="G70" t="n">
-        <v>663703.7342806719</v>
+        <v>408152.4164005067</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23.2</v>
+        <v>24.3</v>
       </c>
       <c r="C71" t="n">
-        <v>23.2</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>23.2</v>
+        <v>25</v>
       </c>
       <c r="E71" t="n">
-        <v>23.2</v>
+        <v>24.3</v>
       </c>
       <c r="F71" t="n">
-        <v>428.84</v>
+        <v>42596.59231336032</v>
       </c>
       <c r="G71" t="n">
-        <v>663274.894280672</v>
+        <v>450749.008713867</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,34 +2951,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="C72" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="D72" t="n">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="E72" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F72" t="n">
-        <v>39032.43</v>
+        <v>68604.2405</v>
       </c>
       <c r="G72" t="n">
-        <v>663274.894280672</v>
+        <v>382144.768213867</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,34 +2987,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="C73" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D73" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="E73" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="F73" t="n">
-        <v>2104.2017</v>
+        <v>19027.2448</v>
       </c>
       <c r="G73" t="n">
-        <v>665379.0959806719</v>
+        <v>363117.523413867</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="C74" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D74" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="E74" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F74" t="n">
-        <v>36432.299</v>
+        <v>8447.77</v>
       </c>
       <c r="G74" t="n">
-        <v>665379.0959806719</v>
+        <v>354669.753413867</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="C75" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D75" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E75" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="F75" t="n">
-        <v>5784.0779</v>
+        <v>38132.5</v>
       </c>
       <c r="G75" t="n">
-        <v>671163.173880672</v>
+        <v>354669.753413867</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="C76" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D76" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="E76" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="F76" t="n">
-        <v>24264.8223</v>
+        <v>28000</v>
       </c>
       <c r="G76" t="n">
-        <v>646898.351580672</v>
+        <v>326669.753413867</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="C77" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D77" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="E77" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F77" t="n">
-        <v>43187.412</v>
+        <v>9342.92</v>
       </c>
       <c r="G77" t="n">
-        <v>646898.351580672</v>
+        <v>326669.753413867</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,34 +3167,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C78" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="D78" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="E78" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F78" t="n">
-        <v>4211.3741</v>
+        <v>23664.53</v>
       </c>
       <c r="G78" t="n">
-        <v>642686.977480672</v>
+        <v>350334.283413867</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3122,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="C79" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="D79" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="E79" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="F79" t="n">
-        <v>30</v>
+        <v>43503.64</v>
       </c>
       <c r="G79" t="n">
-        <v>642686.977480672</v>
+        <v>350334.283413867</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="C80" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D80" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="E80" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F80" t="n">
-        <v>6167.6691</v>
+        <v>887.7735</v>
       </c>
       <c r="G80" t="n">
-        <v>642686.977480672</v>
+        <v>349446.509913867</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C81" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D81" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="E81" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F81" t="n">
-        <v>15005.0429</v>
+        <v>11528.9256</v>
       </c>
       <c r="G81" t="n">
-        <v>642686.977480672</v>
+        <v>349446.509913867</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C82" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="D82" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="E82" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="F82" t="n">
-        <v>16938.0792</v>
+        <v>12262.7686</v>
       </c>
       <c r="G82" t="n">
-        <v>625748.8982806719</v>
+        <v>349446.509913867</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22.9</v>
+        <v>23.4</v>
       </c>
       <c r="C83" t="n">
-        <v>22.7</v>
+        <v>23.8</v>
       </c>
       <c r="D83" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="E83" t="n">
-        <v>22.7</v>
+        <v>23.4</v>
       </c>
       <c r="F83" t="n">
-        <v>352763.919</v>
+        <v>13518.8221</v>
       </c>
       <c r="G83" t="n">
-        <v>272984.9792806719</v>
+        <v>362965.332013867</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C84" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D84" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="E84" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F84" t="n">
-        <v>4000</v>
+        <v>46371.22</v>
       </c>
       <c r="G84" t="n">
-        <v>276984.9792806719</v>
+        <v>316594.112013867</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C85" t="n">
         <v>23.1</v>
       </c>
       <c r="D85" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E85" t="n">
         <v>23.1</v>
       </c>
       <c r="F85" t="n">
-        <v>5433.0303</v>
+        <v>30000</v>
       </c>
       <c r="G85" t="n">
-        <v>276984.9792806719</v>
+        <v>286594.112013867</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3376,19 +3465,19 @@
         <v>23.1</v>
       </c>
       <c r="C86" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D86" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E86" t="n">
         <v>23.1</v>
       </c>
       <c r="F86" t="n">
-        <v>9430.8233</v>
+        <v>4288.13</v>
       </c>
       <c r="G86" t="n">
-        <v>276984.9792806719</v>
+        <v>290882.242013867</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3414,16 +3504,16 @@
         <v>23.1</v>
       </c>
       <c r="D87" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E87" t="n">
         <v>23.1</v>
       </c>
       <c r="F87" t="n">
-        <v>9111.264800000001</v>
+        <v>66866.7</v>
       </c>
       <c r="G87" t="n">
-        <v>276984.9792806719</v>
+        <v>224015.542013867</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="C88" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D88" t="n">
         <v>23.3</v>
       </c>
       <c r="E88" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F88" t="n">
-        <v>49884.1611</v>
+        <v>486</v>
       </c>
       <c r="G88" t="n">
-        <v>326869.1403806719</v>
+        <v>224015.542013867</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="C89" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D89" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="E89" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F89" t="n">
-        <v>3825.1977</v>
+        <v>199</v>
       </c>
       <c r="G89" t="n">
-        <v>323043.9426806719</v>
+        <v>224015.542013867</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="C90" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D90" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="E90" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="F90" t="n">
-        <v>198.118</v>
+        <v>17039.0892</v>
       </c>
       <c r="G90" t="n">
-        <v>323043.9426806719</v>
+        <v>224015.542013867</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="C91" t="n">
         <v>23</v>
       </c>
       <c r="D91" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="E91" t="n">
         <v>23</v>
       </c>
       <c r="F91" t="n">
-        <v>9257.885899999999</v>
+        <v>13013</v>
       </c>
       <c r="G91" t="n">
-        <v>313786.0567806719</v>
+        <v>211002.542013867</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="C92" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D92" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="E92" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F92" t="n">
-        <v>15645</v>
+        <v>159</v>
       </c>
       <c r="G92" t="n">
-        <v>329431.0567806719</v>
+        <v>211161.542013867</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="C93" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="D93" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="E93" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="F93" t="n">
-        <v>2145.922746781116</v>
+        <v>5965.5507</v>
       </c>
       <c r="G93" t="n">
-        <v>329431.0567806719</v>
+        <v>205195.991313867</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C94" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D94" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E94" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F94" t="n">
-        <v>282.7585</v>
+        <v>8778.455900000001</v>
       </c>
       <c r="G94" t="n">
-        <v>329431.0567806719</v>
+        <v>213974.447213867</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3700,10 +3798,10 @@
         <v>23.3</v>
       </c>
       <c r="F95" t="n">
-        <v>282.5554</v>
+        <v>2467.6514</v>
       </c>
       <c r="G95" t="n">
-        <v>329431.0567806719</v>
+        <v>211506.795813867</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="C96" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D96" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="E96" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="F96" t="n">
-        <v>16834.6074</v>
+        <v>42.3728813559322</v>
       </c>
       <c r="G96" t="n">
-        <v>329431.0567806719</v>
+        <v>211549.1686952229</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C97" t="n">
         <v>23.2</v>
       </c>
       <c r="D97" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E97" t="n">
         <v>23.2</v>
       </c>
       <c r="F97" t="n">
-        <v>6089.9634</v>
+        <v>2042.3728</v>
       </c>
       <c r="G97" t="n">
-        <v>323341.0933806719</v>
+        <v>209506.7958952229</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C98" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="D98" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E98" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="F98" t="n">
-        <v>11100.0366</v>
+        <v>79372.4492</v>
       </c>
       <c r="G98" t="n">
-        <v>312241.0567806719</v>
+        <v>130134.3466952229</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="C99" t="n">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="D99" t="n">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="E99" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="F99" t="n">
-        <v>1244.217</v>
+        <v>3282.1893</v>
       </c>
       <c r="G99" t="n">
-        <v>312241.0567806719</v>
+        <v>133416.5359952229</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="C100" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D100" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="E100" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F100" t="n">
-        <v>7920.9145</v>
+        <v>34000</v>
       </c>
       <c r="G100" t="n">
-        <v>320161.9712806719</v>
+        <v>99416.53599522292</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C101" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D101" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="E101" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F101" t="n">
-        <v>29212.6326</v>
+        <v>13492.494</v>
       </c>
       <c r="G101" t="n">
-        <v>349374.603880672</v>
+        <v>99416.53599522292</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C102" t="n">
         <v>23.2</v>
       </c>
       <c r="D102" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E102" t="n">
         <v>23.2</v>
       </c>
       <c r="F102" t="n">
-        <v>19589.4304</v>
+        <v>22905.5053</v>
       </c>
       <c r="G102" t="n">
-        <v>329785.1734806719</v>
+        <v>76511.03069522291</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C103" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="D103" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="E103" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F103" t="n">
-        <v>6194.1935</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
-        <v>329785.1734806719</v>
+        <v>76711.03069522291</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="C104" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="D104" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="E104" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F104" t="n">
-        <v>8311</v>
+        <v>8160.8293</v>
       </c>
       <c r="G104" t="n">
-        <v>338096.1734806719</v>
+        <v>68550.20139522292</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="C105" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="D105" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="E105" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="F105" t="n">
-        <v>9546.8359</v>
+        <v>132016.070355</v>
       </c>
       <c r="G105" t="n">
-        <v>338096.1734806719</v>
+        <v>200566.2717502229</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C106" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D106" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E106" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F106" t="n">
-        <v>573.8058</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>337522.367680672</v>
+        <v>200501.1717502229</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="C107" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="D107" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="E107" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="F107" t="n">
-        <v>22</v>
+        <v>6026.47</v>
       </c>
       <c r="G107" t="n">
-        <v>337544.367680672</v>
+        <v>200501.1717502229</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="C108" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="D108" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="E108" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="F108" t="n">
-        <v>1022</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>337544.367680672</v>
+        <v>200436.0717502229</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="C109" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="D109" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="E109" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F109" t="n">
-        <v>7952</v>
+        <v>163.57</v>
       </c>
       <c r="G109" t="n">
-        <v>329592.367680672</v>
+        <v>200436.0717502229</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C110" t="n">
-        <v>24.1</v>
+        <v>23.2</v>
       </c>
       <c r="D110" t="n">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="E110" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="F110" t="n">
-        <v>22087</v>
+        <v>19809.55</v>
       </c>
       <c r="G110" t="n">
-        <v>351679.367680672</v>
+        <v>180626.5217502229</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="C111" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="D111" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="E111" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="F111" t="n">
-        <v>40761.5889</v>
+        <v>4469.71</v>
       </c>
       <c r="G111" t="n">
-        <v>310917.778780672</v>
+        <v>185096.2317502229</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="C112" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="D112" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="E112" t="n">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="F112" t="n">
-        <v>97234.63761983471</v>
+        <v>829.78</v>
       </c>
       <c r="G112" t="n">
-        <v>408152.4164005067</v>
+        <v>185096.2317502229</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>24.3</v>
+        <v>23.3</v>
       </c>
       <c r="C113" t="n">
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="D113" t="n">
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="E113" t="n">
-        <v>24.3</v>
+        <v>23.3</v>
       </c>
       <c r="F113" t="n">
-        <v>42596.59231336032</v>
+        <v>12139.8179</v>
       </c>
       <c r="G113" t="n">
-        <v>450749.008713867</v>
+        <v>197236.0496502229</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,34 +4463,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="C114" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="D114" t="n">
-        <v>24.1</v>
+        <v>23.4</v>
       </c>
       <c r="E114" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F114" t="n">
-        <v>68604.2405</v>
+        <v>29881.0109</v>
       </c>
       <c r="G114" t="n">
-        <v>382144.768213867</v>
+        <v>197236.0496502229</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="C115" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="D115" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="E115" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="F115" t="n">
-        <v>19027.2448</v>
+        <v>48879.1141</v>
       </c>
       <c r="G115" t="n">
-        <v>363117.523413867</v>
+        <v>148356.9355502229</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C116" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="D116" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E116" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F116" t="n">
-        <v>8447.77</v>
+        <v>1269.0229</v>
       </c>
       <c r="G116" t="n">
-        <v>354669.753413867</v>
+        <v>149625.9584502229</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C117" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D117" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E117" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="F117" t="n">
-        <v>38132.5</v>
+        <v>1750.2248</v>
       </c>
       <c r="G117" t="n">
-        <v>354669.753413867</v>
+        <v>151376.1832502229</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C118" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="D118" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E118" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="F118" t="n">
-        <v>28000</v>
+        <v>1269.0229</v>
       </c>
       <c r="G118" t="n">
-        <v>326669.753413867</v>
+        <v>151376.1832502229</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="C119" t="n">
         <v>23.2</v>
       </c>
       <c r="D119" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="E119" t="n">
         <v>23.2</v>
       </c>
       <c r="F119" t="n">
-        <v>9342.92</v>
+        <v>23551.52</v>
       </c>
       <c r="G119" t="n">
-        <v>326669.753413867</v>
+        <v>127824.6632502229</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,13 +4679,14 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C120" t="n">
         <v>23.3</v>
@@ -4572,13 +4695,13 @@
         <v>23.3</v>
       </c>
       <c r="E120" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F120" t="n">
-        <v>23664.53</v>
+        <v>1751.4186</v>
       </c>
       <c r="G120" t="n">
-        <v>350334.283413867</v>
+        <v>129576.0818502229</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,13 +4715,14 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C121" t="n">
         <v>23.3</v>
@@ -4607,13 +4731,13 @@
         <v>23.3</v>
       </c>
       <c r="E121" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F121" t="n">
-        <v>43503.64</v>
+        <v>16187.7793</v>
       </c>
       <c r="G121" t="n">
-        <v>350334.283413867</v>
+        <v>129576.0818502229</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="C122" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D122" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="E122" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F122" t="n">
-        <v>887.7735</v>
+        <v>14200</v>
       </c>
       <c r="G122" t="n">
-        <v>349446.509913867</v>
+        <v>129576.0818502229</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,6 +4787,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4680,10 +4806,10 @@
         <v>23.2</v>
       </c>
       <c r="F123" t="n">
-        <v>11528.9256</v>
+        <v>23632.1234</v>
       </c>
       <c r="G123" t="n">
-        <v>349446.509913867</v>
+        <v>105943.9584502229</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,6 +4823,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4706,19 +4833,19 @@
         <v>23.2</v>
       </c>
       <c r="C124" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D124" t="n">
         <v>23.2</v>
       </c>
       <c r="E124" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F124" t="n">
-        <v>12262.7686</v>
+        <v>4721.0057</v>
       </c>
       <c r="G124" t="n">
-        <v>349446.509913867</v>
+        <v>101222.9527502229</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="C125" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="D125" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="E125" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="F125" t="n">
-        <v>13518.8221</v>
+        <v>30093.7058</v>
       </c>
       <c r="G125" t="n">
-        <v>362965.332013867</v>
+        <v>101222.9527502229</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="C126" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="D126" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="E126" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="F126" t="n">
-        <v>46371.22</v>
+        <v>40924.6261</v>
       </c>
       <c r="G126" t="n">
-        <v>316594.112013867</v>
+        <v>60298.32665022292</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="C127" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="D127" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="E127" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="F127" t="n">
-        <v>30000</v>
+        <v>900</v>
       </c>
       <c r="G127" t="n">
-        <v>286594.112013867</v>
+        <v>59398.32665022292</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="C128" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="D128" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="E128" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="F128" t="n">
-        <v>4288.13</v>
+        <v>87</v>
       </c>
       <c r="G128" t="n">
-        <v>290882.242013867</v>
+        <v>59485.32665022292</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="C129" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="D129" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="E129" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="F129" t="n">
-        <v>66866.7</v>
+        <v>69008.9826</v>
       </c>
       <c r="G129" t="n">
-        <v>224015.542013867</v>
+        <v>-9523.655949777087</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>23.3</v>
+        <v>22.7</v>
       </c>
       <c r="C130" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="D130" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="E130" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="F130" t="n">
-        <v>486</v>
+        <v>63249.71</v>
       </c>
       <c r="G130" t="n">
-        <v>224015.542013867</v>
+        <v>53726.05405022291</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="C131" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="D131" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="E131" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="F131" t="n">
-        <v>199</v>
+        <v>6199.0817</v>
       </c>
       <c r="G131" t="n">
-        <v>224015.542013867</v>
+        <v>47526.97235022291</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="C132" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="D132" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="E132" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="F132" t="n">
-        <v>17039.0892</v>
+        <v>92878.4148</v>
       </c>
       <c r="G132" t="n">
-        <v>224015.542013867</v>
+        <v>47526.97235022291</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,426 +5147,441 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="C133" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="D133" t="n">
-        <v>23.6</v>
+        <v>22.6</v>
       </c>
       <c r="E133" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="F133" t="n">
-        <v>13013</v>
+        <v>52104.2478</v>
       </c>
       <c r="G133" t="n">
-        <v>211002.542013867</v>
+        <v>-4577.275449777087</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1924.16</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2653.115449777088</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15260.1765</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-17913.29194977709</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K135" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>21712.15</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-17913.29194977709</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K136" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>49665.2447</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-17913.29194977709</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K137" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3672.6787</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-17913.29194977709</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K138" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D139" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>91167.12390000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-109080.4158497771</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K139" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6309.9502</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-109080.4158497771</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K140" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15118.1871</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-93962.22874977709</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K141" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>74214.6633</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-168176.8920497771</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K142" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="E134" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>159</v>
-      </c>
-      <c r="G134" t="n">
-        <v>211161.542013867</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>23</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>23</v>
-      </c>
-      <c r="D135" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>23</v>
-      </c>
-      <c r="F135" t="n">
-        <v>5965.5507</v>
-      </c>
-      <c r="G135" t="n">
-        <v>205195.991313867</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="C136" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="D136" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="E136" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F136" t="n">
-        <v>8778.455900000001</v>
-      </c>
-      <c r="G136" t="n">
-        <v>213974.447213867</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="C137" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D137" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E137" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2467.6514</v>
-      </c>
-      <c r="G137" t="n">
-        <v>211506.795813867</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="C138" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="D138" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F138" t="n">
-        <v>42.3728813559322</v>
-      </c>
-      <c r="G138" t="n">
-        <v>211549.1686952229</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="C139" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E139" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2042.3728</v>
-      </c>
-      <c r="G139" t="n">
-        <v>209506.7958952229</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>23</v>
-      </c>
-      <c r="D140" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>23</v>
-      </c>
-      <c r="F140" t="n">
-        <v>79372.4492</v>
-      </c>
-      <c r="G140" t="n">
-        <v>130134.3466952229</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="D141" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="E141" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3282.1893</v>
-      </c>
-      <c r="G141" t="n">
-        <v>133416.5359952229</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>23</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D142" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="E142" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>34000</v>
-      </c>
-      <c r="G142" t="n">
-        <v>99416.53599522292</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="C143" t="n">
-        <v>23.3</v>
+        <v>22.4</v>
       </c>
       <c r="D143" t="n">
-        <v>23.8</v>
+        <v>22.5</v>
       </c>
       <c r="E143" t="n">
-        <v>23.2</v>
+        <v>22.4</v>
       </c>
       <c r="F143" t="n">
-        <v>13492.494</v>
+        <v>16000</v>
       </c>
       <c r="G143" t="n">
-        <v>99416.53599522292</v>
+        <v>-168176.8920497771</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
@@ -5440,9 +5590,11 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+        <v>22.4</v>
+      </c>
+      <c r="K143" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5451,28 +5603,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>23.3</v>
+        <v>22.4</v>
       </c>
       <c r="C144" t="n">
-        <v>23.2</v>
+        <v>21.5</v>
       </c>
       <c r="D144" t="n">
-        <v>23.3</v>
+        <v>22.4</v>
       </c>
       <c r="E144" t="n">
-        <v>23.2</v>
+        <v>21.5</v>
       </c>
       <c r="F144" t="n">
-        <v>22905.5053</v>
+        <v>76261.1091</v>
       </c>
       <c r="G144" t="n">
-        <v>76511.03069522291</v>
+        <v>-244438.0011497771</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
@@ -5481,9 +5634,11 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+        <v>22.4</v>
+      </c>
+      <c r="K144" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5492,28 +5647,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>23.3</v>
+        <v>22</v>
       </c>
       <c r="C145" t="n">
-        <v>23.9</v>
+        <v>22.8</v>
       </c>
       <c r="D145" t="n">
-        <v>23.9</v>
+        <v>22.8</v>
       </c>
       <c r="E145" t="n">
-        <v>23.3</v>
+        <v>22</v>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>6104</v>
       </c>
       <c r="G145" t="n">
-        <v>76711.03069522291</v>
+        <v>-238334.0011497771</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
@@ -5522,9 +5678,11 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+        <v>21.5</v>
+      </c>
+      <c r="K145" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5533,37 +5691,42 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>23.3</v>
+        <v>21.9</v>
       </c>
       <c r="C146" t="n">
-        <v>23.3</v>
+        <v>21.8</v>
       </c>
       <c r="D146" t="n">
-        <v>23.3</v>
+        <v>21.9</v>
       </c>
       <c r="E146" t="n">
-        <v>23.3</v>
+        <v>21.8</v>
       </c>
       <c r="F146" t="n">
-        <v>8160.8293</v>
+        <v>12000</v>
       </c>
       <c r="G146" t="n">
-        <v>68550.20139522292</v>
+        <v>-250334.0011497771</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K146" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5572,37 +5735,42 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>23.3</v>
+        <v>21.8</v>
       </c>
       <c r="C147" t="n">
-        <v>24</v>
+        <v>21.8</v>
       </c>
       <c r="D147" t="n">
-        <v>24</v>
+        <v>21.8</v>
       </c>
       <c r="E147" t="n">
-        <v>23.3</v>
+        <v>21.8</v>
       </c>
       <c r="F147" t="n">
-        <v>132016.070355</v>
+        <v>9051.290000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>200566.2717502229</v>
+        <v>-250334.0011497771</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K147" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5611,37 +5779,42 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>23.4</v>
+        <v>21.8</v>
       </c>
       <c r="C148" t="n">
-        <v>23.4</v>
+        <v>21.6</v>
       </c>
       <c r="D148" t="n">
-        <v>23.4</v>
+        <v>21.8</v>
       </c>
       <c r="E148" t="n">
-        <v>23.4</v>
+        <v>21.6</v>
       </c>
       <c r="F148" t="n">
-        <v>65.09999999999999</v>
+        <v>4625.3513</v>
       </c>
       <c r="G148" t="n">
-        <v>200501.1717502229</v>
+        <v>-254959.3524497771</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K148" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5650,37 +5823,42 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>23.4</v>
+        <v>21.7</v>
       </c>
       <c r="C149" t="n">
-        <v>23.4</v>
+        <v>21.6</v>
       </c>
       <c r="D149" t="n">
-        <v>23.4</v>
+        <v>21.7</v>
       </c>
       <c r="E149" t="n">
-        <v>23.4</v>
+        <v>21.6</v>
       </c>
       <c r="F149" t="n">
-        <v>6026.47</v>
+        <v>32522.9555</v>
       </c>
       <c r="G149" t="n">
-        <v>200501.1717502229</v>
+        <v>-254959.3524497771</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="K149" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5689,37 +5867,42 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>23.4</v>
+        <v>21.6</v>
       </c>
       <c r="C150" t="n">
-        <v>23.3</v>
+        <v>21.6</v>
       </c>
       <c r="D150" t="n">
-        <v>23.4</v>
+        <v>21.6</v>
       </c>
       <c r="E150" t="n">
-        <v>23.3</v>
+        <v>21.6</v>
       </c>
       <c r="F150" t="n">
-        <v>65.09999999999999</v>
+        <v>99358.8848</v>
       </c>
       <c r="G150" t="n">
-        <v>200436.0717502229</v>
+        <v>-254959.3524497771</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="K150" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5728,37 +5911,42 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>23.3</v>
+        <v>21.6</v>
       </c>
       <c r="C151" t="n">
-        <v>23.3</v>
+        <v>21.6</v>
       </c>
       <c r="D151" t="n">
-        <v>23.3</v>
+        <v>21.6</v>
       </c>
       <c r="E151" t="n">
-        <v>23.3</v>
+        <v>21.6</v>
       </c>
       <c r="F151" t="n">
-        <v>163.57</v>
+        <v>9546.8359</v>
       </c>
       <c r="G151" t="n">
-        <v>200436.0717502229</v>
+        <v>-254959.3524497771</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="K151" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5767,37 +5955,42 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>23.3</v>
+        <v>21.9</v>
       </c>
       <c r="C152" t="n">
-        <v>23.2</v>
+        <v>22.3</v>
       </c>
       <c r="D152" t="n">
-        <v>23.3</v>
+        <v>22.3</v>
       </c>
       <c r="E152" t="n">
-        <v>23.2</v>
+        <v>21.8</v>
       </c>
       <c r="F152" t="n">
-        <v>19809.55</v>
+        <v>37069</v>
       </c>
       <c r="G152" t="n">
-        <v>180626.5217502229</v>
+        <v>-217890.3524497771</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="K152" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5806,37 +5999,42 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>23.3</v>
+        <v>21.7</v>
       </c>
       <c r="C153" t="n">
-        <v>23.3</v>
+        <v>21.7</v>
       </c>
       <c r="D153" t="n">
-        <v>23.3</v>
+        <v>21.7</v>
       </c>
       <c r="E153" t="n">
-        <v>23.3</v>
+        <v>21.7</v>
       </c>
       <c r="F153" t="n">
-        <v>4469.71</v>
+        <v>134717.8591</v>
       </c>
       <c r="G153" t="n">
-        <v>185096.2317502229</v>
+        <v>-352608.2115497771</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="K153" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5845,37 +6043,42 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>23.3</v>
+        <v>21.7</v>
       </c>
       <c r="C154" t="n">
-        <v>23.3</v>
+        <v>21.4</v>
       </c>
       <c r="D154" t="n">
-        <v>23.3</v>
+        <v>21.7</v>
       </c>
       <c r="E154" t="n">
-        <v>23.3</v>
+        <v>21.4</v>
       </c>
       <c r="F154" t="n">
-        <v>829.78</v>
+        <v>301385.5773</v>
       </c>
       <c r="G154" t="n">
-        <v>185096.2317502229</v>
+        <v>-653993.7888497771</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="K154" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5884,37 +6087,42 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>23.3</v>
+        <v>21.4</v>
       </c>
       <c r="C155" t="n">
-        <v>23.4</v>
+        <v>21.2</v>
       </c>
       <c r="D155" t="n">
-        <v>23.4</v>
+        <v>21.4</v>
       </c>
       <c r="E155" t="n">
-        <v>23.3</v>
+        <v>21.2</v>
       </c>
       <c r="F155" t="n">
-        <v>12139.8179</v>
+        <v>99179.465</v>
       </c>
       <c r="G155" t="n">
-        <v>197236.0496502229</v>
+        <v>-753173.253849777</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K155" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5923,28 +6131,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>23.4</v>
+        <v>20.9</v>
       </c>
       <c r="C156" t="n">
-        <v>23.4</v>
+        <v>21.1</v>
       </c>
       <c r="D156" t="n">
-        <v>23.4</v>
+        <v>21.1</v>
       </c>
       <c r="E156" t="n">
-        <v>23.4</v>
+        <v>20.9</v>
       </c>
       <c r="F156" t="n">
-        <v>29881.0109</v>
+        <v>139822.9929</v>
       </c>
       <c r="G156" t="n">
-        <v>197236.0496502229</v>
+        <v>-892996.2467497771</v>
       </c>
       <c r="H156" t="n">
         <v>1</v>
@@ -5953,9 +6162,11 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+        <v>21.2</v>
+      </c>
+      <c r="K156" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5964,37 +6175,42 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>23.3</v>
+        <v>21.1</v>
       </c>
       <c r="C157" t="n">
-        <v>23.2</v>
+        <v>21.2</v>
       </c>
       <c r="D157" t="n">
-        <v>23.3</v>
+        <v>21.3</v>
       </c>
       <c r="E157" t="n">
-        <v>23.2</v>
+        <v>21.1</v>
       </c>
       <c r="F157" t="n">
-        <v>48879.1141</v>
+        <v>164877.7666319249</v>
       </c>
       <c r="G157" t="n">
-        <v>148356.9355502229</v>
+        <v>-728118.4801178522</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6003,37 +6219,42 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>23.3</v>
+        <v>21.4</v>
       </c>
       <c r="C158" t="n">
-        <v>23.3</v>
+        <v>21.4</v>
       </c>
       <c r="D158" t="n">
-        <v>23.3</v>
+        <v>21.4</v>
       </c>
       <c r="E158" t="n">
-        <v>23.3</v>
+        <v>21.4</v>
       </c>
       <c r="F158" t="n">
-        <v>1269.0229</v>
+        <v>4321.6193</v>
       </c>
       <c r="G158" t="n">
-        <v>149625.9584502229</v>
+        <v>-723796.8608178522</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6042,28 +6263,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>23.6</v>
+        <v>21.4</v>
       </c>
       <c r="C159" t="n">
-        <v>23.6</v>
+        <v>21.4</v>
       </c>
       <c r="D159" t="n">
-        <v>23.6</v>
+        <v>21.4</v>
       </c>
       <c r="E159" t="n">
-        <v>23.6</v>
+        <v>21.4</v>
       </c>
       <c r="F159" t="n">
-        <v>1750.2248</v>
+        <v>7712.4107</v>
       </c>
       <c r="G159" t="n">
-        <v>151376.1832502229</v>
+        <v>-723796.8608178522</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6072,7 +6294,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6081,37 +6305,42 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>23.6</v>
+        <v>21.5</v>
       </c>
       <c r="C160" t="n">
-        <v>23.6</v>
+        <v>21.5</v>
       </c>
       <c r="D160" t="n">
-        <v>23.6</v>
+        <v>21.5</v>
       </c>
       <c r="E160" t="n">
-        <v>23.6</v>
+        <v>21.5</v>
       </c>
       <c r="F160" t="n">
-        <v>1269.0229</v>
+        <v>15000</v>
       </c>
       <c r="G160" t="n">
-        <v>151376.1832502229</v>
+        <v>-708796.8608178522</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K160" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6120,37 +6349,42 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>23.6</v>
+        <v>21.6</v>
       </c>
       <c r="C161" t="n">
-        <v>23.2</v>
+        <v>21.6</v>
       </c>
       <c r="D161" t="n">
-        <v>23.7</v>
+        <v>21.6</v>
       </c>
       <c r="E161" t="n">
-        <v>23.2</v>
+        <v>21.6</v>
       </c>
       <c r="F161" t="n">
-        <v>23551.52</v>
+        <v>578.3143</v>
       </c>
       <c r="G161" t="n">
-        <v>127824.6632502229</v>
+        <v>-708218.5465178522</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K161" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,37 +6393,42 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>23.3</v>
+        <v>21.5</v>
       </c>
       <c r="C162" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="D162" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="E162" t="n">
-        <v>23.3</v>
+        <v>21.5</v>
       </c>
       <c r="F162" t="n">
-        <v>1751.4186</v>
+        <v>45690.53853911111</v>
       </c>
       <c r="G162" t="n">
-        <v>129576.0818502229</v>
+        <v>-662528.0079787411</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="K162" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6198,28 +6437,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>23.2</v>
+        <v>22.2</v>
       </c>
       <c r="C163" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="D163" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="E163" t="n">
-        <v>23.2</v>
+        <v>22.2</v>
       </c>
       <c r="F163" t="n">
-        <v>16187.7793</v>
+        <v>573.1765</v>
       </c>
       <c r="G163" t="n">
-        <v>129576.0818502229</v>
+        <v>-663101.184478741</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6228,7 +6468,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6237,28 +6479,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>23.5</v>
+        <v>22.2</v>
       </c>
       <c r="C164" t="n">
-        <v>23.3</v>
+        <v>21.4</v>
       </c>
       <c r="D164" t="n">
-        <v>23.7</v>
+        <v>22.2</v>
       </c>
       <c r="E164" t="n">
-        <v>23.3</v>
+        <v>21.4</v>
       </c>
       <c r="F164" t="n">
-        <v>14200</v>
+        <v>18699.9332</v>
       </c>
       <c r="G164" t="n">
-        <v>129576.0818502229</v>
+        <v>-681801.117678741</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6267,7 +6510,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6276,28 +6521,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>23.2</v>
+        <v>22.2</v>
       </c>
       <c r="C165" t="n">
-        <v>23.2</v>
+        <v>22.2</v>
       </c>
       <c r="D165" t="n">
-        <v>23.2</v>
+        <v>22.2</v>
       </c>
       <c r="E165" t="n">
-        <v>23.2</v>
+        <v>22.2</v>
       </c>
       <c r="F165" t="n">
-        <v>23632.1234</v>
+        <v>35761.44144144144</v>
       </c>
       <c r="G165" t="n">
-        <v>105943.9584502229</v>
+        <v>-646039.6762372996</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6306,7 +6552,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6315,28 +6563,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>23.2</v>
+        <v>21.5</v>
       </c>
       <c r="C166" t="n">
-        <v>23.1</v>
+        <v>21.4</v>
       </c>
       <c r="D166" t="n">
-        <v>23.2</v>
+        <v>21.5</v>
       </c>
       <c r="E166" t="n">
-        <v>23.1</v>
+        <v>21.4</v>
       </c>
       <c r="F166" t="n">
-        <v>4721.0057</v>
+        <v>13136.8621</v>
       </c>
       <c r="G166" t="n">
-        <v>101222.9527502229</v>
+        <v>-659176.5383372996</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6345,7 +6594,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6354,37 +6605,42 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>23.1</v>
+        <v>21.6</v>
       </c>
       <c r="C167" t="n">
-        <v>23.1</v>
+        <v>21.6</v>
       </c>
       <c r="D167" t="n">
-        <v>23.1</v>
+        <v>21.6</v>
       </c>
       <c r="E167" t="n">
-        <v>23.1</v>
+        <v>21.6</v>
       </c>
       <c r="F167" t="n">
-        <v>30093.7058</v>
+        <v>1375.7365</v>
       </c>
       <c r="G167" t="n">
-        <v>101222.9527502229</v>
+        <v>-657800.8018372996</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K167" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,28 +6649,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>23.1</v>
+        <v>21.6</v>
       </c>
       <c r="C168" t="n">
-        <v>23</v>
+        <v>21.6</v>
       </c>
       <c r="D168" t="n">
-        <v>23.1</v>
+        <v>21.6</v>
       </c>
       <c r="E168" t="n">
-        <v>23</v>
+        <v>21.6</v>
       </c>
       <c r="F168" t="n">
-        <v>40924.6261</v>
+        <v>9113.1088</v>
       </c>
       <c r="G168" t="n">
-        <v>60298.32665022292</v>
+        <v>-657800.8018372996</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
@@ -6423,9 +6680,11 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+        <v>21.6</v>
+      </c>
+      <c r="K168" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6434,28 +6693,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="C169" t="n">
-        <v>22.9</v>
+        <v>21.5</v>
       </c>
       <c r="D169" t="n">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="E169" t="n">
-        <v>22.9</v>
+        <v>21.5</v>
       </c>
       <c r="F169" t="n">
-        <v>900</v>
+        <v>209.417</v>
       </c>
       <c r="G169" t="n">
-        <v>59398.32665022292</v>
+        <v>-658010.2188372996</v>
       </c>
       <c r="H169" t="n">
         <v>1</v>
@@ -6464,9 +6724,11 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>23</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+        <v>21.6</v>
+      </c>
+      <c r="K169" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,28 +6737,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="C170" t="n">
-        <v>23</v>
+        <v>21.3</v>
       </c>
       <c r="D170" t="n">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="E170" t="n">
-        <v>23</v>
+        <v>21.3</v>
       </c>
       <c r="F170" t="n">
-        <v>87</v>
+        <v>19517.1382</v>
       </c>
       <c r="G170" t="n">
-        <v>59485.32665022292</v>
+        <v>-677527.3570372997</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
@@ -6505,9 +6768,11 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+        <v>21.5</v>
+      </c>
+      <c r="K170" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6516,28 +6781,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>23</v>
+        <v>21.3</v>
       </c>
       <c r="C171" t="n">
-        <v>22.9</v>
+        <v>21.5</v>
       </c>
       <c r="D171" t="n">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="E171" t="n">
-        <v>22.8</v>
+        <v>21.3</v>
       </c>
       <c r="F171" t="n">
-        <v>69008.9826</v>
+        <v>27008.7696</v>
       </c>
       <c r="G171" t="n">
-        <v>-9523.655949777087</v>
+        <v>-650518.5874372997</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
@@ -6546,9 +6812,11 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>23</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+        <v>21.3</v>
+      </c>
+      <c r="K171" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6557,28 +6825,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>22.7</v>
+        <v>21.3</v>
       </c>
       <c r="C172" t="n">
-        <v>23.6</v>
+        <v>20.9</v>
       </c>
       <c r="D172" t="n">
-        <v>23.6</v>
+        <v>21.3</v>
       </c>
       <c r="E172" t="n">
-        <v>22.7</v>
+        <v>20.9</v>
       </c>
       <c r="F172" t="n">
-        <v>63249.71</v>
+        <v>128355.461</v>
       </c>
       <c r="G172" t="n">
-        <v>53726.05405022291</v>
+        <v>-778874.0484372997</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
@@ -6587,9 +6856,11 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+        <v>21.5</v>
+      </c>
+      <c r="K172" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6598,28 +6869,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>23.6</v>
+        <v>21.4</v>
       </c>
       <c r="C173" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="D173" t="n">
-        <v>23.6</v>
+        <v>21.5</v>
       </c>
       <c r="E173" t="n">
-        <v>22.6</v>
+        <v>21.2</v>
       </c>
       <c r="F173" t="n">
-        <v>6199.0817</v>
+        <v>57378</v>
       </c>
       <c r="G173" t="n">
-        <v>47526.97235022291</v>
+        <v>-721496.0484372997</v>
       </c>
       <c r="H173" t="n">
         <v>1</v>
@@ -6628,9 +6900,11 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+        <v>20.9</v>
+      </c>
+      <c r="K173" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6639,28 +6913,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>22.7</v>
+        <v>21.5</v>
       </c>
       <c r="C174" t="n">
-        <v>22.6</v>
+        <v>21.9</v>
       </c>
       <c r="D174" t="n">
-        <v>22.7</v>
+        <v>21.9</v>
       </c>
       <c r="E174" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="F174" t="n">
-        <v>92878.4148</v>
+        <v>20986.6069</v>
       </c>
       <c r="G174" t="n">
-        <v>47526.97235022291</v>
+        <v>-700509.4415372997</v>
       </c>
       <c r="H174" t="n">
         <v>1</v>
@@ -6669,9 +6944,11 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+        <v>21.5</v>
+      </c>
+      <c r="K174" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6680,28 +6957,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="C175" t="n">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="D175" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="E175" t="n">
-        <v>22.5</v>
+        <v>21.4</v>
       </c>
       <c r="F175" t="n">
-        <v>52104.2478</v>
+        <v>24162.3251</v>
       </c>
       <c r="G175" t="n">
-        <v>-4577.275449777087</v>
+        <v>-724671.7666372997</v>
       </c>
       <c r="H175" t="n">
         <v>1</v>
@@ -6710,9 +6988,11 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+        <v>21.9</v>
+      </c>
+      <c r="K175" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6721,28 +7001,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>22.6</v>
+        <v>21.7</v>
       </c>
       <c r="C176" t="n">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="D176" t="n">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="E176" t="n">
-        <v>22.6</v>
+        <v>21.4</v>
       </c>
       <c r="F176" t="n">
-        <v>1924.16</v>
+        <v>341949.3738</v>
       </c>
       <c r="G176" t="n">
-        <v>-2653.115449777088</v>
+        <v>-382722.3928372997</v>
       </c>
       <c r="H176" t="n">
         <v>1</v>
@@ -6751,9 +7032,11 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
+        <v>21.5</v>
+      </c>
+      <c r="K176" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6762,28 +7045,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>22.5</v>
+        <v>21.4</v>
       </c>
       <c r="C177" t="n">
-        <v>22.5</v>
+        <v>21.6</v>
       </c>
       <c r="D177" t="n">
-        <v>22.5</v>
+        <v>21.8</v>
       </c>
       <c r="E177" t="n">
-        <v>22.5</v>
+        <v>21.3</v>
       </c>
       <c r="F177" t="n">
-        <v>15260.1765</v>
+        <v>112044.238</v>
       </c>
       <c r="G177" t="n">
-        <v>-17913.29194977709</v>
+        <v>-494766.6308372997</v>
       </c>
       <c r="H177" t="n">
         <v>1</v>
@@ -6792,9 +7076,11 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+        <v>22.2</v>
+      </c>
+      <c r="K177" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6803,39 +7089,40 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>22.5</v>
+        <v>21.6</v>
       </c>
       <c r="C178" t="n">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="D178" t="n">
-        <v>22.5</v>
+        <v>21.6</v>
       </c>
       <c r="E178" t="n">
-        <v>22.5</v>
+        <v>21.3</v>
       </c>
       <c r="F178" t="n">
-        <v>21712.15</v>
+        <v>36484.6072</v>
       </c>
       <c r="G178" t="n">
-        <v>-17913.29194977709</v>
+        <v>-531251.2380372997</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6844,28 +7131,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="C179" t="n">
-        <v>22.5</v>
+        <v>21.3</v>
       </c>
       <c r="D179" t="n">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="E179" t="n">
-        <v>22.5</v>
+        <v>21.3</v>
       </c>
       <c r="F179" t="n">
-        <v>49665.2447</v>
+        <v>17900.7393</v>
       </c>
       <c r="G179" t="n">
-        <v>-17913.29194977709</v>
+        <v>-549151.9773372997</v>
       </c>
       <c r="H179" t="n">
         <v>1</v>
@@ -6874,9 +7162,11 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+        <v>21.5</v>
+      </c>
+      <c r="K179" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,28 +7175,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>22.5</v>
+        <v>21.3</v>
       </c>
       <c r="C180" t="n">
-        <v>22.5</v>
+        <v>21.4</v>
       </c>
       <c r="D180" t="n">
-        <v>22.5</v>
+        <v>21.4</v>
       </c>
       <c r="E180" t="n">
-        <v>22.5</v>
+        <v>21.3</v>
       </c>
       <c r="F180" t="n">
-        <v>3672.6787</v>
+        <v>39762.6253</v>
       </c>
       <c r="G180" t="n">
-        <v>-17913.29194977709</v>
+        <v>-509389.3520372997</v>
       </c>
       <c r="H180" t="n">
         <v>1</v>
@@ -6915,9 +7206,11 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+        <v>21.3</v>
+      </c>
+      <c r="K180" t="n">
+        <v>22.4</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6926,1678 +7219,7 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="C181" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D181" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="E181" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F181" t="n">
-        <v>91167.12390000001</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-109080.4158497771</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="C182" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D182" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="E182" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F182" t="n">
-        <v>6309.9502</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-109080.4158497771</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="C183" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="D183" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E183" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F183" t="n">
-        <v>15118.1871</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-93962.22874977709</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="C184" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D184" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E184" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F184" t="n">
-        <v>74214.6633</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-168176.8920497771</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="C185" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D185" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E185" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F185" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-168176.8920497771</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="C186" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D186" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="E186" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F186" t="n">
-        <v>76261.1091</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-244438.0011497771</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>22</v>
-      </c>
-      <c r="C187" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D187" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E187" t="n">
-        <v>22</v>
-      </c>
-      <c r="F187" t="n">
-        <v>6104</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-238334.0011497771</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C188" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D188" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E188" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F188" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-250334.0011497771</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C189" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D189" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E189" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F189" t="n">
-        <v>9051.290000000001</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-250334.0011497771</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C190" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D190" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E190" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F190" t="n">
-        <v>4625.3513</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C191" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D191" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E191" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F191" t="n">
-        <v>32522.9555</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C192" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D192" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E192" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F192" t="n">
-        <v>99358.8848</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C193" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D193" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E193" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F193" t="n">
-        <v>9546.8359</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C194" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="D194" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="E194" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F194" t="n">
-        <v>37069</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-217890.3524497771</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F195" t="n">
-        <v>134717.8591</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-352608.2115497771</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C196" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D196" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E196" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F196" t="n">
-        <v>301385.5773</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-653993.7888497771</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C197" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D197" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E197" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F197" t="n">
-        <v>99179.465</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-753173.253849777</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C198" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D198" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="E198" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F198" t="n">
-        <v>139822.9929</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-892996.2467497771</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C199" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D199" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E199" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F199" t="n">
-        <v>164877.7666319249</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-728118.4801178522</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C200" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D200" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E200" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F200" t="n">
-        <v>4321.6193</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-723796.8608178522</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C201" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D201" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E201" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F201" t="n">
-        <v>7712.4107</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-723796.8608178522</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C202" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D202" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E202" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F202" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-708796.8608178522</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C203" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D203" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E203" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F203" t="n">
-        <v>578.3143</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-708218.5465178522</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C204" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="D204" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E204" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F204" t="n">
-        <v>45690.53853911111</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-662528.0079787411</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="C205" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D205" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E205" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="F205" t="n">
-        <v>573.1765</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-663101.184478741</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="C206" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D206" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E206" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F206" t="n">
-        <v>18699.9332</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-681801.117678741</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="C207" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D207" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E207" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="F207" t="n">
-        <v>35761.44144144144</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-646039.6762372996</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C208" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D208" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E208" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F208" t="n">
-        <v>13136.8621</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-659176.5383372996</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C209" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D209" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E209" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1375.7365</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-657800.8018372996</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C210" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D210" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E210" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F210" t="n">
-        <v>9113.1088</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-657800.8018372996</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C211" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D211" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E211" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F211" t="n">
-        <v>209.417</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-658010.2188372996</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C212" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D212" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E212" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F212" t="n">
-        <v>19517.1382</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-677527.3570372997</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C213" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D213" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E213" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F213" t="n">
-        <v>27008.7696</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-650518.5874372997</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C214" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D214" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E214" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F214" t="n">
-        <v>128355.461</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-778874.0484372997</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C215" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D215" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E215" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F215" t="n">
-        <v>57378</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-721496.0484372997</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C216" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D216" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E216" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F216" t="n">
-        <v>20986.6069</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-700509.4415372997</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C217" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D217" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E217" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F217" t="n">
-        <v>24162.3251</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-724671.7666372997</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C218" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D218" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E218" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F218" t="n">
-        <v>341949.3738</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-382722.3928372997</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C219" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D219" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E219" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F219" t="n">
-        <v>112044.238</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-494766.6308372997</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C220" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D220" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E220" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F220" t="n">
-        <v>36484.6072</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-531251.2380372997</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C221" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D221" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E221" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F221" t="n">
-        <v>17900.7393</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-549151.9773372997</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C222" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D222" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E222" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F222" t="n">
-        <v>39762.6253</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-509389.3520372997</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
+      <c r="N180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-14 BackTest OGO.xlsx
+++ b/BackTest/2019-11-14 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>522016.4879</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>522016.4879</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>24.4</v>
@@ -521,7 +521,7 @@
         <v>589359.7571</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>24.4</v>
@@ -562,9 +562,11 @@
         <v>732289.0519657588</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25.1</v>
+      </c>
       <c r="J5" t="n">
         <v>24.4</v>
       </c>
@@ -601,11 +603,19 @@
         <v>1127137.859033708</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -637,8 +647,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,11 +683,17 @@
         <v>1207484.6209</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -700,11 +722,17 @@
         <v>1132746.3363</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -733,11 +761,17 @@
         <v>1070746.3363</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -769,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -802,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -835,8 +881,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,11 +917,17 @@
         <v>1055801.9071</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -901,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -934,8 +998,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -967,8 +1037,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1000,8 +1076,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1033,8 +1115,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1066,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1099,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,13 +1229,19 @@
         <v>1034179.3411</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.9990983606557376</v>
       </c>
       <c r="M22" t="inlineStr"/>
     </row>
@@ -1162,7 +1268,7 @@
         <v>849332.8214</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1195,7 +1301,7 @@
         <v>851010.9714</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1228,7 +1334,7 @@
         <v>827076.4814</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1261,7 +1367,7 @@
         <v>828507.1314000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1294,7 +1400,7 @@
         <v>824719.2518000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1327,7 +1433,7 @@
         <v>788911.7869000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1360,7 +1466,7 @@
         <v>788961.7869000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1393,7 +1499,7 @@
         <v>788138.7867000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1426,7 +1532,7 @@
         <v>803571.444</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1459,7 +1565,7 @@
         <v>758958.944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1492,7 +1598,7 @@
         <v>782888.3304</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1525,7 +1631,7 @@
         <v>782310.5236</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1558,7 +1664,7 @@
         <v>782331.7108</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1591,7 +1697,7 @@
         <v>803023.1664</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1624,7 +1730,7 @@
         <v>793742.1664</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1657,7 +1763,7 @@
         <v>793742.1664</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1690,7 +1796,7 @@
         <v>714449.8537</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1723,7 +1829,7 @@
         <v>714633.8537</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1756,7 +1862,7 @@
         <v>715133.8537</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1789,7 +1895,7 @@
         <v>715133.8537</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1855,7 +1961,7 @@
         <v>710164.3304</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1888,7 +1994,7 @@
         <v>735427.3304</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1921,7 +2027,7 @@
         <v>735427.3304</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1954,7 +2060,7 @@
         <v>729427.3304</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1987,7 +2093,7 @@
         <v>729427.3304</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2020,7 +2126,7 @@
         <v>729427.3304</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2053,7 +2159,7 @@
         <v>729427.3304</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2086,7 +2192,7 @@
         <v>729427.3304</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2119,7 +2225,7 @@
         <v>717161.0303999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2152,7 +2258,7 @@
         <v>725642.6765999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2185,7 +2291,7 @@
         <v>725642.6765999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2218,7 +2324,7 @@
         <v>717621.6765999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2251,7 +2357,7 @@
         <v>717621.6765999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2284,7 +2390,7 @@
         <v>717709.7763999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2317,7 +2423,7 @@
         <v>717643.7763999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2350,7 +2456,7 @@
         <v>720976.7763999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2383,7 +2489,7 @@
         <v>743077.5865999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2416,7 +2522,7 @@
         <v>703357.3165999998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2449,7 +2555,7 @@
         <v>707379.3165999998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2482,7 +2588,7 @@
         <v>707273.5468999998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2621,7 @@
         <v>703283.0002999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2654,7 @@
         <v>704370.4033999998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2687,7 @@
         <v>704070.4033999998</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2720,7 @@
         <v>704174.6612999998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2753,7 @@
         <v>700772.8412999999</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2786,7 @@
         <v>700794.8412999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2819,7 @@
         <v>700745.5087999998</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +2852,7 @@
         <v>700745.5087999998</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +2885,7 @@
         <v>700078.3287999998</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +2918,7 @@
         <v>700078.3287999998</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +2951,7 @@
         <v>691722.8487999998</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +2984,7 @@
         <v>619867.5772999998</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +3017,7 @@
         <v>623867.5772999998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +3050,7 @@
         <v>623867.5772999998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +3083,7 @@
         <v>639667.5772999998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +3116,7 @@
         <v>642188.5680999998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3149,7 @@
         <v>642188.5680999998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3076,7 +3182,7 @@
         <v>642188.5680999998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3109,7 +3215,7 @@
         <v>644502.5680999998</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3142,7 +3248,7 @@
         <v>652701.5680999998</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3175,7 +3281,7 @@
         <v>652763.3131999997</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3208,7 +3314,7 @@
         <v>640606.7678999997</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3241,7 +3347,7 @@
         <v>612015.4108999998</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3274,7 +3380,7 @@
         <v>612015.4108999998</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3307,7 +3413,7 @@
         <v>609038.8898999998</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3340,7 +3446,7 @@
         <v>609038.8898999998</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3373,7 +3479,7 @@
         <v>616440.3733999998</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3406,7 +3512,7 @@
         <v>616439.0833999998</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3439,7 +3545,7 @@
         <v>615553.0833999998</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3472,7 +3578,7 @@
         <v>616303.0833999998</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3505,7 +3611,7 @@
         <v>597501.4033999997</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3538,7 +3644,7 @@
         <v>597748.5556999997</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3571,7 +3677,7 @@
         <v>596063.5848999997</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3604,7 +3710,7 @@
         <v>670512.9738999996</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3637,7 +3743,7 @@
         <v>661599.5325999997</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3670,7 +3776,7 @@
         <v>663703.7342806719</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3703,7 +3809,7 @@
         <v>663274.894280672</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3736,7 +3842,7 @@
         <v>663274.894280672</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3769,7 +3875,7 @@
         <v>665379.0959806719</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3802,7 +3908,7 @@
         <v>665379.0959806719</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3835,7 +3941,7 @@
         <v>671163.173880672</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3868,7 +3974,7 @@
         <v>646898.351580672</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3901,7 +4007,7 @@
         <v>646898.351580672</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3934,7 +4040,7 @@
         <v>642686.977480672</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3967,7 +4073,7 @@
         <v>642686.977480672</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4000,7 +4106,7 @@
         <v>642686.977480672</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4033,7 +4139,7 @@
         <v>642686.977480672</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4066,7 +4172,7 @@
         <v>625748.8982806719</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4099,7 +4205,7 @@
         <v>272984.9792806719</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4132,7 +4238,7 @@
         <v>276984.9792806719</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4165,7 +4271,7 @@
         <v>276984.9792806719</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4198,7 +4304,7 @@
         <v>276984.9792806719</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4231,7 +4337,7 @@
         <v>276984.9792806719</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4264,7 +4370,7 @@
         <v>326869.1403806719</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4403,7 @@
         <v>323043.9426806719</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4436,7 @@
         <v>323043.9426806719</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4363,7 +4469,7 @@
         <v>313786.0567806719</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4396,7 +4502,7 @@
         <v>329431.0567806719</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4429,7 +4535,7 @@
         <v>329431.0567806719</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4462,7 +4568,7 @@
         <v>329431.0567806719</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4495,7 +4601,7 @@
         <v>329431.0567806719</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4528,7 +4634,7 @@
         <v>329431.0567806719</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4594,7 +4700,7 @@
         <v>312241.0567806719</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4726,7 +4832,7 @@
         <v>329785.1734806719</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4759,7 +4865,7 @@
         <v>329785.1734806719</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4792,7 +4898,7 @@
         <v>338096.1734806719</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4825,7 +4931,7 @@
         <v>338096.1734806719</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4858,7 +4964,7 @@
         <v>337522.367680672</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4891,7 +4997,7 @@
         <v>337544.367680672</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4924,7 +5030,7 @@
         <v>337544.367680672</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4990,7 +5096,7 @@
         <v>351679.367680672</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5023,7 +5129,7 @@
         <v>310917.778780672</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5056,7 +5162,7 @@
         <v>408152.4164005067</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5089,7 +5195,7 @@
         <v>450749.008713867</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5122,7 +5228,7 @@
         <v>382144.768213867</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5155,7 +5261,7 @@
         <v>363117.523413867</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5188,7 +5294,7 @@
         <v>354669.753413867</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5254,7 +5360,7 @@
         <v>326669.753413867</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5287,7 +5393,7 @@
         <v>326669.753413867</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5320,7 +5426,7 @@
         <v>350334.283413867</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5353,7 +5459,7 @@
         <v>350334.283413867</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5386,7 +5492,7 @@
         <v>349446.509913867</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5485,7 +5591,7 @@
         <v>362965.332013867</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5518,7 +5624,7 @@
         <v>316594.112013867</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -7267,14 +7373,10 @@
         <v>-17913.29194977709</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J208" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7304,19 +7406,11 @@
         <v>-17913.29194977709</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J209" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7345,19 +7439,11 @@
         <v>-109080.4158497771</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J210" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7386,14 +7472,10 @@
         <v>-109080.4158497771</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="J211" t="n">
-        <v>22.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7423,19 +7505,11 @@
         <v>-93962.22874977709</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="J212" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7464,919 +7538,747 @@
         <v>-168176.8920497771</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
         <v>22.5</v>
       </c>
-      <c r="J213" t="n">
+      <c r="C214" t="n">
         <v>22.4</v>
       </c>
-      <c r="K213" t="inlineStr">
+      <c r="D214" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E214" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F214" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-168176.8920497771</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C215" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D215" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E215" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>76261.1091</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-244438.0011497771</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>22</v>
+      </c>
+      <c r="C216" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D216" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E216" t="n">
+        <v>22</v>
+      </c>
+      <c r="F216" t="n">
+        <v>6104</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-238334.0011497771</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C217" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D217" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E217" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F217" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-250334.0011497771</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C218" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D218" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E218" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F218" t="n">
+        <v>9051.290000000001</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-250334.0011497771</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C219" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E219" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F219" t="n">
+        <v>4625.3513</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-254959.3524497771</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C220" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E220" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F220" t="n">
+        <v>32522.9555</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-254959.3524497771</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C221" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E221" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F221" t="n">
+        <v>99358.8848</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-254959.3524497771</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C222" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D222" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E222" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F222" t="n">
+        <v>9546.8359</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-254959.3524497771</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C223" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E223" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F223" t="n">
+        <v>37069</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-217890.3524497771</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C224" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D224" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E224" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F224" t="n">
+        <v>134717.8591</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-352608.2115497771</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C225" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D225" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E225" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F225" t="n">
+        <v>301385.5773</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-653993.7888497771</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C226" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D226" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E226" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F226" t="n">
+        <v>99179.465</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-753173.253849777</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C227" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F227" t="n">
+        <v>139822.9929</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-892996.2467497771</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D228" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E228" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>164877.7666319249</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-728118.4801178522</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C229" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D229" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E229" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F229" t="n">
+        <v>4321.6193</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-723796.8608178522</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C230" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D230" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E230" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F230" t="n">
+        <v>7712.4107</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-723796.8608178522</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-708796.8608178522</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C232" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D232" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E232" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F232" t="n">
+        <v>578.3143</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-708218.5465178522</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C233" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E233" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>45690.53853911111</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-662528.0079787411</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C234" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D234" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E234" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F234" t="n">
+        <v>573.1765</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-663101.184478741</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J234" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C235" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D235" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F235" t="n">
+        <v>18699.9332</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-681801.117678741</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="C214" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D214" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E214" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F214" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-168176.8920497771</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="J214" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="C215" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D215" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="E215" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F215" t="n">
-        <v>76261.1091</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-244438.0011497771</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="J215" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>22</v>
-      </c>
-      <c r="C216" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D216" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E216" t="n">
-        <v>22</v>
-      </c>
-      <c r="F216" t="n">
-        <v>6104</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-238334.0011497771</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J216" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C217" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D217" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E217" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F217" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-250334.0011497771</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J217" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C218" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D218" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E218" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F218" t="n">
-        <v>9051.290000000001</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-250334.0011497771</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C219" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D219" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E219" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F219" t="n">
-        <v>4625.3513</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="J219" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C220" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D220" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E220" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F220" t="n">
-        <v>32522.9555</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J220" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C221" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D221" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E221" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F221" t="n">
-        <v>99358.8848</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J221" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C222" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D222" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E222" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F222" t="n">
-        <v>9546.8359</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J222" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C223" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="D223" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="E223" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F223" t="n">
-        <v>37069</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-217890.3524497771</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J223" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C224" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D224" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E224" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F224" t="n">
-        <v>134717.8591</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-352608.2115497771</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="J224" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C225" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D225" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E225" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F225" t="n">
-        <v>301385.5773</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-653993.7888497771</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="J225" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C226" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D226" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E226" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F226" t="n">
-        <v>99179.465</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-753173.253849777</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J226" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C227" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="E227" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F227" t="n">
-        <v>139822.9929</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-892996.2467497771</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="J227" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C228" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D228" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E228" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F228" t="n">
-        <v>164877.7666319249</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-728118.4801178522</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J228" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C229" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D229" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E229" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F229" t="n">
-        <v>4321.6193</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-723796.8608178522</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="J229" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F230" t="n">
-        <v>7712.4107</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-723796.8608178522</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J230" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C231" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D231" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-708796.8608178522</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J231" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C232" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D232" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E232" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F232" t="n">
-        <v>578.3143</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-708218.5465178522</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J232" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C233" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="D233" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E233" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F233" t="n">
-        <v>45690.53853911111</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-662528.0079787411</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J233" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="C234" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D234" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E234" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="F234" t="n">
-        <v>573.1765</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-663101.184478741</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J234" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="C235" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D235" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E235" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F235" t="n">
-        <v>18699.9332</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-681801.117678741</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="J235" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8405,13 +8307,11 @@
         <v>-646039.6762372996</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8450,7 +8350,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8485,13 +8385,13 @@
         <v>-657800.8018372996</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>21.4</v>
       </c>
       <c r="J238" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8526,13 +8426,13 @@
         <v>-657800.8018372996</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>21.6</v>
       </c>
       <c r="J239" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8567,13 +8467,13 @@
         <v>-658010.2188372996</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>21.6</v>
       </c>
       <c r="J240" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8608,13 +8508,13 @@
         <v>-677527.3570372997</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>21.5</v>
       </c>
       <c r="J241" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8649,13 +8549,13 @@
         <v>-650518.5874372997</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>21.3</v>
       </c>
       <c r="J242" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8690,13 +8590,13 @@
         <v>-778874.0484372997</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>21.5</v>
       </c>
       <c r="J243" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8731,13 +8631,13 @@
         <v>-721496.0484372997</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>20.9</v>
       </c>
       <c r="J244" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8772,13 +8672,13 @@
         <v>-700509.4415372997</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>21.5</v>
       </c>
       <c r="J245" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8813,11 +8713,13 @@
         <v>-724671.7666372997</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>21.9</v>
+      </c>
       <c r="J246" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8852,13 +8754,13 @@
         <v>-382722.3928372997</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>21.5</v>
       </c>
       <c r="J247" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8897,7 +8799,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8936,7 +8838,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8975,7 +8877,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9014,7 +8916,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9027,6 +8929,6 @@
       <c r="M251" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest OGO.xlsx
+++ b/BackTest/2019-11-14 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>522016.4879</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>522016.4879</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>589359.7571</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>732289.0519657588</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>1127137.859033708</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -647,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -686,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -725,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -764,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -803,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -842,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -881,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -920,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -959,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -998,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1154,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1229,19 +1111,13 @@
         <v>1034179.3411</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.9990983606557376</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
     </row>
@@ -1268,7 +1144,7 @@
         <v>849332.8214</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1301,7 +1177,7 @@
         <v>851010.9714</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1334,7 +1210,7 @@
         <v>827076.4814</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1367,7 +1243,7 @@
         <v>828507.1314000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1400,7 +1276,7 @@
         <v>824719.2518000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1532,7 +1408,7 @@
         <v>803571.444</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1565,7 +1441,7 @@
         <v>758958.944</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1598,7 +1474,7 @@
         <v>782888.3304</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1631,7 +1507,7 @@
         <v>782310.5236</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1829,7 +1705,7 @@
         <v>714633.8537</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1862,7 +1738,7 @@
         <v>715133.8537</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1895,7 +1771,7 @@
         <v>715133.8537</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1961,7 +1837,7 @@
         <v>710164.3304</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1994,7 +1870,7 @@
         <v>735427.3304</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2027,7 +1903,7 @@
         <v>735427.3304</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2060,7 +1936,7 @@
         <v>729427.3304</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2093,7 +1969,7 @@
         <v>729427.3304</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2126,7 +2002,7 @@
         <v>729427.3304</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2159,7 +2035,7 @@
         <v>729427.3304</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2192,7 +2068,7 @@
         <v>729427.3304</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2225,7 +2101,7 @@
         <v>717161.0303999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2258,7 +2134,7 @@
         <v>725642.6765999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2291,7 +2167,7 @@
         <v>725642.6765999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2324,7 +2200,7 @@
         <v>717621.6765999999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2357,7 +2233,7 @@
         <v>717621.6765999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2390,7 +2266,7 @@
         <v>717709.7763999999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2423,7 +2299,7 @@
         <v>717643.7763999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2456,7 +2332,7 @@
         <v>720976.7763999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2489,7 +2365,7 @@
         <v>743077.5865999998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2522,7 +2398,7 @@
         <v>703357.3165999998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2555,7 +2431,7 @@
         <v>707379.3165999998</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2588,7 +2464,7 @@
         <v>707273.5468999998</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2621,7 +2497,7 @@
         <v>703283.0002999998</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2654,7 +2530,7 @@
         <v>704370.4033999998</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2687,7 +2563,7 @@
         <v>704070.4033999998</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2720,7 +2596,7 @@
         <v>704174.6612999998</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2753,7 +2629,7 @@
         <v>700772.8412999999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2786,7 +2662,7 @@
         <v>700794.8412999999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2819,7 +2695,7 @@
         <v>700745.5087999998</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2852,7 +2728,7 @@
         <v>700745.5087999998</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2885,7 +2761,7 @@
         <v>700078.3287999998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2918,7 +2794,7 @@
         <v>700078.3287999998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2951,7 +2827,7 @@
         <v>691722.8487999998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2984,7 +2860,7 @@
         <v>619867.5772999998</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3017,7 +2893,7 @@
         <v>623867.5772999998</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3050,7 +2926,7 @@
         <v>623867.5772999998</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3083,7 +2959,7 @@
         <v>639667.5772999998</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3116,7 +2992,7 @@
         <v>642188.5680999998</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3149,7 +3025,7 @@
         <v>642188.5680999998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3182,7 +3058,7 @@
         <v>642188.5680999998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3215,7 +3091,7 @@
         <v>644502.5680999998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3248,7 +3124,7 @@
         <v>652701.5680999998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3281,7 +3157,7 @@
         <v>652763.3131999997</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3314,7 +3190,7 @@
         <v>640606.7678999997</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3347,7 +3223,7 @@
         <v>612015.4108999998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3380,7 +3256,7 @@
         <v>612015.4108999998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3413,7 +3289,7 @@
         <v>609038.8898999998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3446,7 +3322,7 @@
         <v>609038.8898999998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3479,7 +3355,7 @@
         <v>616440.3733999998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3512,7 +3388,7 @@
         <v>616439.0833999998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3545,7 +3421,7 @@
         <v>615553.0833999998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3578,7 +3454,7 @@
         <v>616303.0833999998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3611,7 +3487,7 @@
         <v>597501.4033999997</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3644,7 +3520,7 @@
         <v>597748.5556999997</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3677,7 +3553,7 @@
         <v>596063.5848999997</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3710,7 +3586,7 @@
         <v>670512.9738999996</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3743,7 +3619,7 @@
         <v>661599.5325999997</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3776,7 +3652,7 @@
         <v>663703.7342806719</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3809,7 +3685,7 @@
         <v>663274.894280672</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3842,7 +3718,7 @@
         <v>663274.894280672</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3875,7 +3751,7 @@
         <v>665379.0959806719</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3908,7 +3784,7 @@
         <v>665379.0959806719</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3941,7 +3817,7 @@
         <v>671163.173880672</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3974,7 +3850,7 @@
         <v>646898.351580672</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4007,7 +3883,7 @@
         <v>646898.351580672</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4040,7 +3916,7 @@
         <v>642686.977480672</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4073,7 +3949,7 @@
         <v>642686.977480672</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4106,7 +3982,7 @@
         <v>642686.977480672</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4139,7 +4015,7 @@
         <v>642686.977480672</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4172,7 +4048,7 @@
         <v>625748.8982806719</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4205,7 +4081,7 @@
         <v>272984.9792806719</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4238,7 +4114,7 @@
         <v>276984.9792806719</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4271,7 +4147,7 @@
         <v>276984.9792806719</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4304,7 +4180,7 @@
         <v>276984.9792806719</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4337,7 +4213,7 @@
         <v>276984.9792806719</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4370,7 +4246,7 @@
         <v>326869.1403806719</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4403,7 +4279,7 @@
         <v>323043.9426806719</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4436,7 +4312,7 @@
         <v>323043.9426806719</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4469,7 +4345,7 @@
         <v>313786.0567806719</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4502,7 +4378,7 @@
         <v>329431.0567806719</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4535,7 +4411,7 @@
         <v>329431.0567806719</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4568,7 +4444,7 @@
         <v>329431.0567806719</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4601,7 +4477,7 @@
         <v>329431.0567806719</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4634,7 +4510,7 @@
         <v>329431.0567806719</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4700,7 +4576,7 @@
         <v>312241.0567806719</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4832,7 +4708,7 @@
         <v>329785.1734806719</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4865,7 +4741,7 @@
         <v>329785.1734806719</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4898,7 +4774,7 @@
         <v>338096.1734806719</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4931,7 +4807,7 @@
         <v>338096.1734806719</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4964,7 +4840,7 @@
         <v>337522.367680672</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4997,7 +4873,7 @@
         <v>337544.367680672</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5030,7 +4906,7 @@
         <v>337544.367680672</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5096,7 +4972,7 @@
         <v>351679.367680672</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5129,7 +5005,7 @@
         <v>310917.778780672</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5162,7 +5038,7 @@
         <v>408152.4164005067</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5195,7 +5071,7 @@
         <v>450749.008713867</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5228,7 +5104,7 @@
         <v>382144.768213867</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5294,7 +5170,7 @@
         <v>354669.753413867</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5360,7 +5236,7 @@
         <v>326669.753413867</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5393,7 +5269,7 @@
         <v>326669.753413867</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5426,7 +5302,7 @@
         <v>350334.283413867</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5459,7 +5335,7 @@
         <v>350334.283413867</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5492,7 +5368,7 @@
         <v>349446.509913867</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5591,7 +5467,7 @@
         <v>362965.332013867</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5624,7 +5500,7 @@
         <v>316594.112013867</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -7736,11 +7612,17 @@
         <v>-254959.3524497771</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>21.8</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7769,11 +7651,17 @@
         <v>-254959.3524497771</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>21.6</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7802,11 +7690,17 @@
         <v>-254959.3524497771</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>21.6</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7835,11 +7729,17 @@
         <v>-254959.3524497771</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>21.6</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7868,11 +7768,17 @@
         <v>-217890.3524497771</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>21.6</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7901,11 +7807,17 @@
         <v>-352608.2115497771</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>22.3</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7934,11 +7846,17 @@
         <v>-653993.7888497771</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>21.7</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7971,7 +7889,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8000,11 +7922,17 @@
         <v>-892996.2467497771</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>21.2</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8033,11 +7961,17 @@
         <v>-728118.4801178522</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>21.1</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8066,11 +8000,17 @@
         <v>-723796.8608178522</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>21.2</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8099,11 +8039,17 @@
         <v>-723796.8608178522</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>21.4</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8132,11 +8078,17 @@
         <v>-708796.8608178522</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>21.4</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8165,11 +8117,17 @@
         <v>-708218.5465178522</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>21.5</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8198,11 +8156,17 @@
         <v>-662528.0079787411</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>21.6</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8236,10 +8200,12 @@
       <c r="I234" t="n">
         <v>22.5</v>
       </c>
-      <c r="J234" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8268,15 +8234,15 @@
         <v>-681801.117678741</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>22.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L235" t="n">
@@ -8310,9 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8349,9 +8313,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8385,14 +8347,10 @@
         <v>-657800.8018372996</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J238" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8431,9 +8389,7 @@
       <c r="I239" t="n">
         <v>21.6</v>
       </c>
-      <c r="J239" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8472,9 +8428,7 @@
       <c r="I240" t="n">
         <v>21.6</v>
       </c>
-      <c r="J240" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8513,9 +8467,7 @@
       <c r="I241" t="n">
         <v>21.5</v>
       </c>
-      <c r="J241" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8554,9 +8506,7 @@
       <c r="I242" t="n">
         <v>21.3</v>
       </c>
-      <c r="J242" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8595,9 +8545,7 @@
       <c r="I243" t="n">
         <v>21.5</v>
       </c>
-      <c r="J243" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8636,9 +8584,7 @@
       <c r="I244" t="n">
         <v>20.9</v>
       </c>
-      <c r="J244" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8677,9 +8623,7 @@
       <c r="I245" t="n">
         <v>21.5</v>
       </c>
-      <c r="J245" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8718,9 +8662,7 @@
       <c r="I246" t="n">
         <v>21.9</v>
       </c>
-      <c r="J246" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8754,14 +8696,10 @@
         <v>-382722.3928372997</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J247" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8798,9 +8736,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8837,9 +8773,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8876,9 +8810,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8915,9 +8847,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8929,6 +8859,6 @@
       <c r="M251" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest OGO.xlsx
+++ b/BackTest/2019-11-14 BackTest OGO.xlsx
@@ -451,7 +451,7 @@
         <v>522016.4879</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>522016.4879</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24.4</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +563,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -616,7 +632,7 @@
         <v>1207484.6209</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +665,7 @@
         <v>1207484.6209</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +698,7 @@
         <v>1132746.3363</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +731,7 @@
         <v>1070746.3363</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +764,7 @@
         <v>1070746.3363</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +863,7 @@
         <v>1055801.9071</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +896,7 @@
         <v>1118100.1411</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +929,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +962,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1028,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1061,7 @@
         <v>1031702.3411</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1127,7 @@
         <v>1034179.3411</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1160,7 @@
         <v>849332.8214</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1309,7 +1325,7 @@
         <v>788911.7869000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1358,7 @@
         <v>788961.7869000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1391,7 @@
         <v>788138.7867000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1540,7 +1556,7 @@
         <v>782331.7108</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1589,7 @@
         <v>803023.1664</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1622,7 @@
         <v>793742.1664</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1655,7 @@
         <v>793742.1664</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1688,7 @@
         <v>714449.8537</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -7612,1099 +7628,963 @@
         <v>-254959.3524497771</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C220" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E220" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F220" t="n">
+        <v>32522.9555</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-254959.3524497771</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C221" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E221" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F221" t="n">
+        <v>99358.8848</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-254959.3524497771</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C222" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D222" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E222" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F222" t="n">
+        <v>9546.8359</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-254959.3524497771</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C223" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E223" t="n">
         <v>21.8</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
+      <c r="F223" t="n">
+        <v>37069</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-217890.3524497771</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C224" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D224" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E224" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F224" t="n">
+        <v>134717.8591</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-352608.2115497771</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C225" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D225" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E225" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F225" t="n">
+        <v>301385.5773</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-653993.7888497771</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C226" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D226" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E226" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F226" t="n">
+        <v>99179.465</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-753173.253849777</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C227" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F227" t="n">
+        <v>139822.9929</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-892996.2467497771</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D228" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E228" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>164877.7666319249</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-728118.4801178522</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C229" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D229" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E229" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F229" t="n">
+        <v>4321.6193</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-723796.8608178522</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C230" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D230" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E230" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F230" t="n">
+        <v>7712.4107</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-723796.8608178522</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-708796.8608178522</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C232" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D232" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E232" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F232" t="n">
+        <v>578.3143</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-708218.5465178522</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C233" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E233" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>45690.53853911111</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-662528.0079787411</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C234" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D234" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E234" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F234" t="n">
+        <v>573.1765</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-663101.184478741</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C235" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D235" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F235" t="n">
+        <v>18699.9332</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-681801.117678741</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C236" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E236" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>35761.44144144144</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-646039.6762372996</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C237" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D237" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E237" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F237" t="n">
+        <v>13136.8621</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-659176.5383372996</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C238" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D238" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E238" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1375.7365</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-657800.8018372996</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C239" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D239" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E239" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F239" t="n">
+        <v>9113.1088</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-657800.8018372996</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C240" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D240" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E240" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F240" t="n">
+        <v>209.417</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-658010.2188372996</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C241" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D241" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E241" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F241" t="n">
+        <v>19517.1382</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-677527.3570372997</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C242" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D242" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E242" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F242" t="n">
+        <v>27008.7696</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-650518.5874372997</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C243" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D243" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E243" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F243" t="n">
+        <v>128355.461</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-778874.0484372997</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C244" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D244" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E244" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F244" t="n">
+        <v>57378</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-721496.0484372997</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J244" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D245" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E245" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F245" t="n">
+        <v>20986.6069</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-700509.4415372997</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J245" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C246" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D246" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E246" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F246" t="n">
+        <v>24162.3251</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-724671.7666372997</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="J246" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C247" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F247" t="n">
+        <v>341949.3738</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-382722.3928372997</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J247" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C220" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D220" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E220" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F220" t="n">
-        <v>32522.9555</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C221" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D221" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E221" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F221" t="n">
-        <v>99358.8848</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C222" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D222" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E222" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F222" t="n">
-        <v>9546.8359</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-254959.3524497771</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C223" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="D223" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="E223" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F223" t="n">
-        <v>37069</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-217890.3524497771</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C224" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D224" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E224" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F224" t="n">
-        <v>134717.8591</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-352608.2115497771</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C225" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D225" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E225" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F225" t="n">
-        <v>301385.5773</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-653993.7888497771</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C226" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D226" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E226" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F226" t="n">
-        <v>99179.465</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-753173.253849777</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C227" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="E227" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F227" t="n">
-        <v>139822.9929</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-892996.2467497771</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C228" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D228" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E228" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F228" t="n">
-        <v>164877.7666319249</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-728118.4801178522</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C229" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D229" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E229" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F229" t="n">
-        <v>4321.6193</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-723796.8608178522</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F230" t="n">
-        <v>7712.4107</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-723796.8608178522</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C231" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D231" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-708796.8608178522</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C232" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D232" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E232" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F232" t="n">
-        <v>578.3143</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-708218.5465178522</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C233" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="D233" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E233" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F233" t="n">
-        <v>45690.53853911111</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-662528.0079787411</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="C234" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D234" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E234" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="F234" t="n">
-        <v>573.1765</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-663101.184478741</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="C235" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D235" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E235" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F235" t="n">
-        <v>18699.9332</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-681801.117678741</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="C236" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D236" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E236" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="F236" t="n">
-        <v>35761.44144144144</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-646039.6762372996</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C237" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D237" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E237" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F237" t="n">
-        <v>13136.8621</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-659176.5383372996</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C238" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D238" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E238" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F238" t="n">
-        <v>1375.7365</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-657800.8018372996</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C239" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D239" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E239" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F239" t="n">
-        <v>9113.1088</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-657800.8018372996</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C240" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D240" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E240" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F240" t="n">
-        <v>209.417</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-658010.2188372996</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C241" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D241" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F241" t="n">
-        <v>19517.1382</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-677527.3570372997</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C242" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D242" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E242" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F242" t="n">
-        <v>27008.7696</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-650518.5874372997</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C243" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D243" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E243" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F243" t="n">
-        <v>128355.461</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-778874.0484372997</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C244" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D244" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E244" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F244" t="n">
-        <v>57378</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-721496.0484372997</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C245" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D245" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E245" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F245" t="n">
-        <v>20986.6069</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-700509.4415372997</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C246" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D246" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E246" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F246" t="n">
-        <v>24162.3251</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-724671.7666372997</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C247" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D247" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E247" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F247" t="n">
-        <v>341949.3738</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-382722.3928372997</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8736,7 +8616,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>20.9</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8773,7 +8655,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>20.9</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8810,7 +8694,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>20.9</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8847,7 +8733,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>20.9</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-11-14 BackTest OGO.xlsx
+++ b/BackTest/2019-11-14 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:L251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>287679.0443</v>
       </c>
       <c r="G2" t="n">
-        <v>522016.4879</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>151545.5501</v>
       </c>
       <c r="G3" t="n">
-        <v>522016.4879</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,24 +503,15 @@
         <v>67343.2692</v>
       </c>
       <c r="G4" t="n">
-        <v>589359.7571</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,24 +533,15 @@
         <v>142929.2948657587</v>
       </c>
       <c r="G5" t="n">
-        <v>732289.0519657588</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,18 +563,15 @@
         <v>394848.8070679491</v>
       </c>
       <c r="G6" t="n">
-        <v>1127137.859033708</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,18 +593,15 @@
         <v>80346.76186629213</v>
       </c>
       <c r="G7" t="n">
-        <v>1207484.6209</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -662,18 +623,15 @@
         <v>29403.74647265918</v>
       </c>
       <c r="G8" t="n">
-        <v>1207484.6209</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -695,18 +653,15 @@
         <v>74738.2846</v>
       </c>
       <c r="G9" t="n">
-        <v>1132746.3363</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,18 +683,15 @@
         <v>62000</v>
       </c>
       <c r="G10" t="n">
-        <v>1070746.3363</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -761,18 +713,15 @@
         <v>8370.877399999999</v>
       </c>
       <c r="G11" t="n">
-        <v>1070746.3363</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -794,18 +743,15 @@
         <v>58939.7911</v>
       </c>
       <c r="G12" t="n">
-        <v>1011806.5452</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -827,18 +773,15 @@
         <v>80478.808</v>
       </c>
       <c r="G13" t="n">
-        <v>1092285.3532</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -860,18 +803,15 @@
         <v>36483.4461</v>
       </c>
       <c r="G14" t="n">
-        <v>1055801.9071</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -893,18 +833,15 @@
         <v>62298.234</v>
       </c>
       <c r="G15" t="n">
-        <v>1118100.1411</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -926,18 +863,15 @@
         <v>86397.8</v>
       </c>
       <c r="G16" t="n">
-        <v>1031702.3411</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -959,18 +893,15 @@
         <v>375.66</v>
       </c>
       <c r="G17" t="n">
-        <v>1031702.3411</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -992,18 +923,15 @@
         <v>56000</v>
       </c>
       <c r="G18" t="n">
-        <v>1031702.3411</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1025,18 +953,15 @@
         <v>62667.6892</v>
       </c>
       <c r="G19" t="n">
-        <v>1031702.3411</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1058,18 +983,15 @@
         <v>4000</v>
       </c>
       <c r="G20" t="n">
-        <v>1031702.3411</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1091,18 +1013,15 @@
         <v>2477</v>
       </c>
       <c r="G21" t="n">
-        <v>1034179.3411</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1124,18 +1043,15 @@
         <v>25448.84</v>
       </c>
       <c r="G22" t="n">
-        <v>1034179.3411</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1157,18 +1073,15 @@
         <v>184846.5197</v>
       </c>
       <c r="G23" t="n">
-        <v>849332.8214</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1190,18 +1103,15 @@
         <v>1678.15</v>
       </c>
       <c r="G24" t="n">
-        <v>851010.9714</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1223,18 +1133,15 @@
         <v>23934.49</v>
       </c>
       <c r="G25" t="n">
-        <v>827076.4814</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1256,18 +1163,15 @@
         <v>1430.65</v>
       </c>
       <c r="G26" t="n">
-        <v>828507.1314000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1289,18 +1193,15 @@
         <v>3787.8796</v>
       </c>
       <c r="G27" t="n">
-        <v>824719.2518000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1322,18 +1223,15 @@
         <v>35807.4649</v>
       </c>
       <c r="G28" t="n">
-        <v>788911.7869000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1355,18 +1253,15 @@
         <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>788961.7869000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1388,18 +1283,15 @@
         <v>823.0001999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>788138.7867000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1421,18 +1313,15 @@
         <v>15432.6573</v>
       </c>
       <c r="G31" t="n">
-        <v>803571.444</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1454,18 +1343,15 @@
         <v>44612.5</v>
       </c>
       <c r="G32" t="n">
-        <v>758958.944</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1487,18 +1373,15 @@
         <v>23929.3864</v>
       </c>
       <c r="G33" t="n">
-        <v>782888.3304</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1520,18 +1403,15 @@
         <v>577.8068</v>
       </c>
       <c r="G34" t="n">
-        <v>782310.5236</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1553,18 +1433,15 @@
         <v>21.1872</v>
       </c>
       <c r="G35" t="n">
-        <v>782331.7108</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1586,18 +1463,15 @@
         <v>20691.4556</v>
       </c>
       <c r="G36" t="n">
-        <v>803023.1664</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1619,18 +1493,15 @@
         <v>9281</v>
       </c>
       <c r="G37" t="n">
-        <v>793742.1664</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1652,18 +1523,15 @@
         <v>1400.5241</v>
       </c>
       <c r="G38" t="n">
-        <v>793742.1664</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1685,18 +1553,15 @@
         <v>79292.31269999999</v>
       </c>
       <c r="G39" t="n">
-        <v>714449.8537</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,18 +1583,15 @@
         <v>184</v>
       </c>
       <c r="G40" t="n">
-        <v>714633.8537</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1751,18 +1613,15 @@
         <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>715133.8537</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1784,18 +1643,15 @@
         <v>8239.8017</v>
       </c>
       <c r="G42" t="n">
-        <v>715133.8537</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1817,18 +1673,15 @@
         <v>1210.4337</v>
       </c>
       <c r="G43" t="n">
-        <v>716344.2874</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1850,18 +1703,15 @@
         <v>6179.957</v>
       </c>
       <c r="G44" t="n">
-        <v>710164.3304</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1883,18 +1733,15 @@
         <v>25263</v>
       </c>
       <c r="G45" t="n">
-        <v>735427.3304</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1916,18 +1763,15 @@
         <v>32939.2348</v>
       </c>
       <c r="G46" t="n">
-        <v>735427.3304</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1949,18 +1793,15 @@
         <v>6000</v>
       </c>
       <c r="G47" t="n">
-        <v>729427.3304</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1982,18 +1823,15 @@
         <v>23264.6178</v>
       </c>
       <c r="G48" t="n">
-        <v>729427.3304</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2015,18 +1853,15 @@
         <v>12982.7916</v>
       </c>
       <c r="G49" t="n">
-        <v>729427.3304</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2048,18 +1883,15 @@
         <v>10000</v>
       </c>
       <c r="G50" t="n">
-        <v>729427.3304</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2081,18 +1913,15 @@
         <v>2000</v>
       </c>
       <c r="G51" t="n">
-        <v>729427.3304</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2114,18 +1943,15 @@
         <v>12266.3</v>
       </c>
       <c r="G52" t="n">
-        <v>717161.0303999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2147,18 +1973,15 @@
         <v>8481.646199999999</v>
       </c>
       <c r="G53" t="n">
-        <v>725642.6765999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2180,18 +2003,15 @@
         <v>22</v>
       </c>
       <c r="G54" t="n">
-        <v>725642.6765999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2213,18 +2033,15 @@
         <v>8021</v>
       </c>
       <c r="G55" t="n">
-        <v>717621.6765999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2246,18 +2063,15 @@
         <v>66.0998</v>
       </c>
       <c r="G56" t="n">
-        <v>717621.6765999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2279,18 +2093,15 @@
         <v>88.0998</v>
       </c>
       <c r="G57" t="n">
-        <v>717709.7763999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2312,18 +2123,15 @@
         <v>66</v>
       </c>
       <c r="G58" t="n">
-        <v>717643.7763999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2345,18 +2153,15 @@
         <v>3333</v>
       </c>
       <c r="G59" t="n">
-        <v>720976.7763999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2378,18 +2183,15 @@
         <v>22100.8102</v>
       </c>
       <c r="G60" t="n">
-        <v>743077.5865999998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2411,18 +2213,15 @@
         <v>39720.27</v>
       </c>
       <c r="G61" t="n">
-        <v>703357.3165999998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2444,18 +2243,15 @@
         <v>4022</v>
       </c>
       <c r="G62" t="n">
-        <v>707379.3165999998</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2477,18 +2273,15 @@
         <v>105.7697</v>
       </c>
       <c r="G63" t="n">
-        <v>707273.5468999998</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2510,18 +2303,15 @@
         <v>3990.5466</v>
       </c>
       <c r="G64" t="n">
-        <v>703283.0002999998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2543,18 +2333,15 @@
         <v>1087.4031</v>
       </c>
       <c r="G65" t="n">
-        <v>704370.4033999998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2576,18 +2363,15 @@
         <v>300</v>
       </c>
       <c r="G66" t="n">
-        <v>704070.4033999998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2609,18 +2393,15 @@
         <v>104.2579</v>
       </c>
       <c r="G67" t="n">
-        <v>704174.6612999998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2642,18 +2423,15 @@
         <v>3401.82</v>
       </c>
       <c r="G68" t="n">
-        <v>700772.8412999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2675,18 +2453,15 @@
         <v>22</v>
       </c>
       <c r="G69" t="n">
-        <v>700794.8412999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2708,18 +2483,15 @@
         <v>49.3325</v>
       </c>
       <c r="G70" t="n">
-        <v>700745.5087999998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2741,18 +2513,15 @@
         <v>13421.2831</v>
       </c>
       <c r="G71" t="n">
-        <v>700745.5087999998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2774,18 +2543,15 @@
         <v>667.1799999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>700078.3287999998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2807,18 +2573,15 @@
         <v>6643.0402</v>
       </c>
       <c r="G73" t="n">
-        <v>700078.3287999998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2840,18 +2603,15 @@
         <v>8355.48</v>
       </c>
       <c r="G74" t="n">
-        <v>691722.8487999998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2873,18 +2633,15 @@
         <v>71855.2715</v>
       </c>
       <c r="G75" t="n">
-        <v>619867.5772999998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2906,18 +2663,15 @@
         <v>4000</v>
       </c>
       <c r="G76" t="n">
-        <v>623867.5772999998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2939,18 +2693,15 @@
         <v>12933.858</v>
       </c>
       <c r="G77" t="n">
-        <v>623867.5772999998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2972,18 +2723,15 @@
         <v>15800</v>
       </c>
       <c r="G78" t="n">
-        <v>639667.5772999998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3005,18 +2753,15 @@
         <v>2520.9908</v>
       </c>
       <c r="G79" t="n">
-        <v>642188.5680999998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3038,18 +2783,15 @@
         <v>1263.6385</v>
       </c>
       <c r="G80" t="n">
-        <v>642188.5680999998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3071,18 +2813,15 @@
         <v>3540.997</v>
       </c>
       <c r="G81" t="n">
-        <v>642188.5680999998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3104,18 +2843,15 @@
         <v>2314</v>
       </c>
       <c r="G82" t="n">
-        <v>644502.5680999998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3137,18 +2873,15 @@
         <v>8199</v>
       </c>
       <c r="G83" t="n">
-        <v>652701.5680999998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3170,18 +2903,15 @@
         <v>61.7451</v>
       </c>
       <c r="G84" t="n">
-        <v>652763.3131999997</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3203,18 +2933,15 @@
         <v>12156.5453</v>
       </c>
       <c r="G85" t="n">
-        <v>640606.7678999997</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3236,18 +2963,15 @@
         <v>28591.357</v>
       </c>
       <c r="G86" t="n">
-        <v>612015.4108999998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3269,18 +2993,15 @@
         <v>124</v>
       </c>
       <c r="G87" t="n">
-        <v>612015.4108999998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3302,18 +3023,15 @@
         <v>2976.521</v>
       </c>
       <c r="G88" t="n">
-        <v>609038.8898999998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3335,18 +3053,15 @@
         <v>21502.8999</v>
       </c>
       <c r="G89" t="n">
-        <v>609038.8898999998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3368,18 +3083,15 @@
         <v>7401.4835</v>
       </c>
       <c r="G90" t="n">
-        <v>616440.3733999998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3401,18 +3113,15 @@
         <v>1.29</v>
       </c>
       <c r="G91" t="n">
-        <v>616439.0833999998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3434,18 +3143,15 @@
         <v>886</v>
       </c>
       <c r="G92" t="n">
-        <v>615553.0833999998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3467,18 +3173,15 @@
         <v>750</v>
       </c>
       <c r="G93" t="n">
-        <v>616303.0833999998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3500,18 +3203,15 @@
         <v>18801.68</v>
       </c>
       <c r="G94" t="n">
-        <v>597501.4033999997</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3533,18 +3233,15 @@
         <v>247.1523</v>
       </c>
       <c r="G95" t="n">
-        <v>597748.5556999997</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3566,18 +3263,15 @@
         <v>1684.9708</v>
       </c>
       <c r="G96" t="n">
-        <v>596063.5848999997</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3599,18 +3293,15 @@
         <v>74449.389</v>
       </c>
       <c r="G97" t="n">
-        <v>670512.9738999996</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3632,18 +3323,15 @@
         <v>8913.4413</v>
       </c>
       <c r="G98" t="n">
-        <v>661599.5325999997</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3665,18 +3353,15 @@
         <v>2104.201680672269</v>
       </c>
       <c r="G99" t="n">
-        <v>663703.7342806719</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3698,18 +3383,15 @@
         <v>428.84</v>
       </c>
       <c r="G100" t="n">
-        <v>663274.894280672</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3731,18 +3413,15 @@
         <v>39032.43</v>
       </c>
       <c r="G101" t="n">
-        <v>663274.894280672</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3764,18 +3443,15 @@
         <v>2104.2017</v>
       </c>
       <c r="G102" t="n">
-        <v>665379.0959806719</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3797,18 +3473,15 @@
         <v>36432.299</v>
       </c>
       <c r="G103" t="n">
-        <v>665379.0959806719</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3830,18 +3503,15 @@
         <v>5784.0779</v>
       </c>
       <c r="G104" t="n">
-        <v>671163.173880672</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3863,18 +3533,15 @@
         <v>24264.8223</v>
       </c>
       <c r="G105" t="n">
-        <v>646898.351580672</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3896,18 +3563,15 @@
         <v>43187.412</v>
       </c>
       <c r="G106" t="n">
-        <v>646898.351580672</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3929,18 +3593,15 @@
         <v>4211.3741</v>
       </c>
       <c r="G107" t="n">
-        <v>642686.977480672</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3962,18 +3623,15 @@
         <v>30</v>
       </c>
       <c r="G108" t="n">
-        <v>642686.977480672</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3995,18 +3653,15 @@
         <v>6167.6691</v>
       </c>
       <c r="G109" t="n">
-        <v>642686.977480672</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4028,18 +3683,15 @@
         <v>15005.0429</v>
       </c>
       <c r="G110" t="n">
-        <v>642686.977480672</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4061,18 +3713,15 @@
         <v>16938.0792</v>
       </c>
       <c r="G111" t="n">
-        <v>625748.8982806719</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4094,18 +3743,15 @@
         <v>352763.919</v>
       </c>
       <c r="G112" t="n">
-        <v>272984.9792806719</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4127,18 +3773,15 @@
         <v>4000</v>
       </c>
       <c r="G113" t="n">
-        <v>276984.9792806719</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4160,18 +3803,15 @@
         <v>5433.0303</v>
       </c>
       <c r="G114" t="n">
-        <v>276984.9792806719</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4193,18 +3833,15 @@
         <v>9430.8233</v>
       </c>
       <c r="G115" t="n">
-        <v>276984.9792806719</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4226,18 +3863,15 @@
         <v>9111.264800000001</v>
       </c>
       <c r="G116" t="n">
-        <v>276984.9792806719</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4259,18 +3893,15 @@
         <v>49884.1611</v>
       </c>
       <c r="G117" t="n">
-        <v>326869.1403806719</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4292,18 +3923,15 @@
         <v>3825.1977</v>
       </c>
       <c r="G118" t="n">
-        <v>323043.9426806719</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4325,18 +3953,15 @@
         <v>198.118</v>
       </c>
       <c r="G119" t="n">
-        <v>323043.9426806719</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4358,18 +3983,15 @@
         <v>9257.885899999999</v>
       </c>
       <c r="G120" t="n">
-        <v>313786.0567806719</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4391,18 +4013,15 @@
         <v>15645</v>
       </c>
       <c r="G121" t="n">
-        <v>329431.0567806719</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4424,18 +4043,15 @@
         <v>2145.922746781116</v>
       </c>
       <c r="G122" t="n">
-        <v>329431.0567806719</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4457,18 +4073,15 @@
         <v>282.7585</v>
       </c>
       <c r="G123" t="n">
-        <v>329431.0567806719</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4490,18 +4103,15 @@
         <v>282.5554</v>
       </c>
       <c r="G124" t="n">
-        <v>329431.0567806719</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4523,18 +4133,15 @@
         <v>16834.6074</v>
       </c>
       <c r="G125" t="n">
-        <v>329431.0567806719</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4556,18 +4163,15 @@
         <v>6089.9634</v>
       </c>
       <c r="G126" t="n">
-        <v>323341.0933806719</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4589,18 +4193,15 @@
         <v>11100.0366</v>
       </c>
       <c r="G127" t="n">
-        <v>312241.0567806719</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4622,18 +4223,15 @@
         <v>1244.217</v>
       </c>
       <c r="G128" t="n">
-        <v>312241.0567806719</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4655,18 +4253,15 @@
         <v>7920.9145</v>
       </c>
       <c r="G129" t="n">
-        <v>320161.9712806719</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4688,18 +4283,15 @@
         <v>29212.6326</v>
       </c>
       <c r="G130" t="n">
-        <v>349374.603880672</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4721,18 +4313,15 @@
         <v>19589.4304</v>
       </c>
       <c r="G131" t="n">
-        <v>329785.1734806719</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4754,18 +4343,15 @@
         <v>6194.1935</v>
       </c>
       <c r="G132" t="n">
-        <v>329785.1734806719</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4787,18 +4373,15 @@
         <v>8311</v>
       </c>
       <c r="G133" t="n">
-        <v>338096.1734806719</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4820,18 +4403,15 @@
         <v>9546.8359</v>
       </c>
       <c r="G134" t="n">
-        <v>338096.1734806719</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4853,18 +4433,15 @@
         <v>573.8058</v>
       </c>
       <c r="G135" t="n">
-        <v>337522.367680672</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4886,18 +4463,15 @@
         <v>22</v>
       </c>
       <c r="G136" t="n">
-        <v>337544.367680672</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4919,18 +4493,15 @@
         <v>1022</v>
       </c>
       <c r="G137" t="n">
-        <v>337544.367680672</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4952,18 +4523,15 @@
         <v>7952</v>
       </c>
       <c r="G138" t="n">
-        <v>329592.367680672</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4985,18 +4553,15 @@
         <v>22087</v>
       </c>
       <c r="G139" t="n">
-        <v>351679.367680672</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5018,18 +4583,15 @@
         <v>40761.5889</v>
       </c>
       <c r="G140" t="n">
-        <v>310917.778780672</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5051,18 +4613,15 @@
         <v>97234.63761983471</v>
       </c>
       <c r="G141" t="n">
-        <v>408152.4164005067</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5084,18 +4643,15 @@
         <v>42596.59231336032</v>
       </c>
       <c r="G142" t="n">
-        <v>450749.008713867</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5117,18 +4673,15 @@
         <v>68604.2405</v>
       </c>
       <c r="G143" t="n">
-        <v>382144.768213867</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5150,18 +4703,15 @@
         <v>19027.2448</v>
       </c>
       <c r="G144" t="n">
-        <v>363117.523413867</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5183,18 +4733,15 @@
         <v>8447.77</v>
       </c>
       <c r="G145" t="n">
-        <v>354669.753413867</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5216,18 +4763,15 @@
         <v>38132.5</v>
       </c>
       <c r="G146" t="n">
-        <v>354669.753413867</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5249,18 +4793,15 @@
         <v>28000</v>
       </c>
       <c r="G147" t="n">
-        <v>326669.753413867</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5282,18 +4823,15 @@
         <v>9342.92</v>
       </c>
       <c r="G148" t="n">
-        <v>326669.753413867</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5315,18 +4853,15 @@
         <v>23664.53</v>
       </c>
       <c r="G149" t="n">
-        <v>350334.283413867</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5348,18 +4883,15 @@
         <v>43503.64</v>
       </c>
       <c r="G150" t="n">
-        <v>350334.283413867</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5381,18 +4913,15 @@
         <v>887.7735</v>
       </c>
       <c r="G151" t="n">
-        <v>349446.509913867</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5414,18 +4943,15 @@
         <v>11528.9256</v>
       </c>
       <c r="G152" t="n">
-        <v>349446.509913867</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5447,18 +4973,15 @@
         <v>12262.7686</v>
       </c>
       <c r="G153" t="n">
-        <v>349446.509913867</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5480,18 +5003,15 @@
         <v>13518.8221</v>
       </c>
       <c r="G154" t="n">
-        <v>362965.332013867</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5513,18 +5033,15 @@
         <v>46371.22</v>
       </c>
       <c r="G155" t="n">
-        <v>316594.112013867</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5546,18 +5063,15 @@
         <v>30000</v>
       </c>
       <c r="G156" t="n">
-        <v>286594.112013867</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5579,18 +5093,15 @@
         <v>4288.13</v>
       </c>
       <c r="G157" t="n">
-        <v>290882.242013867</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5612,18 +5123,15 @@
         <v>66866.7</v>
       </c>
       <c r="G158" t="n">
-        <v>224015.542013867</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5645,18 +5153,15 @@
         <v>486</v>
       </c>
       <c r="G159" t="n">
-        <v>224015.542013867</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5678,18 +5183,15 @@
         <v>199</v>
       </c>
       <c r="G160" t="n">
-        <v>224015.542013867</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5711,18 +5213,15 @@
         <v>17039.0892</v>
       </c>
       <c r="G161" t="n">
-        <v>224015.542013867</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5744,18 +5243,15 @@
         <v>13013</v>
       </c>
       <c r="G162" t="n">
-        <v>211002.542013867</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5777,18 +5273,15 @@
         <v>159</v>
       </c>
       <c r="G163" t="n">
-        <v>211161.542013867</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5810,18 +5303,15 @@
         <v>5965.5507</v>
       </c>
       <c r="G164" t="n">
-        <v>205195.991313867</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5843,18 +5333,15 @@
         <v>8778.455900000001</v>
       </c>
       <c r="G165" t="n">
-        <v>213974.447213867</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5876,18 +5363,15 @@
         <v>2467.6514</v>
       </c>
       <c r="G166" t="n">
-        <v>211506.795813867</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5909,18 +5393,15 @@
         <v>42.3728813559322</v>
       </c>
       <c r="G167" t="n">
-        <v>211549.1686952229</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5942,18 +5423,15 @@
         <v>2042.3728</v>
       </c>
       <c r="G168" t="n">
-        <v>209506.7958952229</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5975,18 +5453,15 @@
         <v>79372.4492</v>
       </c>
       <c r="G169" t="n">
-        <v>130134.3466952229</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6008,18 +5483,15 @@
         <v>3282.1893</v>
       </c>
       <c r="G170" t="n">
-        <v>133416.5359952229</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6041,18 +5513,15 @@
         <v>34000</v>
       </c>
       <c r="G171" t="n">
-        <v>99416.53599522292</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6074,18 +5543,15 @@
         <v>13492.494</v>
       </c>
       <c r="G172" t="n">
-        <v>99416.53599522292</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6107,18 +5573,15 @@
         <v>22905.5053</v>
       </c>
       <c r="G173" t="n">
-        <v>76511.03069522291</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6140,18 +5603,15 @@
         <v>200</v>
       </c>
       <c r="G174" t="n">
-        <v>76711.03069522291</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6173,18 +5633,15 @@
         <v>8160.8293</v>
       </c>
       <c r="G175" t="n">
-        <v>68550.20139522292</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6206,18 +5663,15 @@
         <v>132016.070355</v>
       </c>
       <c r="G176" t="n">
-        <v>200566.2717502229</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6239,18 +5693,15 @@
         <v>65.09999999999999</v>
       </c>
       <c r="G177" t="n">
-        <v>200501.1717502229</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6272,18 +5723,15 @@
         <v>6026.47</v>
       </c>
       <c r="G178" t="n">
-        <v>200501.1717502229</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6305,18 +5753,15 @@
         <v>65.09999999999999</v>
       </c>
       <c r="G179" t="n">
-        <v>200436.0717502229</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6338,18 +5783,15 @@
         <v>163.57</v>
       </c>
       <c r="G180" t="n">
-        <v>200436.0717502229</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6371,18 +5813,15 @@
         <v>19809.55</v>
       </c>
       <c r="G181" t="n">
-        <v>180626.5217502229</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6404,18 +5843,15 @@
         <v>4469.71</v>
       </c>
       <c r="G182" t="n">
-        <v>185096.2317502229</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6437,18 +5873,15 @@
         <v>829.78</v>
       </c>
       <c r="G183" t="n">
-        <v>185096.2317502229</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6470,18 +5903,15 @@
         <v>12139.8179</v>
       </c>
       <c r="G184" t="n">
-        <v>197236.0496502229</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6503,18 +5933,15 @@
         <v>29881.0109</v>
       </c>
       <c r="G185" t="n">
-        <v>197236.0496502229</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6536,18 +5963,15 @@
         <v>48879.1141</v>
       </c>
       <c r="G186" t="n">
-        <v>148356.9355502229</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6569,18 +5993,15 @@
         <v>1269.0229</v>
       </c>
       <c r="G187" t="n">
-        <v>149625.9584502229</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6602,18 +6023,15 @@
         <v>1750.2248</v>
       </c>
       <c r="G188" t="n">
-        <v>151376.1832502229</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6635,18 +6053,15 @@
         <v>1269.0229</v>
       </c>
       <c r="G189" t="n">
-        <v>151376.1832502229</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6668,18 +6083,15 @@
         <v>23551.52</v>
       </c>
       <c r="G190" t="n">
-        <v>127824.6632502229</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6701,18 +6113,15 @@
         <v>1751.4186</v>
       </c>
       <c r="G191" t="n">
-        <v>129576.0818502229</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6734,18 +6143,15 @@
         <v>16187.7793</v>
       </c>
       <c r="G192" t="n">
-        <v>129576.0818502229</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6767,18 +6173,15 @@
         <v>14200</v>
       </c>
       <c r="G193" t="n">
-        <v>129576.0818502229</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6800,18 +6203,15 @@
         <v>23632.1234</v>
       </c>
       <c r="G194" t="n">
-        <v>105943.9584502229</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6833,18 +6233,15 @@
         <v>4721.0057</v>
       </c>
       <c r="G195" t="n">
-        <v>101222.9527502229</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6866,18 +6263,15 @@
         <v>30093.7058</v>
       </c>
       <c r="G196" t="n">
-        <v>101222.9527502229</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6899,18 +6293,15 @@
         <v>40924.6261</v>
       </c>
       <c r="G197" t="n">
-        <v>60298.32665022292</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6932,18 +6323,15 @@
         <v>900</v>
       </c>
       <c r="G198" t="n">
-        <v>59398.32665022292</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6965,18 +6353,15 @@
         <v>87</v>
       </c>
       <c r="G199" t="n">
-        <v>59485.32665022292</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6998,18 +6383,15 @@
         <v>69008.9826</v>
       </c>
       <c r="G200" t="n">
-        <v>-9523.655949777087</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7031,18 +6413,15 @@
         <v>63249.71</v>
       </c>
       <c r="G201" t="n">
-        <v>53726.05405022291</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7064,18 +6443,15 @@
         <v>6199.0817</v>
       </c>
       <c r="G202" t="n">
-        <v>47526.97235022291</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7097,18 +6473,15 @@
         <v>92878.4148</v>
       </c>
       <c r="G203" t="n">
-        <v>47526.97235022291</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7130,18 +6503,15 @@
         <v>52104.2478</v>
       </c>
       <c r="G204" t="n">
-        <v>-4577.275449777087</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7163,18 +6533,15 @@
         <v>1924.16</v>
       </c>
       <c r="G205" t="n">
-        <v>-2653.115449777088</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7196,18 +6563,15 @@
         <v>15260.1765</v>
       </c>
       <c r="G206" t="n">
-        <v>-17913.29194977709</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7229,18 +6593,15 @@
         <v>21712.15</v>
       </c>
       <c r="G207" t="n">
-        <v>-17913.29194977709</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7262,18 +6623,15 @@
         <v>49665.2447</v>
       </c>
       <c r="G208" t="n">
-        <v>-17913.29194977709</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7295,18 +6653,15 @@
         <v>3672.6787</v>
       </c>
       <c r="G209" t="n">
-        <v>-17913.29194977709</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7328,18 +6683,15 @@
         <v>91167.12390000001</v>
       </c>
       <c r="G210" t="n">
-        <v>-109080.4158497771</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7361,18 +6713,15 @@
         <v>6309.9502</v>
       </c>
       <c r="G211" t="n">
-        <v>-109080.4158497771</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7394,18 +6743,19 @@
         <v>15118.1871</v>
       </c>
       <c r="G212" t="n">
-        <v>-93962.22874977709</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>22.4</v>
+      </c>
+      <c r="I212" t="n">
+        <v>22.4</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7427,18 +6777,21 @@
         <v>74214.6633</v>
       </c>
       <c r="G213" t="n">
-        <v>-168176.8920497771</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7460,18 +6813,21 @@
         <v>16000</v>
       </c>
       <c r="G214" t="n">
-        <v>-168176.8920497771</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7493,18 +6849,23 @@
         <v>76261.1091</v>
       </c>
       <c r="G215" t="n">
-        <v>-244438.0011497771</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>22.4</v>
+      </c>
+      <c r="I215" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7526,18 +6887,23 @@
         <v>6104</v>
       </c>
       <c r="G216" t="n">
-        <v>-238334.0011497771</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>21.5</v>
+      </c>
+      <c r="I216" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7559,18 +6925,23 @@
         <v>12000</v>
       </c>
       <c r="G217" t="n">
-        <v>-250334.0011497771</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>22.8</v>
+      </c>
+      <c r="I217" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7592,18 +6963,23 @@
         <v>9051.290000000001</v>
       </c>
       <c r="G218" t="n">
-        <v>-250334.0011497771</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>21.8</v>
+      </c>
+      <c r="I218" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7625,18 +7001,23 @@
         <v>4625.3513</v>
       </c>
       <c r="G219" t="n">
-        <v>-254959.3524497771</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>21.8</v>
+      </c>
+      <c r="I219" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7658,18 +7039,23 @@
         <v>32522.9555</v>
       </c>
       <c r="G220" t="n">
-        <v>-254959.3524497771</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>21.6</v>
+      </c>
+      <c r="I220" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7691,18 +7077,23 @@
         <v>99358.8848</v>
       </c>
       <c r="G221" t="n">
-        <v>-254959.3524497771</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>21.6</v>
+      </c>
+      <c r="I221" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7724,18 +7115,23 @@
         <v>9546.8359</v>
       </c>
       <c r="G222" t="n">
-        <v>-254959.3524497771</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>21.6</v>
+      </c>
+      <c r="I222" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7757,18 +7153,23 @@
         <v>37069</v>
       </c>
       <c r="G223" t="n">
-        <v>-217890.3524497771</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>21.6</v>
+      </c>
+      <c r="I223" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7790,18 +7191,23 @@
         <v>134717.8591</v>
       </c>
       <c r="G224" t="n">
-        <v>-352608.2115497771</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>22.3</v>
+      </c>
+      <c r="I224" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7823,18 +7229,23 @@
         <v>301385.5773</v>
       </c>
       <c r="G225" t="n">
-        <v>-653993.7888497771</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>21.7</v>
+      </c>
+      <c r="I225" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7856,18 +7267,23 @@
         <v>99179.465</v>
       </c>
       <c r="G226" t="n">
-        <v>-753173.253849777</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>21.4</v>
+      </c>
+      <c r="I226" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7889,18 +7305,23 @@
         <v>139822.9929</v>
       </c>
       <c r="G227" t="n">
-        <v>-892996.2467497771</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>21.2</v>
+      </c>
+      <c r="I227" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7922,18 +7343,23 @@
         <v>164877.7666319249</v>
       </c>
       <c r="G228" t="n">
-        <v>-728118.4801178522</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>21.1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7955,18 +7381,23 @@
         <v>4321.6193</v>
       </c>
       <c r="G229" t="n">
-        <v>-723796.8608178522</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>21.2</v>
+      </c>
+      <c r="I229" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7988,18 +7419,23 @@
         <v>7712.4107</v>
       </c>
       <c r="G230" t="n">
-        <v>-723796.8608178522</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>21.4</v>
+      </c>
+      <c r="I230" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8021,18 +7457,23 @@
         <v>15000</v>
       </c>
       <c r="G231" t="n">
-        <v>-708796.8608178522</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>21.4</v>
+      </c>
+      <c r="I231" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8054,18 +7495,23 @@
         <v>578.3143</v>
       </c>
       <c r="G232" t="n">
-        <v>-708218.5465178522</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>21.5</v>
+      </c>
+      <c r="I232" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8087,18 +7533,21 @@
         <v>45690.53853911111</v>
       </c>
       <c r="G233" t="n">
-        <v>-662528.0079787411</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8120,18 +7569,21 @@
         <v>573.1765</v>
       </c>
       <c r="G234" t="n">
-        <v>-663101.184478741</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8153,18 +7605,21 @@
         <v>18699.9332</v>
       </c>
       <c r="G235" t="n">
-        <v>-681801.117678741</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8186,18 +7641,21 @@
         <v>35761.44144144144</v>
       </c>
       <c r="G236" t="n">
-        <v>-646039.6762372996</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8219,18 +7677,21 @@
         <v>13136.8621</v>
       </c>
       <c r="G237" t="n">
-        <v>-659176.5383372996</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8252,18 +7713,21 @@
         <v>1375.7365</v>
       </c>
       <c r="G238" t="n">
-        <v>-657800.8018372996</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8285,18 +7749,21 @@
         <v>9113.1088</v>
       </c>
       <c r="G239" t="n">
-        <v>-657800.8018372996</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8318,18 +7785,21 @@
         <v>209.417</v>
       </c>
       <c r="G240" t="n">
-        <v>-658010.2188372996</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8351,18 +7821,21 @@
         <v>19517.1382</v>
       </c>
       <c r="G241" t="n">
-        <v>-677527.3570372997</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8384,18 +7857,21 @@
         <v>27008.7696</v>
       </c>
       <c r="G242" t="n">
-        <v>-650518.5874372997</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8417,18 +7893,21 @@
         <v>128355.461</v>
       </c>
       <c r="G243" t="n">
-        <v>-778874.0484372997</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8450,22 +7929,21 @@
         <v>57378</v>
       </c>
       <c r="G244" t="n">
-        <v>-721496.0484372997</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J244" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>22.4</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8487,26 +7965,21 @@
         <v>20986.6069</v>
       </c>
       <c r="G245" t="n">
-        <v>-700509.4415372997</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J245" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K245" t="inlineStr">
+        <v>22.4</v>
+      </c>
+      <c r="J245" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8528,26 +8001,21 @@
         <v>24162.3251</v>
       </c>
       <c r="G246" t="n">
-        <v>-724671.7666372997</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="J246" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K246" t="inlineStr">
+        <v>22.4</v>
+      </c>
+      <c r="J246" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8569,26 +8037,21 @@
         <v>341949.3738</v>
       </c>
       <c r="G247" t="n">
-        <v>-382722.3928372997</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J247" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K247" t="inlineStr">
+        <v>22.4</v>
+      </c>
+      <c r="J247" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8610,24 +8073,21 @@
         <v>112044.238</v>
       </c>
       <c r="G248" t="n">
-        <v>-494766.6308372997</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K248" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8649,24 +8109,21 @@
         <v>36484.6072</v>
       </c>
       <c r="G249" t="n">
-        <v>-531251.2380372997</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K249" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8688,24 +8145,21 @@
         <v>17900.7393</v>
       </c>
       <c r="G250" t="n">
-        <v>-549151.9773372997</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K250" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8727,24 +8181,21 @@
         <v>39762.6253</v>
       </c>
       <c r="G251" t="n">
-        <v>-509389.3520372997</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K251" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
